--- a/src/main/resources/static/upload/Ot-addActividad.xlsx
+++ b/src/main/resources/static/upload/Ot-addActividad.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Actividad" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="ProductOffering" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
@@ -22,30 +22,53 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t xml:space="preserve">RuleSet</t>
   </si>
   <si>
-    <t xml:space="preserve">test</t>
+    <t xml:space="preserve">net.cloudburo.drools</t>
   </si>
   <si>
     <t xml:space="preserve">Import</t>
   </si>
   <si>
-    <t xml:space="preserve">com.example.cargaUnificada.resource.request.Ot,com.example.cargaUnificada.resource.request.Actividad</t>
+    <t xml:space="preserve">com.example.cargaUnificada.resource.request.Ot, com.example.cargaUnificada.resource.request.Actividad</t>
   </si>
   <si>
     <t xml:space="preserve">Variables</t>
   </si>
   <si>
+    <t xml:space="preserve">com.example.cargaUnificada.resource.request.Ot ot</t>
+  </si>
+  <si>
     <t xml:space="preserve">Notes</t>
   </si>
   <si>
-    <t xml:space="preserve">Esta es una prueba de concepto de Drools para el Objeto OT</t>
+    <t xml:space="preserve">Drools POC</t>
   </si>
   <si>
-    <t xml:space="preserve">RuleTable OT</t>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">RuleTable </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Initial Product Offering</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">NAME</t>
@@ -60,94 +83,13 @@
     <t xml:space="preserve">$ot:Ot</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">$ot.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">getCodTipoOT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">() == ($param)</t>
-    </r>
+    <t xml:space="preserve">$ot.getCodTipoOT in ($param)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">$ot.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">getCodOT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">() == ($param)</t>
-    </r>
+    <t xml:space="preserve">$ot.getCodOT()  in ($param)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">$ot.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">getIdOT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">() == ($param)</t>
-    </r>
+    <t xml:space="preserve">$ot.getIdOT() not in ($param)</t>
   </si>
   <si>
     <t xml:space="preserve">$ot.agregarActividad($param);</t>
@@ -159,31 +101,37 @@
     <t xml:space="preserve">Rule Name</t>
   </si>
   <si>
-    <t xml:space="preserve">tipo</t>
+    <t xml:space="preserve">Customer type</t>
   </si>
   <si>
-    <t xml:space="preserve">codigo</t>
+    <t xml:space="preserve">Assets</t>
   </si>
   <si>
-    <t xml:space="preserve">Id</t>
+    <t xml:space="preserve">Needs</t>
   </si>
   <si>
-    <t xml:space="preserve">Actividad</t>
+    <t xml:space="preserve">FinancialPackageProposal</t>
   </si>
   <si>
-    <t xml:space="preserve">Remover Actividad</t>
+    <t xml:space="preserve">SingleProductProposal</t>
   </si>
   <si>
-    <t xml:space="preserve">“rule1”</t>
+    <t xml:space="preserve">rule1</t>
   </si>
   <si>
-    <t xml:space="preserve">“LecturaRemito”</t>
+    <t xml:space="preserve">"REC"</t>
   </si>
   <si>
-    <t xml:space="preserve">“rule2”</t>
+    <t xml:space="preserve">"12132131"</t>
   </si>
   <si>
-    <t xml:space="preserve">“aaaaaaaaaaa”</t>
+    <t xml:space="preserve">"Coleta"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rule2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"SAFEBAG"</t>
   </si>
 </sst>
 </file>
@@ -195,7 +143,7 @@
     <numFmt numFmtId="165" formatCode="0.00\ %"/>
     <numFmt numFmtId="166" formatCode="0"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -243,36 +191,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <u val="single"/>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -286,16 +210,10 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -305,15 +223,8 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -329,29 +240,35 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
+        <bgColor rgb="FF222222"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB4C7E7"/>
-        <bgColor rgb="FFBFBFBF"/>
+        <bgColor rgb="FF99CCFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF8CBAD"/>
-        <bgColor rgb="FFBFBFBF"/>
+        <bgColor rgb="FFD0CECE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBFBFBF"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0CECE"/>
         <bgColor rgb="FFB4C7E7"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -369,13 +286,6 @@
     <border diagonalUp="false" diagonalDown="false">
       <left style="hair"/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right/>
       <top style="hair"/>
       <bottom style="hair"/>
       <diagonal/>
@@ -384,13 +294,6 @@
       <left/>
       <right/>
       <top style="hair"/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right/>
-      <top/>
       <bottom style="hair"/>
       <diagonal/>
     </border>
@@ -420,7 +323,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -433,10 +336,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -445,35 +344,35 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -489,56 +388,68 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -566,7 +477,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFBFBFBF"/>
+      <rgbColor rgb="FFD0CECE"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -607,7 +518,7 @@
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="FF222222"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -618,183 +529,8073 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:J996"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="35.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="27.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="29.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="40.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="10" style="0" width="11.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="17" style="0" width="10"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="A7" s="13" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="J6" s="10"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="A7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="16" t="s">
+      <c r="B7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="C7" s="14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="A8" s="9"/>
-      <c r="B8" s="17" t="s">
+      <c r="D7" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A9" s="19"/>
-      <c r="B9" s="20" t="s">
+      <c r="F7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="A8" s="7"/>
+      <c r="B8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="A9" s="7"/>
+      <c r="B9" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="C9" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="D9" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="E9" s="21" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="A10" s="24" t="s">
+      <c r="F9" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="H9" s="22"/>
+    </row>
+    <row r="10" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="A10" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="B10" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="C10" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="D10" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="E10" s="25" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" s="29" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="27" t="s">
+      <c r="F10" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="27" t="s">
+      <c r="H10" s="22"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="26" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="29" t="s">
+      <c r="B11" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="27" t="s">
+      <c r="C11" s="28"/>
+      <c r="D11" s="28" t="s">
         <v>26</v>
       </c>
+      <c r="E11" s="29"/>
+      <c r="F11" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28" t="s">
+        <v>29</v>
+      </c>
       <c r="F12" s="28"/>
+    </row>
+    <row r="13" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="30"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+    </row>
+    <row r="14" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="30"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+    </row>
+    <row r="15" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+    </row>
+    <row r="16" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="30"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+    </row>
+    <row r="17" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="30"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+    </row>
+    <row r="18" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="30"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+    </row>
+    <row r="19" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="30"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+    </row>
+    <row r="20" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="30"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+    </row>
+    <row r="21" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="30"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+    </row>
+    <row r="22" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="30"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+    </row>
+    <row r="23" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="30"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+    </row>
+    <row r="24" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="30"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+    </row>
+    <row r="25" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="30"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+    </row>
+    <row r="26" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="30"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+    </row>
+    <row r="27" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="30"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+    </row>
+    <row r="28" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="30"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+    </row>
+    <row r="29" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="30"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+    </row>
+    <row r="30" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="30"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+    </row>
+    <row r="31" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="30"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+    </row>
+    <row r="32" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="30"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+    </row>
+    <row r="33" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="30"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+    </row>
+    <row r="34" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="30"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+    </row>
+    <row r="35" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="30"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+    </row>
+    <row r="36" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="30"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+    </row>
+    <row r="37" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="30"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+    </row>
+    <row r="38" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="30"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+    </row>
+    <row r="39" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="30"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+    </row>
+    <row r="40" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="30"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+    </row>
+    <row r="41" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="30"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+    </row>
+    <row r="42" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="30"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+    </row>
+    <row r="43" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="30"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+    </row>
+    <row r="44" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="30"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+    </row>
+    <row r="45" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="30"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+    </row>
+    <row r="46" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="30"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+    </row>
+    <row r="47" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="30"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+    </row>
+    <row r="48" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="30"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+    </row>
+    <row r="49" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="30"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+    </row>
+    <row r="50" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="30"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+    </row>
+    <row r="51" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="30"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+    </row>
+    <row r="52" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="30"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+    </row>
+    <row r="53" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="30"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+    </row>
+    <row r="54" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="30"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
+    </row>
+    <row r="55" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="30"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="31"/>
+    </row>
+    <row r="56" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="30"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+    </row>
+    <row r="57" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="30"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
+    </row>
+    <row r="58" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="30"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31"/>
+    </row>
+    <row r="59" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="30"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="31"/>
+    </row>
+    <row r="60" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="30"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+    </row>
+    <row r="61" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="30"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+    </row>
+    <row r="62" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="30"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="31"/>
+      <c r="E62" s="31"/>
+      <c r="F62" s="31"/>
+    </row>
+    <row r="63" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="30"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="31"/>
+      <c r="F63" s="31"/>
+    </row>
+    <row r="64" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="30"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="31"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="31"/>
+    </row>
+    <row r="65" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="30"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+    </row>
+    <row r="66" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="30"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="31"/>
+    </row>
+    <row r="67" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="30"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="31"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="31"/>
+    </row>
+    <row r="68" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="30"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="31"/>
+      <c r="E68" s="31"/>
+      <c r="F68" s="31"/>
+    </row>
+    <row r="69" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="30"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
+    </row>
+    <row r="70" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="30"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31"/>
+    </row>
+    <row r="71" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="30"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="31"/>
+      <c r="E71" s="31"/>
+      <c r="F71" s="31"/>
+    </row>
+    <row r="72" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="30"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="31"/>
+      <c r="E72" s="31"/>
+      <c r="F72" s="31"/>
+    </row>
+    <row r="73" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="30"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="31"/>
+      <c r="E73" s="31"/>
+      <c r="F73" s="31"/>
+    </row>
+    <row r="74" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="30"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="31"/>
+    </row>
+    <row r="75" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="30"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="31"/>
+      <c r="D75" s="31"/>
+      <c r="E75" s="31"/>
+      <c r="F75" s="31"/>
+    </row>
+    <row r="76" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="30"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="31"/>
+      <c r="D76" s="31"/>
+      <c r="E76" s="31"/>
+      <c r="F76" s="31"/>
+    </row>
+    <row r="77" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="30"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="31"/>
+      <c r="D77" s="31"/>
+      <c r="E77" s="31"/>
+      <c r="F77" s="31"/>
+    </row>
+    <row r="78" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="30"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="31"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="31"/>
+    </row>
+    <row r="79" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="30"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="31"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="31"/>
+    </row>
+    <row r="80" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="30"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="31"/>
+      <c r="D80" s="31"/>
+      <c r="E80" s="31"/>
+      <c r="F80" s="31"/>
+    </row>
+    <row r="81" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="30"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="31"/>
+      <c r="D81" s="31"/>
+      <c r="E81" s="31"/>
+      <c r="F81" s="31"/>
+    </row>
+    <row r="82" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="30"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="31"/>
+      <c r="D82" s="31"/>
+      <c r="E82" s="31"/>
+      <c r="F82" s="31"/>
+    </row>
+    <row r="83" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A83" s="30"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="31"/>
+      <c r="D83" s="31"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="31"/>
+    </row>
+    <row r="84" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A84" s="30"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="31"/>
+      <c r="D84" s="31"/>
+      <c r="E84" s="31"/>
+      <c r="F84" s="31"/>
+    </row>
+    <row r="85" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A85" s="30"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="31"/>
+      <c r="D85" s="31"/>
+      <c r="E85" s="31"/>
+      <c r="F85" s="31"/>
+    </row>
+    <row r="86" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A86" s="30"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="31"/>
+      <c r="D86" s="31"/>
+      <c r="E86" s="31"/>
+      <c r="F86" s="31"/>
+    </row>
+    <row r="87" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A87" s="30"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="31"/>
+      <c r="D87" s="31"/>
+      <c r="E87" s="31"/>
+      <c r="F87" s="31"/>
+    </row>
+    <row r="88" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A88" s="30"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="31"/>
+      <c r="D88" s="31"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="31"/>
+    </row>
+    <row r="89" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A89" s="30"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="31"/>
+      <c r="D89" s="31"/>
+      <c r="E89" s="31"/>
+      <c r="F89" s="31"/>
+    </row>
+    <row r="90" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A90" s="30"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="31"/>
+      <c r="D90" s="31"/>
+      <c r="E90" s="31"/>
+      <c r="F90" s="31"/>
+    </row>
+    <row r="91" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A91" s="30"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="31"/>
+      <c r="D91" s="31"/>
+      <c r="E91" s="31"/>
+      <c r="F91" s="31"/>
+    </row>
+    <row r="92" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A92" s="30"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="31"/>
+      <c r="D92" s="31"/>
+      <c r="E92" s="31"/>
+      <c r="F92" s="31"/>
+    </row>
+    <row r="93" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A93" s="30"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="31"/>
+      <c r="D93" s="31"/>
+      <c r="E93" s="31"/>
+      <c r="F93" s="31"/>
+    </row>
+    <row r="94" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A94" s="30"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="31"/>
+      <c r="D94" s="31"/>
+      <c r="E94" s="31"/>
+      <c r="F94" s="31"/>
+    </row>
+    <row r="95" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A95" s="30"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="31"/>
+      <c r="D95" s="31"/>
+      <c r="E95" s="31"/>
+      <c r="F95" s="31"/>
+    </row>
+    <row r="96" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A96" s="30"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="31"/>
+      <c r="D96" s="31"/>
+      <c r="E96" s="31"/>
+      <c r="F96" s="31"/>
+    </row>
+    <row r="97" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A97" s="30"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="31"/>
+      <c r="D97" s="31"/>
+      <c r="E97" s="31"/>
+      <c r="F97" s="31"/>
+    </row>
+    <row r="98" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A98" s="30"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="31"/>
+      <c r="D98" s="31"/>
+      <c r="E98" s="31"/>
+      <c r="F98" s="31"/>
+    </row>
+    <row r="99" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A99" s="30"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="31"/>
+      <c r="D99" s="31"/>
+      <c r="E99" s="31"/>
+      <c r="F99" s="31"/>
+    </row>
+    <row r="100" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A100" s="30"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="31"/>
+      <c r="D100" s="31"/>
+      <c r="E100" s="31"/>
+      <c r="F100" s="31"/>
+    </row>
+    <row r="101" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A101" s="30"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="31"/>
+      <c r="D101" s="31"/>
+      <c r="E101" s="31"/>
+      <c r="F101" s="31"/>
+    </row>
+    <row r="102" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A102" s="30"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="31"/>
+      <c r="D102" s="31"/>
+      <c r="E102" s="31"/>
+      <c r="F102" s="31"/>
+    </row>
+    <row r="103" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A103" s="30"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="31"/>
+      <c r="D103" s="31"/>
+      <c r="E103" s="31"/>
+      <c r="F103" s="31"/>
+    </row>
+    <row r="104" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A104" s="30"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="31"/>
+      <c r="D104" s="31"/>
+      <c r="E104" s="31"/>
+      <c r="F104" s="31"/>
+    </row>
+    <row r="105" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A105" s="30"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="31"/>
+      <c r="D105" s="31"/>
+      <c r="E105" s="31"/>
+      <c r="F105" s="31"/>
+    </row>
+    <row r="106" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A106" s="30"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="31"/>
+      <c r="D106" s="31"/>
+      <c r="E106" s="31"/>
+      <c r="F106" s="31"/>
+    </row>
+    <row r="107" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A107" s="30"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="31"/>
+      <c r="D107" s="31"/>
+      <c r="E107" s="31"/>
+      <c r="F107" s="31"/>
+    </row>
+    <row r="108" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A108" s="30"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="31"/>
+      <c r="D108" s="31"/>
+      <c r="E108" s="31"/>
+      <c r="F108" s="31"/>
+    </row>
+    <row r="109" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A109" s="30"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="31"/>
+      <c r="D109" s="31"/>
+      <c r="E109" s="31"/>
+      <c r="F109" s="31"/>
+    </row>
+    <row r="110" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A110" s="30"/>
+      <c r="B110" s="5"/>
+      <c r="C110" s="31"/>
+      <c r="D110" s="31"/>
+      <c r="E110" s="31"/>
+      <c r="F110" s="31"/>
+    </row>
+    <row r="111" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A111" s="30"/>
+      <c r="B111" s="5"/>
+      <c r="C111" s="31"/>
+      <c r="D111" s="31"/>
+      <c r="E111" s="31"/>
+      <c r="F111" s="31"/>
+    </row>
+    <row r="112" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A112" s="30"/>
+      <c r="B112" s="5"/>
+      <c r="C112" s="31"/>
+      <c r="D112" s="31"/>
+      <c r="E112" s="31"/>
+      <c r="F112" s="31"/>
+    </row>
+    <row r="113" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A113" s="30"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="31"/>
+      <c r="D113" s="31"/>
+      <c r="E113" s="31"/>
+      <c r="F113" s="31"/>
+    </row>
+    <row r="114" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A114" s="30"/>
+      <c r="B114" s="5"/>
+      <c r="C114" s="31"/>
+      <c r="D114" s="31"/>
+      <c r="E114" s="31"/>
+      <c r="F114" s="31"/>
+    </row>
+    <row r="115" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A115" s="30"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="31"/>
+      <c r="D115" s="31"/>
+      <c r="E115" s="31"/>
+      <c r="F115" s="31"/>
+    </row>
+    <row r="116" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A116" s="30"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="31"/>
+      <c r="D116" s="31"/>
+      <c r="E116" s="31"/>
+      <c r="F116" s="31"/>
+    </row>
+    <row r="117" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A117" s="30"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="31"/>
+      <c r="D117" s="31"/>
+      <c r="E117" s="31"/>
+      <c r="F117" s="31"/>
+    </row>
+    <row r="118" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A118" s="30"/>
+      <c r="B118" s="5"/>
+      <c r="C118" s="31"/>
+      <c r="D118" s="31"/>
+      <c r="E118" s="31"/>
+      <c r="F118" s="31"/>
+    </row>
+    <row r="119" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A119" s="30"/>
+      <c r="B119" s="5"/>
+      <c r="C119" s="31"/>
+      <c r="D119" s="31"/>
+      <c r="E119" s="31"/>
+      <c r="F119" s="31"/>
+    </row>
+    <row r="120" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A120" s="30"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="31"/>
+      <c r="D120" s="31"/>
+      <c r="E120" s="31"/>
+      <c r="F120" s="31"/>
+    </row>
+    <row r="121" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A121" s="30"/>
+      <c r="B121" s="5"/>
+      <c r="C121" s="31"/>
+      <c r="D121" s="31"/>
+      <c r="E121" s="31"/>
+      <c r="F121" s="31"/>
+    </row>
+    <row r="122" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A122" s="30"/>
+      <c r="B122" s="5"/>
+      <c r="C122" s="31"/>
+      <c r="D122" s="31"/>
+      <c r="E122" s="31"/>
+      <c r="F122" s="31"/>
+    </row>
+    <row r="123" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A123" s="30"/>
+      <c r="B123" s="5"/>
+      <c r="C123" s="31"/>
+      <c r="D123" s="31"/>
+      <c r="E123" s="31"/>
+      <c r="F123" s="31"/>
+    </row>
+    <row r="124" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A124" s="30"/>
+      <c r="B124" s="5"/>
+      <c r="C124" s="31"/>
+      <c r="D124" s="31"/>
+      <c r="E124" s="31"/>
+      <c r="F124" s="31"/>
+    </row>
+    <row r="125" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A125" s="30"/>
+      <c r="B125" s="5"/>
+      <c r="C125" s="31"/>
+      <c r="D125" s="31"/>
+      <c r="E125" s="31"/>
+      <c r="F125" s="31"/>
+    </row>
+    <row r="126" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A126" s="30"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="31"/>
+      <c r="D126" s="31"/>
+      <c r="E126" s="31"/>
+      <c r="F126" s="31"/>
+    </row>
+    <row r="127" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A127" s="30"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="31"/>
+      <c r="D127" s="31"/>
+      <c r="E127" s="31"/>
+      <c r="F127" s="31"/>
+    </row>
+    <row r="128" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A128" s="30"/>
+      <c r="B128" s="5"/>
+      <c r="C128" s="31"/>
+      <c r="D128" s="31"/>
+      <c r="E128" s="31"/>
+      <c r="F128" s="31"/>
+    </row>
+    <row r="129" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A129" s="30"/>
+      <c r="B129" s="5"/>
+      <c r="C129" s="31"/>
+      <c r="D129" s="31"/>
+      <c r="E129" s="31"/>
+      <c r="F129" s="31"/>
+    </row>
+    <row r="130" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A130" s="30"/>
+      <c r="B130" s="5"/>
+      <c r="C130" s="31"/>
+      <c r="D130" s="31"/>
+      <c r="E130" s="31"/>
+      <c r="F130" s="31"/>
+    </row>
+    <row r="131" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A131" s="30"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="31"/>
+      <c r="D131" s="31"/>
+      <c r="E131" s="31"/>
+      <c r="F131" s="31"/>
+    </row>
+    <row r="132" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A132" s="30"/>
+      <c r="B132" s="5"/>
+      <c r="C132" s="31"/>
+      <c r="D132" s="31"/>
+      <c r="E132" s="31"/>
+      <c r="F132" s="31"/>
+    </row>
+    <row r="133" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A133" s="30"/>
+      <c r="B133" s="5"/>
+      <c r="C133" s="31"/>
+      <c r="D133" s="31"/>
+      <c r="E133" s="31"/>
+      <c r="F133" s="31"/>
+    </row>
+    <row r="134" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A134" s="30"/>
+      <c r="B134" s="5"/>
+      <c r="C134" s="31"/>
+      <c r="D134" s="31"/>
+      <c r="E134" s="31"/>
+      <c r="F134" s="31"/>
+    </row>
+    <row r="135" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A135" s="30"/>
+      <c r="B135" s="5"/>
+      <c r="C135" s="31"/>
+      <c r="D135" s="31"/>
+      <c r="E135" s="31"/>
+      <c r="F135" s="31"/>
+    </row>
+    <row r="136" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A136" s="30"/>
+      <c r="B136" s="5"/>
+      <c r="C136" s="31"/>
+      <c r="D136" s="31"/>
+      <c r="E136" s="31"/>
+      <c r="F136" s="31"/>
+    </row>
+    <row r="137" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A137" s="30"/>
+      <c r="B137" s="5"/>
+      <c r="C137" s="31"/>
+      <c r="D137" s="31"/>
+      <c r="E137" s="31"/>
+      <c r="F137" s="31"/>
+    </row>
+    <row r="138" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A138" s="30"/>
+      <c r="B138" s="5"/>
+      <c r="C138" s="31"/>
+      <c r="D138" s="31"/>
+      <c r="E138" s="31"/>
+      <c r="F138" s="31"/>
+    </row>
+    <row r="139" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A139" s="30"/>
+      <c r="B139" s="5"/>
+      <c r="C139" s="31"/>
+      <c r="D139" s="31"/>
+      <c r="E139" s="31"/>
+      <c r="F139" s="31"/>
+    </row>
+    <row r="140" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A140" s="30"/>
+      <c r="B140" s="5"/>
+      <c r="C140" s="31"/>
+      <c r="D140" s="31"/>
+      <c r="E140" s="31"/>
+      <c r="F140" s="31"/>
+    </row>
+    <row r="141" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A141" s="30"/>
+      <c r="B141" s="5"/>
+      <c r="C141" s="31"/>
+      <c r="D141" s="31"/>
+      <c r="E141" s="31"/>
+      <c r="F141" s="31"/>
+    </row>
+    <row r="142" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A142" s="30"/>
+      <c r="B142" s="5"/>
+      <c r="C142" s="31"/>
+      <c r="D142" s="31"/>
+      <c r="E142" s="31"/>
+      <c r="F142" s="31"/>
+    </row>
+    <row r="143" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A143" s="30"/>
+      <c r="B143" s="5"/>
+      <c r="C143" s="31"/>
+      <c r="D143" s="31"/>
+      <c r="E143" s="31"/>
+      <c r="F143" s="31"/>
+    </row>
+    <row r="144" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A144" s="30"/>
+      <c r="B144" s="5"/>
+      <c r="C144" s="31"/>
+      <c r="D144" s="31"/>
+      <c r="E144" s="31"/>
+      <c r="F144" s="31"/>
+    </row>
+    <row r="145" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A145" s="30"/>
+      <c r="B145" s="5"/>
+      <c r="C145" s="31"/>
+      <c r="D145" s="31"/>
+      <c r="E145" s="31"/>
+      <c r="F145" s="31"/>
+    </row>
+    <row r="146" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A146" s="30"/>
+      <c r="B146" s="5"/>
+      <c r="C146" s="31"/>
+      <c r="D146" s="31"/>
+      <c r="E146" s="31"/>
+      <c r="F146" s="31"/>
+    </row>
+    <row r="147" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A147" s="30"/>
+      <c r="B147" s="5"/>
+      <c r="C147" s="31"/>
+      <c r="D147" s="31"/>
+      <c r="E147" s="31"/>
+      <c r="F147" s="31"/>
+    </row>
+    <row r="148" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A148" s="30"/>
+      <c r="B148" s="5"/>
+      <c r="C148" s="31"/>
+      <c r="D148" s="31"/>
+      <c r="E148" s="31"/>
+      <c r="F148" s="31"/>
+    </row>
+    <row r="149" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A149" s="30"/>
+      <c r="B149" s="5"/>
+      <c r="C149" s="31"/>
+      <c r="D149" s="31"/>
+      <c r="E149" s="31"/>
+      <c r="F149" s="31"/>
+    </row>
+    <row r="150" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A150" s="30"/>
+      <c r="B150" s="5"/>
+      <c r="C150" s="31"/>
+      <c r="D150" s="31"/>
+      <c r="E150" s="31"/>
+      <c r="F150" s="31"/>
+    </row>
+    <row r="151" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A151" s="30"/>
+      <c r="B151" s="5"/>
+      <c r="C151" s="31"/>
+      <c r="D151" s="31"/>
+      <c r="E151" s="31"/>
+      <c r="F151" s="31"/>
+    </row>
+    <row r="152" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A152" s="30"/>
+      <c r="B152" s="5"/>
+      <c r="C152" s="31"/>
+      <c r="D152" s="31"/>
+      <c r="E152" s="31"/>
+      <c r="F152" s="31"/>
+    </row>
+    <row r="153" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A153" s="30"/>
+      <c r="B153" s="5"/>
+      <c r="C153" s="31"/>
+      <c r="D153" s="31"/>
+      <c r="E153" s="31"/>
+      <c r="F153" s="31"/>
+    </row>
+    <row r="154" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A154" s="30"/>
+      <c r="B154" s="5"/>
+      <c r="C154" s="31"/>
+      <c r="D154" s="31"/>
+      <c r="E154" s="31"/>
+      <c r="F154" s="31"/>
+    </row>
+    <row r="155" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A155" s="30"/>
+      <c r="B155" s="5"/>
+      <c r="C155" s="31"/>
+      <c r="D155" s="31"/>
+      <c r="E155" s="31"/>
+      <c r="F155" s="31"/>
+    </row>
+    <row r="156" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A156" s="30"/>
+      <c r="B156" s="5"/>
+      <c r="C156" s="31"/>
+      <c r="D156" s="31"/>
+      <c r="E156" s="31"/>
+      <c r="F156" s="31"/>
+    </row>
+    <row r="157" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A157" s="30"/>
+      <c r="B157" s="5"/>
+      <c r="C157" s="31"/>
+      <c r="D157" s="31"/>
+      <c r="E157" s="31"/>
+      <c r="F157" s="31"/>
+    </row>
+    <row r="158" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A158" s="30"/>
+      <c r="B158" s="5"/>
+      <c r="C158" s="31"/>
+      <c r="D158" s="31"/>
+      <c r="E158" s="31"/>
+      <c r="F158" s="31"/>
+    </row>
+    <row r="159" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A159" s="30"/>
+      <c r="B159" s="5"/>
+      <c r="C159" s="31"/>
+      <c r="D159" s="31"/>
+      <c r="E159" s="31"/>
+      <c r="F159" s="31"/>
+    </row>
+    <row r="160" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A160" s="30"/>
+      <c r="B160" s="5"/>
+      <c r="C160" s="31"/>
+      <c r="D160" s="31"/>
+      <c r="E160" s="31"/>
+      <c r="F160" s="31"/>
+    </row>
+    <row r="161" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A161" s="30"/>
+      <c r="B161" s="5"/>
+      <c r="C161" s="31"/>
+      <c r="D161" s="31"/>
+      <c r="E161" s="31"/>
+      <c r="F161" s="31"/>
+    </row>
+    <row r="162" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A162" s="30"/>
+      <c r="B162" s="5"/>
+      <c r="C162" s="31"/>
+      <c r="D162" s="31"/>
+      <c r="E162" s="31"/>
+      <c r="F162" s="31"/>
+    </row>
+    <row r="163" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A163" s="30"/>
+      <c r="B163" s="5"/>
+      <c r="C163" s="31"/>
+      <c r="D163" s="31"/>
+      <c r="E163" s="31"/>
+      <c r="F163" s="31"/>
+    </row>
+    <row r="164" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A164" s="30"/>
+      <c r="B164" s="5"/>
+      <c r="C164" s="31"/>
+      <c r="D164" s="31"/>
+      <c r="E164" s="31"/>
+      <c r="F164" s="31"/>
+    </row>
+    <row r="165" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A165" s="30"/>
+      <c r="B165" s="5"/>
+      <c r="C165" s="31"/>
+      <c r="D165" s="31"/>
+      <c r="E165" s="31"/>
+      <c r="F165" s="31"/>
+    </row>
+    <row r="166" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A166" s="30"/>
+      <c r="B166" s="5"/>
+      <c r="C166" s="31"/>
+      <c r="D166" s="31"/>
+      <c r="E166" s="31"/>
+      <c r="F166" s="31"/>
+    </row>
+    <row r="167" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A167" s="30"/>
+      <c r="B167" s="5"/>
+      <c r="C167" s="31"/>
+      <c r="D167" s="31"/>
+      <c r="E167" s="31"/>
+      <c r="F167" s="31"/>
+    </row>
+    <row r="168" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A168" s="30"/>
+      <c r="B168" s="5"/>
+      <c r="C168" s="31"/>
+      <c r="D168" s="31"/>
+      <c r="E168" s="31"/>
+      <c r="F168" s="31"/>
+    </row>
+    <row r="169" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A169" s="30"/>
+      <c r="B169" s="5"/>
+      <c r="C169" s="31"/>
+      <c r="D169" s="31"/>
+      <c r="E169" s="31"/>
+      <c r="F169" s="31"/>
+    </row>
+    <row r="170" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A170" s="30"/>
+      <c r="B170" s="5"/>
+      <c r="C170" s="31"/>
+      <c r="D170" s="31"/>
+      <c r="E170" s="31"/>
+      <c r="F170" s="31"/>
+    </row>
+    <row r="171" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A171" s="30"/>
+      <c r="B171" s="5"/>
+      <c r="C171" s="31"/>
+      <c r="D171" s="31"/>
+      <c r="E171" s="31"/>
+      <c r="F171" s="31"/>
+    </row>
+    <row r="172" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A172" s="30"/>
+      <c r="B172" s="5"/>
+      <c r="C172" s="31"/>
+      <c r="D172" s="31"/>
+      <c r="E172" s="31"/>
+      <c r="F172" s="31"/>
+    </row>
+    <row r="173" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A173" s="30"/>
+      <c r="B173" s="5"/>
+      <c r="C173" s="31"/>
+      <c r="D173" s="31"/>
+      <c r="E173" s="31"/>
+      <c r="F173" s="31"/>
+    </row>
+    <row r="174" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A174" s="30"/>
+      <c r="B174" s="5"/>
+      <c r="C174" s="31"/>
+      <c r="D174" s="31"/>
+      <c r="E174" s="31"/>
+      <c r="F174" s="31"/>
+    </row>
+    <row r="175" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A175" s="30"/>
+      <c r="B175" s="5"/>
+      <c r="C175" s="31"/>
+      <c r="D175" s="31"/>
+      <c r="E175" s="31"/>
+      <c r="F175" s="31"/>
+    </row>
+    <row r="176" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A176" s="30"/>
+      <c r="B176" s="5"/>
+      <c r="C176" s="31"/>
+      <c r="D176" s="31"/>
+      <c r="E176" s="31"/>
+      <c r="F176" s="31"/>
+    </row>
+    <row r="177" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A177" s="30"/>
+      <c r="B177" s="5"/>
+      <c r="C177" s="31"/>
+      <c r="D177" s="31"/>
+      <c r="E177" s="31"/>
+      <c r="F177" s="31"/>
+    </row>
+    <row r="178" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A178" s="30"/>
+      <c r="B178" s="5"/>
+      <c r="C178" s="31"/>
+      <c r="D178" s="31"/>
+      <c r="E178" s="31"/>
+      <c r="F178" s="31"/>
+    </row>
+    <row r="179" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A179" s="30"/>
+      <c r="B179" s="5"/>
+      <c r="C179" s="31"/>
+      <c r="D179" s="31"/>
+      <c r="E179" s="31"/>
+      <c r="F179" s="31"/>
+    </row>
+    <row r="180" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A180" s="30"/>
+      <c r="B180" s="5"/>
+      <c r="C180" s="31"/>
+      <c r="D180" s="31"/>
+      <c r="E180" s="31"/>
+      <c r="F180" s="31"/>
+    </row>
+    <row r="181" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A181" s="30"/>
+      <c r="B181" s="5"/>
+      <c r="C181" s="31"/>
+      <c r="D181" s="31"/>
+      <c r="E181" s="31"/>
+      <c r="F181" s="31"/>
+    </row>
+    <row r="182" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A182" s="30"/>
+      <c r="B182" s="5"/>
+      <c r="C182" s="31"/>
+      <c r="D182" s="31"/>
+      <c r="E182" s="31"/>
+      <c r="F182" s="31"/>
+    </row>
+    <row r="183" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A183" s="30"/>
+      <c r="B183" s="5"/>
+      <c r="C183" s="31"/>
+      <c r="D183" s="31"/>
+      <c r="E183" s="31"/>
+      <c r="F183" s="31"/>
+    </row>
+    <row r="184" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A184" s="30"/>
+      <c r="B184" s="5"/>
+      <c r="C184" s="31"/>
+      <c r="D184" s="31"/>
+      <c r="E184" s="31"/>
+      <c r="F184" s="31"/>
+    </row>
+    <row r="185" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A185" s="30"/>
+      <c r="B185" s="5"/>
+      <c r="C185" s="31"/>
+      <c r="D185" s="31"/>
+      <c r="E185" s="31"/>
+      <c r="F185" s="31"/>
+    </row>
+    <row r="186" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A186" s="30"/>
+      <c r="B186" s="5"/>
+      <c r="C186" s="31"/>
+      <c r="D186" s="31"/>
+      <c r="E186" s="31"/>
+      <c r="F186" s="31"/>
+    </row>
+    <row r="187" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A187" s="30"/>
+      <c r="B187" s="5"/>
+      <c r="C187" s="31"/>
+      <c r="D187" s="31"/>
+      <c r="E187" s="31"/>
+      <c r="F187" s="31"/>
+    </row>
+    <row r="188" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A188" s="30"/>
+      <c r="B188" s="5"/>
+      <c r="C188" s="31"/>
+      <c r="D188" s="31"/>
+      <c r="E188" s="31"/>
+      <c r="F188" s="31"/>
+    </row>
+    <row r="189" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A189" s="30"/>
+      <c r="B189" s="5"/>
+      <c r="C189" s="31"/>
+      <c r="D189" s="31"/>
+      <c r="E189" s="31"/>
+      <c r="F189" s="31"/>
+    </row>
+    <row r="190" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A190" s="30"/>
+      <c r="B190" s="5"/>
+      <c r="C190" s="31"/>
+      <c r="D190" s="31"/>
+      <c r="E190" s="31"/>
+      <c r="F190" s="31"/>
+    </row>
+    <row r="191" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A191" s="30"/>
+      <c r="B191" s="5"/>
+      <c r="C191" s="31"/>
+      <c r="D191" s="31"/>
+      <c r="E191" s="31"/>
+      <c r="F191" s="31"/>
+    </row>
+    <row r="192" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A192" s="30"/>
+      <c r="B192" s="5"/>
+      <c r="C192" s="31"/>
+      <c r="D192" s="31"/>
+      <c r="E192" s="31"/>
+      <c r="F192" s="31"/>
+    </row>
+    <row r="193" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A193" s="30"/>
+      <c r="B193" s="5"/>
+      <c r="C193" s="31"/>
+      <c r="D193" s="31"/>
+      <c r="E193" s="31"/>
+      <c r="F193" s="31"/>
+    </row>
+    <row r="194" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A194" s="30"/>
+      <c r="B194" s="5"/>
+      <c r="C194" s="31"/>
+      <c r="D194" s="31"/>
+      <c r="E194" s="31"/>
+      <c r="F194" s="31"/>
+    </row>
+    <row r="195" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A195" s="30"/>
+      <c r="B195" s="5"/>
+      <c r="C195" s="31"/>
+      <c r="D195" s="31"/>
+      <c r="E195" s="31"/>
+      <c r="F195" s="31"/>
+    </row>
+    <row r="196" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A196" s="30"/>
+      <c r="B196" s="5"/>
+      <c r="C196" s="31"/>
+      <c r="D196" s="31"/>
+      <c r="E196" s="31"/>
+      <c r="F196" s="31"/>
+    </row>
+    <row r="197" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A197" s="30"/>
+      <c r="B197" s="5"/>
+      <c r="C197" s="31"/>
+      <c r="D197" s="31"/>
+      <c r="E197" s="31"/>
+      <c r="F197" s="31"/>
+    </row>
+    <row r="198" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A198" s="30"/>
+      <c r="B198" s="5"/>
+      <c r="C198" s="31"/>
+      <c r="D198" s="31"/>
+      <c r="E198" s="31"/>
+      <c r="F198" s="31"/>
+    </row>
+    <row r="199" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A199" s="30"/>
+      <c r="B199" s="5"/>
+      <c r="C199" s="31"/>
+      <c r="D199" s="31"/>
+      <c r="E199" s="31"/>
+      <c r="F199" s="31"/>
+    </row>
+    <row r="200" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A200" s="30"/>
+      <c r="B200" s="5"/>
+      <c r="C200" s="31"/>
+      <c r="D200" s="31"/>
+      <c r="E200" s="31"/>
+      <c r="F200" s="31"/>
+    </row>
+    <row r="201" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A201" s="30"/>
+      <c r="B201" s="5"/>
+      <c r="C201" s="31"/>
+      <c r="D201" s="31"/>
+      <c r="E201" s="31"/>
+      <c r="F201" s="31"/>
+    </row>
+    <row r="202" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A202" s="30"/>
+      <c r="B202" s="5"/>
+      <c r="C202" s="31"/>
+      <c r="D202" s="31"/>
+      <c r="E202" s="31"/>
+      <c r="F202" s="31"/>
+    </row>
+    <row r="203" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A203" s="30"/>
+      <c r="B203" s="5"/>
+      <c r="C203" s="31"/>
+      <c r="D203" s="31"/>
+      <c r="E203" s="31"/>
+      <c r="F203" s="31"/>
+    </row>
+    <row r="204" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A204" s="30"/>
+      <c r="B204" s="5"/>
+      <c r="C204" s="31"/>
+      <c r="D204" s="31"/>
+      <c r="E204" s="31"/>
+      <c r="F204" s="31"/>
+    </row>
+    <row r="205" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A205" s="30"/>
+      <c r="B205" s="5"/>
+      <c r="C205" s="31"/>
+      <c r="D205" s="31"/>
+      <c r="E205" s="31"/>
+      <c r="F205" s="31"/>
+    </row>
+    <row r="206" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A206" s="30"/>
+      <c r="B206" s="5"/>
+      <c r="C206" s="31"/>
+      <c r="D206" s="31"/>
+      <c r="E206" s="31"/>
+      <c r="F206" s="31"/>
+    </row>
+    <row r="207" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A207" s="30"/>
+      <c r="B207" s="5"/>
+      <c r="C207" s="31"/>
+      <c r="D207" s="31"/>
+      <c r="E207" s="31"/>
+      <c r="F207" s="31"/>
+    </row>
+    <row r="208" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A208" s="30"/>
+      <c r="B208" s="5"/>
+      <c r="C208" s="31"/>
+      <c r="D208" s="31"/>
+      <c r="E208" s="31"/>
+      <c r="F208" s="31"/>
+    </row>
+    <row r="209" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A209" s="30"/>
+      <c r="B209" s="5"/>
+      <c r="C209" s="31"/>
+      <c r="D209" s="31"/>
+      <c r="E209" s="31"/>
+      <c r="F209" s="31"/>
+    </row>
+    <row r="210" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A210" s="30"/>
+      <c r="B210" s="5"/>
+      <c r="C210" s="31"/>
+      <c r="D210" s="31"/>
+      <c r="E210" s="31"/>
+      <c r="F210" s="31"/>
+    </row>
+    <row r="211" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A211" s="30"/>
+      <c r="B211" s="5"/>
+      <c r="C211" s="31"/>
+      <c r="D211" s="31"/>
+      <c r="E211" s="31"/>
+      <c r="F211" s="31"/>
+    </row>
+    <row r="212" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A212" s="30"/>
+      <c r="B212" s="5"/>
+      <c r="C212" s="31"/>
+      <c r="D212" s="31"/>
+      <c r="E212" s="31"/>
+      <c r="F212" s="31"/>
+    </row>
+    <row r="213" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A213" s="30"/>
+      <c r="B213" s="5"/>
+      <c r="C213" s="31"/>
+      <c r="D213" s="31"/>
+      <c r="E213" s="31"/>
+      <c r="F213" s="31"/>
+    </row>
+    <row r="214" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A214" s="30"/>
+      <c r="B214" s="5"/>
+      <c r="C214" s="31"/>
+      <c r="D214" s="31"/>
+      <c r="E214" s="31"/>
+      <c r="F214" s="31"/>
+    </row>
+    <row r="215" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A215" s="30"/>
+      <c r="B215" s="5"/>
+      <c r="C215" s="31"/>
+      <c r="D215" s="31"/>
+      <c r="E215" s="31"/>
+      <c r="F215" s="31"/>
+    </row>
+    <row r="216" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A216" s="30"/>
+      <c r="B216" s="5"/>
+      <c r="C216" s="31"/>
+      <c r="D216" s="31"/>
+      <c r="E216" s="31"/>
+      <c r="F216" s="31"/>
+    </row>
+    <row r="217" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A217" s="30"/>
+      <c r="B217" s="5"/>
+      <c r="C217" s="31"/>
+      <c r="D217" s="31"/>
+      <c r="E217" s="31"/>
+      <c r="F217" s="31"/>
+    </row>
+    <row r="218" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A218" s="30"/>
+      <c r="B218" s="5"/>
+      <c r="C218" s="31"/>
+      <c r="D218" s="31"/>
+      <c r="E218" s="31"/>
+      <c r="F218" s="31"/>
+    </row>
+    <row r="219" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A219" s="30"/>
+      <c r="B219" s="5"/>
+      <c r="C219" s="31"/>
+      <c r="D219" s="31"/>
+      <c r="E219" s="31"/>
+      <c r="F219" s="31"/>
+    </row>
+    <row r="220" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A220" s="30"/>
+      <c r="B220" s="5"/>
+      <c r="C220" s="31"/>
+      <c r="D220" s="31"/>
+      <c r="E220" s="31"/>
+      <c r="F220" s="31"/>
+    </row>
+    <row r="221" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A221" s="30"/>
+      <c r="B221" s="5"/>
+      <c r="C221" s="31"/>
+      <c r="D221" s="31"/>
+      <c r="E221" s="31"/>
+      <c r="F221" s="31"/>
+    </row>
+    <row r="222" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A222" s="30"/>
+      <c r="B222" s="5"/>
+      <c r="C222" s="31"/>
+      <c r="D222" s="31"/>
+      <c r="E222" s="31"/>
+      <c r="F222" s="31"/>
+    </row>
+    <row r="223" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A223" s="30"/>
+      <c r="B223" s="5"/>
+      <c r="C223" s="31"/>
+      <c r="D223" s="31"/>
+      <c r="E223" s="31"/>
+      <c r="F223" s="31"/>
+    </row>
+    <row r="224" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A224" s="30"/>
+      <c r="B224" s="5"/>
+      <c r="C224" s="31"/>
+      <c r="D224" s="31"/>
+      <c r="E224" s="31"/>
+      <c r="F224" s="31"/>
+    </row>
+    <row r="225" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A225" s="30"/>
+      <c r="B225" s="5"/>
+      <c r="C225" s="31"/>
+      <c r="D225" s="31"/>
+      <c r="E225" s="31"/>
+      <c r="F225" s="31"/>
+    </row>
+    <row r="226" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A226" s="30"/>
+      <c r="B226" s="5"/>
+      <c r="C226" s="31"/>
+      <c r="D226" s="31"/>
+      <c r="E226" s="31"/>
+      <c r="F226" s="31"/>
+    </row>
+    <row r="227" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A227" s="30"/>
+      <c r="B227" s="5"/>
+      <c r="C227" s="31"/>
+      <c r="D227" s="31"/>
+      <c r="E227" s="31"/>
+      <c r="F227" s="31"/>
+    </row>
+    <row r="228" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A228" s="30"/>
+      <c r="B228" s="5"/>
+      <c r="C228" s="31"/>
+      <c r="D228" s="31"/>
+      <c r="E228" s="31"/>
+      <c r="F228" s="31"/>
+    </row>
+    <row r="229" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A229" s="30"/>
+      <c r="B229" s="5"/>
+      <c r="C229" s="31"/>
+      <c r="D229" s="31"/>
+      <c r="E229" s="31"/>
+      <c r="F229" s="31"/>
+    </row>
+    <row r="230" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A230" s="30"/>
+      <c r="B230" s="5"/>
+      <c r="C230" s="31"/>
+      <c r="D230" s="31"/>
+      <c r="E230" s="31"/>
+      <c r="F230" s="31"/>
+    </row>
+    <row r="231" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A231" s="30"/>
+      <c r="B231" s="5"/>
+      <c r="C231" s="31"/>
+      <c r="D231" s="31"/>
+      <c r="E231" s="31"/>
+      <c r="F231" s="31"/>
+    </row>
+    <row r="232" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A232" s="30"/>
+      <c r="B232" s="5"/>
+      <c r="C232" s="31"/>
+      <c r="D232" s="31"/>
+      <c r="E232" s="31"/>
+      <c r="F232" s="31"/>
+    </row>
+    <row r="233" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A233" s="30"/>
+      <c r="B233" s="5"/>
+      <c r="C233" s="31"/>
+      <c r="D233" s="31"/>
+      <c r="E233" s="31"/>
+      <c r="F233" s="31"/>
+    </row>
+    <row r="234" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A234" s="30"/>
+      <c r="B234" s="5"/>
+      <c r="C234" s="31"/>
+      <c r="D234" s="31"/>
+      <c r="E234" s="31"/>
+      <c r="F234" s="31"/>
+    </row>
+    <row r="235" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A235" s="30"/>
+      <c r="B235" s="5"/>
+      <c r="C235" s="31"/>
+      <c r="D235" s="31"/>
+      <c r="E235" s="31"/>
+      <c r="F235" s="31"/>
+    </row>
+    <row r="236" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A236" s="30"/>
+      <c r="B236" s="5"/>
+      <c r="C236" s="31"/>
+      <c r="D236" s="31"/>
+      <c r="E236" s="31"/>
+      <c r="F236" s="31"/>
+    </row>
+    <row r="237" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A237" s="30"/>
+      <c r="B237" s="5"/>
+      <c r="C237" s="31"/>
+      <c r="D237" s="31"/>
+      <c r="E237" s="31"/>
+      <c r="F237" s="31"/>
+    </row>
+    <row r="238" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A238" s="30"/>
+      <c r="B238" s="5"/>
+      <c r="C238" s="31"/>
+      <c r="D238" s="31"/>
+      <c r="E238" s="31"/>
+      <c r="F238" s="31"/>
+    </row>
+    <row r="239" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A239" s="30"/>
+      <c r="B239" s="5"/>
+      <c r="C239" s="31"/>
+      <c r="D239" s="31"/>
+      <c r="E239" s="31"/>
+      <c r="F239" s="31"/>
+    </row>
+    <row r="240" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A240" s="30"/>
+      <c r="B240" s="5"/>
+      <c r="C240" s="31"/>
+      <c r="D240" s="31"/>
+      <c r="E240" s="31"/>
+      <c r="F240" s="31"/>
+    </row>
+    <row r="241" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A241" s="30"/>
+      <c r="B241" s="5"/>
+      <c r="C241" s="31"/>
+      <c r="D241" s="31"/>
+      <c r="E241" s="31"/>
+      <c r="F241" s="31"/>
+    </row>
+    <row r="242" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A242" s="30"/>
+      <c r="B242" s="5"/>
+      <c r="C242" s="31"/>
+      <c r="D242" s="31"/>
+      <c r="E242" s="31"/>
+      <c r="F242" s="31"/>
+    </row>
+    <row r="243" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A243" s="30"/>
+      <c r="B243" s="5"/>
+      <c r="C243" s="31"/>
+      <c r="D243" s="31"/>
+      <c r="E243" s="31"/>
+      <c r="F243" s="31"/>
+    </row>
+    <row r="244" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A244" s="30"/>
+      <c r="B244" s="5"/>
+      <c r="C244" s="31"/>
+      <c r="D244" s="31"/>
+      <c r="E244" s="31"/>
+      <c r="F244" s="31"/>
+    </row>
+    <row r="245" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A245" s="30"/>
+      <c r="B245" s="5"/>
+      <c r="C245" s="31"/>
+      <c r="D245" s="31"/>
+      <c r="E245" s="31"/>
+      <c r="F245" s="31"/>
+    </row>
+    <row r="246" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A246" s="30"/>
+      <c r="B246" s="5"/>
+      <c r="C246" s="31"/>
+      <c r="D246" s="31"/>
+      <c r="E246" s="31"/>
+      <c r="F246" s="31"/>
+    </row>
+    <row r="247" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A247" s="30"/>
+      <c r="B247" s="5"/>
+      <c r="C247" s="31"/>
+      <c r="D247" s="31"/>
+      <c r="E247" s="31"/>
+      <c r="F247" s="31"/>
+    </row>
+    <row r="248" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A248" s="30"/>
+      <c r="B248" s="5"/>
+      <c r="C248" s="31"/>
+      <c r="D248" s="31"/>
+      <c r="E248" s="31"/>
+      <c r="F248" s="31"/>
+    </row>
+    <row r="249" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A249" s="30"/>
+      <c r="B249" s="5"/>
+      <c r="C249" s="31"/>
+      <c r="D249" s="31"/>
+      <c r="E249" s="31"/>
+      <c r="F249" s="31"/>
+    </row>
+    <row r="250" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A250" s="30"/>
+      <c r="B250" s="5"/>
+      <c r="C250" s="31"/>
+      <c r="D250" s="31"/>
+      <c r="E250" s="31"/>
+      <c r="F250" s="31"/>
+    </row>
+    <row r="251" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A251" s="30"/>
+      <c r="B251" s="5"/>
+      <c r="C251" s="31"/>
+      <c r="D251" s="31"/>
+      <c r="E251" s="31"/>
+      <c r="F251" s="31"/>
+    </row>
+    <row r="252" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A252" s="30"/>
+      <c r="B252" s="5"/>
+      <c r="C252" s="31"/>
+      <c r="D252" s="31"/>
+      <c r="E252" s="31"/>
+      <c r="F252" s="31"/>
+    </row>
+    <row r="253" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A253" s="30"/>
+      <c r="B253" s="5"/>
+      <c r="C253" s="31"/>
+      <c r="D253" s="31"/>
+      <c r="E253" s="31"/>
+      <c r="F253" s="31"/>
+    </row>
+    <row r="254" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A254" s="30"/>
+      <c r="B254" s="5"/>
+      <c r="C254" s="31"/>
+      <c r="D254" s="31"/>
+      <c r="E254" s="31"/>
+      <c r="F254" s="31"/>
+    </row>
+    <row r="255" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A255" s="30"/>
+      <c r="B255" s="5"/>
+      <c r="C255" s="31"/>
+      <c r="D255" s="31"/>
+      <c r="E255" s="31"/>
+      <c r="F255" s="31"/>
+    </row>
+    <row r="256" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A256" s="30"/>
+      <c r="B256" s="5"/>
+      <c r="C256" s="31"/>
+      <c r="D256" s="31"/>
+      <c r="E256" s="31"/>
+      <c r="F256" s="31"/>
+    </row>
+    <row r="257" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A257" s="30"/>
+      <c r="B257" s="5"/>
+      <c r="C257" s="31"/>
+      <c r="D257" s="31"/>
+      <c r="E257" s="31"/>
+      <c r="F257" s="31"/>
+    </row>
+    <row r="258" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A258" s="30"/>
+      <c r="B258" s="5"/>
+      <c r="C258" s="31"/>
+      <c r="D258" s="31"/>
+      <c r="E258" s="31"/>
+      <c r="F258" s="31"/>
+    </row>
+    <row r="259" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A259" s="30"/>
+      <c r="B259" s="5"/>
+      <c r="C259" s="31"/>
+      <c r="D259" s="31"/>
+      <c r="E259" s="31"/>
+      <c r="F259" s="31"/>
+    </row>
+    <row r="260" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A260" s="30"/>
+      <c r="B260" s="5"/>
+      <c r="C260" s="31"/>
+      <c r="D260" s="31"/>
+      <c r="E260" s="31"/>
+      <c r="F260" s="31"/>
+    </row>
+    <row r="261" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A261" s="30"/>
+      <c r="B261" s="5"/>
+      <c r="C261" s="31"/>
+      <c r="D261" s="31"/>
+      <c r="E261" s="31"/>
+      <c r="F261" s="31"/>
+    </row>
+    <row r="262" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A262" s="30"/>
+      <c r="B262" s="5"/>
+      <c r="C262" s="31"/>
+      <c r="D262" s="31"/>
+      <c r="E262" s="31"/>
+      <c r="F262" s="31"/>
+    </row>
+    <row r="263" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A263" s="30"/>
+      <c r="B263" s="5"/>
+      <c r="C263" s="31"/>
+      <c r="D263" s="31"/>
+      <c r="E263" s="31"/>
+      <c r="F263" s="31"/>
+    </row>
+    <row r="264" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A264" s="30"/>
+      <c r="B264" s="5"/>
+      <c r="C264" s="31"/>
+      <c r="D264" s="31"/>
+      <c r="E264" s="31"/>
+      <c r="F264" s="31"/>
+    </row>
+    <row r="265" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A265" s="30"/>
+      <c r="B265" s="5"/>
+      <c r="C265" s="31"/>
+      <c r="D265" s="31"/>
+      <c r="E265" s="31"/>
+      <c r="F265" s="31"/>
+    </row>
+    <row r="266" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A266" s="30"/>
+      <c r="B266" s="5"/>
+      <c r="C266" s="31"/>
+      <c r="D266" s="31"/>
+      <c r="E266" s="31"/>
+      <c r="F266" s="31"/>
+    </row>
+    <row r="267" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A267" s="30"/>
+      <c r="B267" s="5"/>
+      <c r="C267" s="31"/>
+      <c r="D267" s="31"/>
+      <c r="E267" s="31"/>
+      <c r="F267" s="31"/>
+    </row>
+    <row r="268" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A268" s="30"/>
+      <c r="B268" s="5"/>
+      <c r="C268" s="31"/>
+      <c r="D268" s="31"/>
+      <c r="E268" s="31"/>
+      <c r="F268" s="31"/>
+    </row>
+    <row r="269" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A269" s="30"/>
+      <c r="B269" s="5"/>
+      <c r="C269" s="31"/>
+      <c r="D269" s="31"/>
+      <c r="E269" s="31"/>
+      <c r="F269" s="31"/>
+    </row>
+    <row r="270" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A270" s="30"/>
+      <c r="B270" s="5"/>
+      <c r="C270" s="31"/>
+      <c r="D270" s="31"/>
+      <c r="E270" s="31"/>
+      <c r="F270" s="31"/>
+    </row>
+    <row r="271" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A271" s="30"/>
+      <c r="B271" s="5"/>
+      <c r="C271" s="31"/>
+      <c r="D271" s="31"/>
+      <c r="E271" s="31"/>
+      <c r="F271" s="31"/>
+    </row>
+    <row r="272" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A272" s="30"/>
+      <c r="B272" s="5"/>
+      <c r="C272" s="31"/>
+      <c r="D272" s="31"/>
+      <c r="E272" s="31"/>
+      <c r="F272" s="31"/>
+    </row>
+    <row r="273" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A273" s="30"/>
+      <c r="B273" s="5"/>
+      <c r="C273" s="31"/>
+      <c r="D273" s="31"/>
+      <c r="E273" s="31"/>
+      <c r="F273" s="31"/>
+    </row>
+    <row r="274" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A274" s="30"/>
+      <c r="B274" s="5"/>
+      <c r="C274" s="31"/>
+      <c r="D274" s="31"/>
+      <c r="E274" s="31"/>
+      <c r="F274" s="31"/>
+    </row>
+    <row r="275" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A275" s="30"/>
+      <c r="B275" s="5"/>
+      <c r="C275" s="31"/>
+      <c r="D275" s="31"/>
+      <c r="E275" s="31"/>
+      <c r="F275" s="31"/>
+    </row>
+    <row r="276" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A276" s="30"/>
+      <c r="B276" s="5"/>
+      <c r="C276" s="31"/>
+      <c r="D276" s="31"/>
+      <c r="E276" s="31"/>
+      <c r="F276" s="31"/>
+    </row>
+    <row r="277" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A277" s="30"/>
+      <c r="B277" s="5"/>
+      <c r="C277" s="31"/>
+      <c r="D277" s="31"/>
+      <c r="E277" s="31"/>
+      <c r="F277" s="31"/>
+    </row>
+    <row r="278" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A278" s="30"/>
+      <c r="B278" s="5"/>
+      <c r="C278" s="31"/>
+      <c r="D278" s="31"/>
+      <c r="E278" s="31"/>
+      <c r="F278" s="31"/>
+    </row>
+    <row r="279" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A279" s="30"/>
+      <c r="B279" s="5"/>
+      <c r="C279" s="31"/>
+      <c r="D279" s="31"/>
+      <c r="E279" s="31"/>
+      <c r="F279" s="31"/>
+    </row>
+    <row r="280" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A280" s="30"/>
+      <c r="B280" s="5"/>
+      <c r="C280" s="31"/>
+      <c r="D280" s="31"/>
+      <c r="E280" s="31"/>
+      <c r="F280" s="31"/>
+    </row>
+    <row r="281" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A281" s="30"/>
+      <c r="B281" s="5"/>
+      <c r="C281" s="31"/>
+      <c r="D281" s="31"/>
+      <c r="E281" s="31"/>
+      <c r="F281" s="31"/>
+    </row>
+    <row r="282" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A282" s="30"/>
+      <c r="B282" s="5"/>
+      <c r="C282" s="31"/>
+      <c r="D282" s="31"/>
+      <c r="E282" s="31"/>
+      <c r="F282" s="31"/>
+    </row>
+    <row r="283" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A283" s="30"/>
+      <c r="B283" s="5"/>
+      <c r="C283" s="31"/>
+      <c r="D283" s="31"/>
+      <c r="E283" s="31"/>
+      <c r="F283" s="31"/>
+    </row>
+    <row r="284" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A284" s="30"/>
+      <c r="B284" s="5"/>
+      <c r="C284" s="31"/>
+      <c r="D284" s="31"/>
+      <c r="E284" s="31"/>
+      <c r="F284" s="31"/>
+    </row>
+    <row r="285" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A285" s="30"/>
+      <c r="B285" s="5"/>
+      <c r="C285" s="31"/>
+      <c r="D285" s="31"/>
+      <c r="E285" s="31"/>
+      <c r="F285" s="31"/>
+    </row>
+    <row r="286" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A286" s="30"/>
+      <c r="B286" s="5"/>
+      <c r="C286" s="31"/>
+      <c r="D286" s="31"/>
+      <c r="E286" s="31"/>
+      <c r="F286" s="31"/>
+    </row>
+    <row r="287" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A287" s="30"/>
+      <c r="B287" s="5"/>
+      <c r="C287" s="31"/>
+      <c r="D287" s="31"/>
+      <c r="E287" s="31"/>
+      <c r="F287" s="31"/>
+    </row>
+    <row r="288" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A288" s="30"/>
+      <c r="B288" s="5"/>
+      <c r="C288" s="31"/>
+      <c r="D288" s="31"/>
+      <c r="E288" s="31"/>
+      <c r="F288" s="31"/>
+    </row>
+    <row r="289" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A289" s="30"/>
+      <c r="B289" s="5"/>
+      <c r="C289" s="31"/>
+      <c r="D289" s="31"/>
+      <c r="E289" s="31"/>
+      <c r="F289" s="31"/>
+    </row>
+    <row r="290" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A290" s="30"/>
+      <c r="B290" s="5"/>
+      <c r="C290" s="31"/>
+      <c r="D290" s="31"/>
+      <c r="E290" s="31"/>
+      <c r="F290" s="31"/>
+    </row>
+    <row r="291" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A291" s="30"/>
+      <c r="B291" s="5"/>
+      <c r="C291" s="31"/>
+      <c r="D291" s="31"/>
+      <c r="E291" s="31"/>
+      <c r="F291" s="31"/>
+    </row>
+    <row r="292" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A292" s="30"/>
+      <c r="B292" s="5"/>
+      <c r="C292" s="31"/>
+      <c r="D292" s="31"/>
+      <c r="E292" s="31"/>
+      <c r="F292" s="31"/>
+    </row>
+    <row r="293" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A293" s="30"/>
+      <c r="B293" s="5"/>
+      <c r="C293" s="31"/>
+      <c r="D293" s="31"/>
+      <c r="E293" s="31"/>
+      <c r="F293" s="31"/>
+    </row>
+    <row r="294" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A294" s="30"/>
+      <c r="B294" s="5"/>
+      <c r="C294" s="31"/>
+      <c r="D294" s="31"/>
+      <c r="E294" s="31"/>
+      <c r="F294" s="31"/>
+    </row>
+    <row r="295" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A295" s="30"/>
+      <c r="B295" s="5"/>
+      <c r="C295" s="31"/>
+      <c r="D295" s="31"/>
+      <c r="E295" s="31"/>
+      <c r="F295" s="31"/>
+    </row>
+    <row r="296" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A296" s="30"/>
+      <c r="B296" s="5"/>
+      <c r="C296" s="31"/>
+      <c r="D296" s="31"/>
+      <c r="E296" s="31"/>
+      <c r="F296" s="31"/>
+    </row>
+    <row r="297" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A297" s="30"/>
+      <c r="B297" s="5"/>
+      <c r="C297" s="31"/>
+      <c r="D297" s="31"/>
+      <c r="E297" s="31"/>
+      <c r="F297" s="31"/>
+    </row>
+    <row r="298" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A298" s="30"/>
+      <c r="B298" s="5"/>
+      <c r="C298" s="31"/>
+      <c r="D298" s="31"/>
+      <c r="E298" s="31"/>
+      <c r="F298" s="31"/>
+    </row>
+    <row r="299" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A299" s="30"/>
+      <c r="B299" s="5"/>
+      <c r="C299" s="31"/>
+      <c r="D299" s="31"/>
+      <c r="E299" s="31"/>
+      <c r="F299" s="31"/>
+    </row>
+    <row r="300" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A300" s="30"/>
+      <c r="B300" s="5"/>
+      <c r="C300" s="31"/>
+      <c r="D300" s="31"/>
+      <c r="E300" s="31"/>
+      <c r="F300" s="31"/>
+    </row>
+    <row r="301" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A301" s="30"/>
+      <c r="B301" s="5"/>
+      <c r="C301" s="31"/>
+      <c r="D301" s="31"/>
+      <c r="E301" s="31"/>
+      <c r="F301" s="31"/>
+    </row>
+    <row r="302" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A302" s="30"/>
+      <c r="B302" s="5"/>
+      <c r="C302" s="31"/>
+      <c r="D302" s="31"/>
+      <c r="E302" s="31"/>
+      <c r="F302" s="31"/>
+    </row>
+    <row r="303" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A303" s="30"/>
+      <c r="B303" s="5"/>
+      <c r="C303" s="31"/>
+      <c r="D303" s="31"/>
+      <c r="E303" s="31"/>
+      <c r="F303" s="31"/>
+    </row>
+    <row r="304" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A304" s="30"/>
+      <c r="B304" s="5"/>
+      <c r="C304" s="31"/>
+      <c r="D304" s="31"/>
+      <c r="E304" s="31"/>
+      <c r="F304" s="31"/>
+    </row>
+    <row r="305" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A305" s="30"/>
+      <c r="B305" s="5"/>
+      <c r="C305" s="31"/>
+      <c r="D305" s="31"/>
+      <c r="E305" s="31"/>
+      <c r="F305" s="31"/>
+    </row>
+    <row r="306" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A306" s="30"/>
+      <c r="B306" s="5"/>
+      <c r="C306" s="31"/>
+      <c r="D306" s="31"/>
+      <c r="E306" s="31"/>
+      <c r="F306" s="31"/>
+    </row>
+    <row r="307" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A307" s="30"/>
+      <c r="B307" s="5"/>
+      <c r="C307" s="31"/>
+      <c r="D307" s="31"/>
+      <c r="E307" s="31"/>
+      <c r="F307" s="31"/>
+    </row>
+    <row r="308" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A308" s="30"/>
+      <c r="B308" s="5"/>
+      <c r="C308" s="31"/>
+      <c r="D308" s="31"/>
+      <c r="E308" s="31"/>
+      <c r="F308" s="31"/>
+    </row>
+    <row r="309" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A309" s="30"/>
+      <c r="B309" s="5"/>
+      <c r="C309" s="31"/>
+      <c r="D309" s="31"/>
+      <c r="E309" s="31"/>
+      <c r="F309" s="31"/>
+    </row>
+    <row r="310" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A310" s="30"/>
+      <c r="B310" s="5"/>
+      <c r="C310" s="31"/>
+      <c r="D310" s="31"/>
+      <c r="E310" s="31"/>
+      <c r="F310" s="31"/>
+    </row>
+    <row r="311" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A311" s="30"/>
+      <c r="B311" s="5"/>
+      <c r="C311" s="31"/>
+      <c r="D311" s="31"/>
+      <c r="E311" s="31"/>
+      <c r="F311" s="31"/>
+    </row>
+    <row r="312" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A312" s="30"/>
+      <c r="B312" s="5"/>
+      <c r="C312" s="31"/>
+      <c r="D312" s="31"/>
+      <c r="E312" s="31"/>
+      <c r="F312" s="31"/>
+    </row>
+    <row r="313" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A313" s="30"/>
+      <c r="B313" s="5"/>
+      <c r="C313" s="31"/>
+      <c r="D313" s="31"/>
+      <c r="E313" s="31"/>
+      <c r="F313" s="31"/>
+    </row>
+    <row r="314" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A314" s="30"/>
+      <c r="B314" s="5"/>
+      <c r="C314" s="31"/>
+      <c r="D314" s="31"/>
+      <c r="E314" s="31"/>
+      <c r="F314" s="31"/>
+    </row>
+    <row r="315" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A315" s="30"/>
+      <c r="B315" s="5"/>
+      <c r="C315" s="31"/>
+      <c r="D315" s="31"/>
+      <c r="E315" s="31"/>
+      <c r="F315" s="31"/>
+    </row>
+    <row r="316" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A316" s="30"/>
+      <c r="B316" s="5"/>
+      <c r="C316" s="31"/>
+      <c r="D316" s="31"/>
+      <c r="E316" s="31"/>
+      <c r="F316" s="31"/>
+    </row>
+    <row r="317" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A317" s="30"/>
+      <c r="B317" s="5"/>
+      <c r="C317" s="31"/>
+      <c r="D317" s="31"/>
+      <c r="E317" s="31"/>
+      <c r="F317" s="31"/>
+    </row>
+    <row r="318" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A318" s="30"/>
+      <c r="B318" s="5"/>
+      <c r="C318" s="31"/>
+      <c r="D318" s="31"/>
+      <c r="E318" s="31"/>
+      <c r="F318" s="31"/>
+    </row>
+    <row r="319" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A319" s="30"/>
+      <c r="B319" s="5"/>
+      <c r="C319" s="31"/>
+      <c r="D319" s="31"/>
+      <c r="E319" s="31"/>
+      <c r="F319" s="31"/>
+    </row>
+    <row r="320" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A320" s="30"/>
+      <c r="B320" s="5"/>
+      <c r="C320" s="31"/>
+      <c r="D320" s="31"/>
+      <c r="E320" s="31"/>
+      <c r="F320" s="31"/>
+    </row>
+    <row r="321" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A321" s="30"/>
+      <c r="B321" s="5"/>
+      <c r="C321" s="31"/>
+      <c r="D321" s="31"/>
+      <c r="E321" s="31"/>
+      <c r="F321" s="31"/>
+    </row>
+    <row r="322" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A322" s="30"/>
+      <c r="B322" s="5"/>
+      <c r="C322" s="31"/>
+      <c r="D322" s="31"/>
+      <c r="E322" s="31"/>
+      <c r="F322" s="31"/>
+    </row>
+    <row r="323" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A323" s="30"/>
+      <c r="B323" s="5"/>
+      <c r="C323" s="31"/>
+      <c r="D323" s="31"/>
+      <c r="E323" s="31"/>
+      <c r="F323" s="31"/>
+    </row>
+    <row r="324" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A324" s="30"/>
+      <c r="B324" s="5"/>
+      <c r="C324" s="31"/>
+      <c r="D324" s="31"/>
+      <c r="E324" s="31"/>
+      <c r="F324" s="31"/>
+    </row>
+    <row r="325" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A325" s="30"/>
+      <c r="B325" s="5"/>
+      <c r="C325" s="31"/>
+      <c r="D325" s="31"/>
+      <c r="E325" s="31"/>
+      <c r="F325" s="31"/>
+    </row>
+    <row r="326" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A326" s="30"/>
+      <c r="B326" s="5"/>
+      <c r="C326" s="31"/>
+      <c r="D326" s="31"/>
+      <c r="E326" s="31"/>
+      <c r="F326" s="31"/>
+    </row>
+    <row r="327" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A327" s="30"/>
+      <c r="B327" s="5"/>
+      <c r="C327" s="31"/>
+      <c r="D327" s="31"/>
+      <c r="E327" s="31"/>
+      <c r="F327" s="31"/>
+    </row>
+    <row r="328" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A328" s="30"/>
+      <c r="B328" s="5"/>
+      <c r="C328" s="31"/>
+      <c r="D328" s="31"/>
+      <c r="E328" s="31"/>
+      <c r="F328" s="31"/>
+    </row>
+    <row r="329" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A329" s="30"/>
+      <c r="B329" s="5"/>
+      <c r="C329" s="31"/>
+      <c r="D329" s="31"/>
+      <c r="E329" s="31"/>
+      <c r="F329" s="31"/>
+    </row>
+    <row r="330" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A330" s="30"/>
+      <c r="B330" s="5"/>
+      <c r="C330" s="31"/>
+      <c r="D330" s="31"/>
+      <c r="E330" s="31"/>
+      <c r="F330" s="31"/>
+    </row>
+    <row r="331" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A331" s="30"/>
+      <c r="B331" s="5"/>
+      <c r="C331" s="31"/>
+      <c r="D331" s="31"/>
+      <c r="E331" s="31"/>
+      <c r="F331" s="31"/>
+    </row>
+    <row r="332" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A332" s="30"/>
+      <c r="B332" s="5"/>
+      <c r="C332" s="31"/>
+      <c r="D332" s="31"/>
+      <c r="E332" s="31"/>
+      <c r="F332" s="31"/>
+    </row>
+    <row r="333" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A333" s="30"/>
+      <c r="B333" s="5"/>
+      <c r="C333" s="31"/>
+      <c r="D333" s="31"/>
+      <c r="E333" s="31"/>
+      <c r="F333" s="31"/>
+    </row>
+    <row r="334" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A334" s="30"/>
+      <c r="B334" s="5"/>
+      <c r="C334" s="31"/>
+      <c r="D334" s="31"/>
+      <c r="E334" s="31"/>
+      <c r="F334" s="31"/>
+    </row>
+    <row r="335" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A335" s="30"/>
+      <c r="B335" s="5"/>
+      <c r="C335" s="31"/>
+      <c r="D335" s="31"/>
+      <c r="E335" s="31"/>
+      <c r="F335" s="31"/>
+    </row>
+    <row r="336" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A336" s="30"/>
+      <c r="B336" s="5"/>
+      <c r="C336" s="31"/>
+      <c r="D336" s="31"/>
+      <c r="E336" s="31"/>
+      <c r="F336" s="31"/>
+    </row>
+    <row r="337" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A337" s="30"/>
+      <c r="B337" s="5"/>
+      <c r="C337" s="31"/>
+      <c r="D337" s="31"/>
+      <c r="E337" s="31"/>
+      <c r="F337" s="31"/>
+    </row>
+    <row r="338" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A338" s="30"/>
+      <c r="B338" s="5"/>
+      <c r="C338" s="31"/>
+      <c r="D338" s="31"/>
+      <c r="E338" s="31"/>
+      <c r="F338" s="31"/>
+    </row>
+    <row r="339" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A339" s="30"/>
+      <c r="B339" s="5"/>
+      <c r="C339" s="31"/>
+      <c r="D339" s="31"/>
+      <c r="E339" s="31"/>
+      <c r="F339" s="31"/>
+    </row>
+    <row r="340" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A340" s="30"/>
+      <c r="B340" s="5"/>
+      <c r="C340" s="31"/>
+      <c r="D340" s="31"/>
+      <c r="E340" s="31"/>
+      <c r="F340" s="31"/>
+    </row>
+    <row r="341" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A341" s="30"/>
+      <c r="B341" s="5"/>
+      <c r="C341" s="31"/>
+      <c r="D341" s="31"/>
+      <c r="E341" s="31"/>
+      <c r="F341" s="31"/>
+    </row>
+    <row r="342" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A342" s="30"/>
+      <c r="B342" s="5"/>
+      <c r="C342" s="31"/>
+      <c r="D342" s="31"/>
+      <c r="E342" s="31"/>
+      <c r="F342" s="31"/>
+    </row>
+    <row r="343" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A343" s="30"/>
+      <c r="B343" s="5"/>
+      <c r="C343" s="31"/>
+      <c r="D343" s="31"/>
+      <c r="E343" s="31"/>
+      <c r="F343" s="31"/>
+    </row>
+    <row r="344" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A344" s="30"/>
+      <c r="B344" s="5"/>
+      <c r="C344" s="31"/>
+      <c r="D344" s="31"/>
+      <c r="E344" s="31"/>
+      <c r="F344" s="31"/>
+    </row>
+    <row r="345" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A345" s="30"/>
+      <c r="B345" s="5"/>
+      <c r="C345" s="31"/>
+      <c r="D345" s="31"/>
+      <c r="E345" s="31"/>
+      <c r="F345" s="31"/>
+    </row>
+    <row r="346" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A346" s="30"/>
+      <c r="B346" s="5"/>
+      <c r="C346" s="31"/>
+      <c r="D346" s="31"/>
+      <c r="E346" s="31"/>
+      <c r="F346" s="31"/>
+    </row>
+    <row r="347" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A347" s="30"/>
+      <c r="B347" s="5"/>
+      <c r="C347" s="31"/>
+      <c r="D347" s="31"/>
+      <c r="E347" s="31"/>
+      <c r="F347" s="31"/>
+    </row>
+    <row r="348" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A348" s="30"/>
+      <c r="B348" s="5"/>
+      <c r="C348" s="31"/>
+      <c r="D348" s="31"/>
+      <c r="E348" s="31"/>
+      <c r="F348" s="31"/>
+    </row>
+    <row r="349" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A349" s="30"/>
+      <c r="B349" s="5"/>
+      <c r="C349" s="31"/>
+      <c r="D349" s="31"/>
+      <c r="E349" s="31"/>
+      <c r="F349" s="31"/>
+    </row>
+    <row r="350" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A350" s="30"/>
+      <c r="B350" s="5"/>
+      <c r="C350" s="31"/>
+      <c r="D350" s="31"/>
+      <c r="E350" s="31"/>
+      <c r="F350" s="31"/>
+    </row>
+    <row r="351" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A351" s="30"/>
+      <c r="B351" s="5"/>
+      <c r="C351" s="31"/>
+      <c r="D351" s="31"/>
+      <c r="E351" s="31"/>
+      <c r="F351" s="31"/>
+    </row>
+    <row r="352" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A352" s="30"/>
+      <c r="B352" s="5"/>
+      <c r="C352" s="31"/>
+      <c r="D352" s="31"/>
+      <c r="E352" s="31"/>
+      <c r="F352" s="31"/>
+    </row>
+    <row r="353" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A353" s="30"/>
+      <c r="B353" s="5"/>
+      <c r="C353" s="31"/>
+      <c r="D353" s="31"/>
+      <c r="E353" s="31"/>
+      <c r="F353" s="31"/>
+    </row>
+    <row r="354" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A354" s="30"/>
+      <c r="B354" s="5"/>
+      <c r="C354" s="31"/>
+      <c r="D354" s="31"/>
+      <c r="E354" s="31"/>
+      <c r="F354" s="31"/>
+    </row>
+    <row r="355" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A355" s="30"/>
+      <c r="B355" s="5"/>
+      <c r="C355" s="31"/>
+      <c r="D355" s="31"/>
+      <c r="E355" s="31"/>
+      <c r="F355" s="31"/>
+    </row>
+    <row r="356" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A356" s="30"/>
+      <c r="B356" s="5"/>
+      <c r="C356" s="31"/>
+      <c r="D356" s="31"/>
+      <c r="E356" s="31"/>
+      <c r="F356" s="31"/>
+    </row>
+    <row r="357" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A357" s="30"/>
+      <c r="B357" s="5"/>
+      <c r="C357" s="31"/>
+      <c r="D357" s="31"/>
+      <c r="E357" s="31"/>
+      <c r="F357" s="31"/>
+    </row>
+    <row r="358" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A358" s="30"/>
+      <c r="B358" s="5"/>
+      <c r="C358" s="31"/>
+      <c r="D358" s="31"/>
+      <c r="E358" s="31"/>
+      <c r="F358" s="31"/>
+    </row>
+    <row r="359" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A359" s="30"/>
+      <c r="B359" s="5"/>
+      <c r="C359" s="31"/>
+      <c r="D359" s="31"/>
+      <c r="E359" s="31"/>
+      <c r="F359" s="31"/>
+    </row>
+    <row r="360" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A360" s="30"/>
+      <c r="B360" s="5"/>
+      <c r="C360" s="31"/>
+      <c r="D360" s="31"/>
+      <c r="E360" s="31"/>
+      <c r="F360" s="31"/>
+    </row>
+    <row r="361" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A361" s="30"/>
+      <c r="B361" s="5"/>
+      <c r="C361" s="31"/>
+      <c r="D361" s="31"/>
+      <c r="E361" s="31"/>
+      <c r="F361" s="31"/>
+    </row>
+    <row r="362" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A362" s="30"/>
+      <c r="B362" s="5"/>
+      <c r="C362" s="31"/>
+      <c r="D362" s="31"/>
+      <c r="E362" s="31"/>
+      <c r="F362" s="31"/>
+    </row>
+    <row r="363" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A363" s="30"/>
+      <c r="B363" s="5"/>
+      <c r="C363" s="31"/>
+      <c r="D363" s="31"/>
+      <c r="E363" s="31"/>
+      <c r="F363" s="31"/>
+    </row>
+    <row r="364" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A364" s="30"/>
+      <c r="B364" s="5"/>
+      <c r="C364" s="31"/>
+      <c r="D364" s="31"/>
+      <c r="E364" s="31"/>
+      <c r="F364" s="31"/>
+    </row>
+    <row r="365" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A365" s="30"/>
+      <c r="B365" s="5"/>
+      <c r="C365" s="31"/>
+      <c r="D365" s="31"/>
+      <c r="E365" s="31"/>
+      <c r="F365" s="31"/>
+    </row>
+    <row r="366" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A366" s="30"/>
+      <c r="B366" s="5"/>
+      <c r="C366" s="31"/>
+      <c r="D366" s="31"/>
+      <c r="E366" s="31"/>
+      <c r="F366" s="31"/>
+    </row>
+    <row r="367" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A367" s="30"/>
+      <c r="B367" s="5"/>
+      <c r="C367" s="31"/>
+      <c r="D367" s="31"/>
+      <c r="E367" s="31"/>
+      <c r="F367" s="31"/>
+    </row>
+    <row r="368" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A368" s="30"/>
+      <c r="B368" s="5"/>
+      <c r="C368" s="31"/>
+      <c r="D368" s="31"/>
+      <c r="E368" s="31"/>
+      <c r="F368" s="31"/>
+    </row>
+    <row r="369" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A369" s="30"/>
+      <c r="B369" s="5"/>
+      <c r="C369" s="31"/>
+      <c r="D369" s="31"/>
+      <c r="E369" s="31"/>
+      <c r="F369" s="31"/>
+    </row>
+    <row r="370" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A370" s="30"/>
+      <c r="B370" s="5"/>
+      <c r="C370" s="31"/>
+      <c r="D370" s="31"/>
+      <c r="E370" s="31"/>
+      <c r="F370" s="31"/>
+    </row>
+    <row r="371" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A371" s="30"/>
+      <c r="B371" s="5"/>
+      <c r="C371" s="31"/>
+      <c r="D371" s="31"/>
+      <c r="E371" s="31"/>
+      <c r="F371" s="31"/>
+    </row>
+    <row r="372" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A372" s="30"/>
+      <c r="B372" s="5"/>
+      <c r="C372" s="31"/>
+      <c r="D372" s="31"/>
+      <c r="E372" s="31"/>
+      <c r="F372" s="31"/>
+    </row>
+    <row r="373" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A373" s="30"/>
+      <c r="B373" s="5"/>
+      <c r="C373" s="31"/>
+      <c r="D373" s="31"/>
+      <c r="E373" s="31"/>
+      <c r="F373" s="31"/>
+    </row>
+    <row r="374" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A374" s="30"/>
+      <c r="B374" s="5"/>
+      <c r="C374" s="31"/>
+      <c r="D374" s="31"/>
+      <c r="E374" s="31"/>
+      <c r="F374" s="31"/>
+    </row>
+    <row r="375" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A375" s="30"/>
+      <c r="B375" s="5"/>
+      <c r="C375" s="31"/>
+      <c r="D375" s="31"/>
+      <c r="E375" s="31"/>
+      <c r="F375" s="31"/>
+    </row>
+    <row r="376" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A376" s="30"/>
+      <c r="B376" s="5"/>
+      <c r="C376" s="31"/>
+      <c r="D376" s="31"/>
+      <c r="E376" s="31"/>
+      <c r="F376" s="31"/>
+    </row>
+    <row r="377" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A377" s="30"/>
+      <c r="B377" s="5"/>
+      <c r="C377" s="31"/>
+      <c r="D377" s="31"/>
+      <c r="E377" s="31"/>
+      <c r="F377" s="31"/>
+    </row>
+    <row r="378" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A378" s="30"/>
+      <c r="B378" s="5"/>
+      <c r="C378" s="31"/>
+      <c r="D378" s="31"/>
+      <c r="E378" s="31"/>
+      <c r="F378" s="31"/>
+    </row>
+    <row r="379" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A379" s="30"/>
+      <c r="B379" s="5"/>
+      <c r="C379" s="31"/>
+      <c r="D379" s="31"/>
+      <c r="E379" s="31"/>
+      <c r="F379" s="31"/>
+    </row>
+    <row r="380" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A380" s="30"/>
+      <c r="B380" s="5"/>
+      <c r="C380" s="31"/>
+      <c r="D380" s="31"/>
+      <c r="E380" s="31"/>
+      <c r="F380" s="31"/>
+    </row>
+    <row r="381" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A381" s="30"/>
+      <c r="B381" s="5"/>
+      <c r="C381" s="31"/>
+      <c r="D381" s="31"/>
+      <c r="E381" s="31"/>
+      <c r="F381" s="31"/>
+    </row>
+    <row r="382" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A382" s="30"/>
+      <c r="B382" s="5"/>
+      <c r="C382" s="31"/>
+      <c r="D382" s="31"/>
+      <c r="E382" s="31"/>
+      <c r="F382" s="31"/>
+    </row>
+    <row r="383" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A383" s="30"/>
+      <c r="B383" s="5"/>
+      <c r="C383" s="31"/>
+      <c r="D383" s="31"/>
+      <c r="E383" s="31"/>
+      <c r="F383" s="31"/>
+    </row>
+    <row r="384" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A384" s="30"/>
+      <c r="B384" s="5"/>
+      <c r="C384" s="31"/>
+      <c r="D384" s="31"/>
+      <c r="E384" s="31"/>
+      <c r="F384" s="31"/>
+    </row>
+    <row r="385" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A385" s="30"/>
+      <c r="B385" s="5"/>
+      <c r="C385" s="31"/>
+      <c r="D385" s="31"/>
+      <c r="E385" s="31"/>
+      <c r="F385" s="31"/>
+    </row>
+    <row r="386" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A386" s="30"/>
+      <c r="B386" s="5"/>
+      <c r="C386" s="31"/>
+      <c r="D386" s="31"/>
+      <c r="E386" s="31"/>
+      <c r="F386" s="31"/>
+    </row>
+    <row r="387" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A387" s="30"/>
+      <c r="B387" s="5"/>
+      <c r="C387" s="31"/>
+      <c r="D387" s="31"/>
+      <c r="E387" s="31"/>
+      <c r="F387" s="31"/>
+    </row>
+    <row r="388" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A388" s="30"/>
+      <c r="B388" s="5"/>
+      <c r="C388" s="31"/>
+      <c r="D388" s="31"/>
+      <c r="E388" s="31"/>
+      <c r="F388" s="31"/>
+    </row>
+    <row r="389" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A389" s="30"/>
+      <c r="B389" s="5"/>
+      <c r="C389" s="31"/>
+      <c r="D389" s="31"/>
+      <c r="E389" s="31"/>
+      <c r="F389" s="31"/>
+    </row>
+    <row r="390" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A390" s="30"/>
+      <c r="B390" s="5"/>
+      <c r="C390" s="31"/>
+      <c r="D390" s="31"/>
+      <c r="E390" s="31"/>
+      <c r="F390" s="31"/>
+    </row>
+    <row r="391" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A391" s="30"/>
+      <c r="B391" s="5"/>
+      <c r="C391" s="31"/>
+      <c r="D391" s="31"/>
+      <c r="E391" s="31"/>
+      <c r="F391" s="31"/>
+    </row>
+    <row r="392" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A392" s="30"/>
+      <c r="B392" s="5"/>
+      <c r="C392" s="31"/>
+      <c r="D392" s="31"/>
+      <c r="E392" s="31"/>
+      <c r="F392" s="31"/>
+    </row>
+    <row r="393" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A393" s="30"/>
+      <c r="B393" s="5"/>
+      <c r="C393" s="31"/>
+      <c r="D393" s="31"/>
+      <c r="E393" s="31"/>
+      <c r="F393" s="31"/>
+    </row>
+    <row r="394" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A394" s="30"/>
+      <c r="B394" s="5"/>
+      <c r="C394" s="31"/>
+      <c r="D394" s="31"/>
+      <c r="E394" s="31"/>
+      <c r="F394" s="31"/>
+    </row>
+    <row r="395" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A395" s="30"/>
+      <c r="B395" s="5"/>
+      <c r="C395" s="31"/>
+      <c r="D395" s="31"/>
+      <c r="E395" s="31"/>
+      <c r="F395" s="31"/>
+    </row>
+    <row r="396" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A396" s="30"/>
+      <c r="B396" s="5"/>
+      <c r="C396" s="31"/>
+      <c r="D396" s="31"/>
+      <c r="E396" s="31"/>
+      <c r="F396" s="31"/>
+    </row>
+    <row r="397" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A397" s="30"/>
+      <c r="B397" s="5"/>
+      <c r="C397" s="31"/>
+      <c r="D397" s="31"/>
+      <c r="E397" s="31"/>
+      <c r="F397" s="31"/>
+    </row>
+    <row r="398" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A398" s="30"/>
+      <c r="B398" s="5"/>
+      <c r="C398" s="31"/>
+      <c r="D398" s="31"/>
+      <c r="E398" s="31"/>
+      <c r="F398" s="31"/>
+    </row>
+    <row r="399" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A399" s="30"/>
+      <c r="B399" s="5"/>
+      <c r="C399" s="31"/>
+      <c r="D399" s="31"/>
+      <c r="E399" s="31"/>
+      <c r="F399" s="31"/>
+    </row>
+    <row r="400" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A400" s="30"/>
+      <c r="B400" s="5"/>
+      <c r="C400" s="31"/>
+      <c r="D400" s="31"/>
+      <c r="E400" s="31"/>
+      <c r="F400" s="31"/>
+    </row>
+    <row r="401" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A401" s="30"/>
+      <c r="B401" s="5"/>
+      <c r="C401" s="31"/>
+      <c r="D401" s="31"/>
+      <c r="E401" s="31"/>
+      <c r="F401" s="31"/>
+    </row>
+    <row r="402" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A402" s="30"/>
+      <c r="B402" s="5"/>
+      <c r="C402" s="31"/>
+      <c r="D402" s="31"/>
+      <c r="E402" s="31"/>
+      <c r="F402" s="31"/>
+    </row>
+    <row r="403" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A403" s="30"/>
+      <c r="B403" s="5"/>
+      <c r="C403" s="31"/>
+      <c r="D403" s="31"/>
+      <c r="E403" s="31"/>
+      <c r="F403" s="31"/>
+    </row>
+    <row r="404" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A404" s="30"/>
+      <c r="B404" s="5"/>
+      <c r="C404" s="31"/>
+      <c r="D404" s="31"/>
+      <c r="E404" s="31"/>
+      <c r="F404" s="31"/>
+    </row>
+    <row r="405" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A405" s="30"/>
+      <c r="B405" s="5"/>
+      <c r="C405" s="31"/>
+      <c r="D405" s="31"/>
+      <c r="E405" s="31"/>
+      <c r="F405" s="31"/>
+    </row>
+    <row r="406" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A406" s="30"/>
+      <c r="B406" s="5"/>
+      <c r="C406" s="31"/>
+      <c r="D406" s="31"/>
+      <c r="E406" s="31"/>
+      <c r="F406" s="31"/>
+    </row>
+    <row r="407" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A407" s="30"/>
+      <c r="B407" s="5"/>
+      <c r="C407" s="31"/>
+      <c r="D407" s="31"/>
+      <c r="E407" s="31"/>
+      <c r="F407" s="31"/>
+    </row>
+    <row r="408" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A408" s="30"/>
+      <c r="B408" s="5"/>
+      <c r="C408" s="31"/>
+      <c r="D408" s="31"/>
+      <c r="E408" s="31"/>
+      <c r="F408" s="31"/>
+    </row>
+    <row r="409" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A409" s="30"/>
+      <c r="B409" s="5"/>
+      <c r="C409" s="31"/>
+      <c r="D409" s="31"/>
+      <c r="E409" s="31"/>
+      <c r="F409" s="31"/>
+    </row>
+    <row r="410" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A410" s="30"/>
+      <c r="B410" s="5"/>
+      <c r="C410" s="31"/>
+      <c r="D410" s="31"/>
+      <c r="E410" s="31"/>
+      <c r="F410" s="31"/>
+    </row>
+    <row r="411" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A411" s="30"/>
+      <c r="B411" s="5"/>
+      <c r="C411" s="31"/>
+      <c r="D411" s="31"/>
+      <c r="E411" s="31"/>
+      <c r="F411" s="31"/>
+    </row>
+    <row r="412" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A412" s="30"/>
+      <c r="B412" s="5"/>
+      <c r="C412" s="31"/>
+      <c r="D412" s="31"/>
+      <c r="E412" s="31"/>
+      <c r="F412" s="31"/>
+    </row>
+    <row r="413" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A413" s="30"/>
+      <c r="B413" s="5"/>
+      <c r="C413" s="31"/>
+      <c r="D413" s="31"/>
+      <c r="E413" s="31"/>
+      <c r="F413" s="31"/>
+    </row>
+    <row r="414" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A414" s="30"/>
+      <c r="B414" s="5"/>
+      <c r="C414" s="31"/>
+      <c r="D414" s="31"/>
+      <c r="E414" s="31"/>
+      <c r="F414" s="31"/>
+    </row>
+    <row r="415" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A415" s="30"/>
+      <c r="B415" s="5"/>
+      <c r="C415" s="31"/>
+      <c r="D415" s="31"/>
+      <c r="E415" s="31"/>
+      <c r="F415" s="31"/>
+    </row>
+    <row r="416" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A416" s="30"/>
+      <c r="B416" s="5"/>
+      <c r="C416" s="31"/>
+      <c r="D416" s="31"/>
+      <c r="E416" s="31"/>
+      <c r="F416" s="31"/>
+    </row>
+    <row r="417" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A417" s="30"/>
+      <c r="B417" s="5"/>
+      <c r="C417" s="31"/>
+      <c r="D417" s="31"/>
+      <c r="E417" s="31"/>
+      <c r="F417" s="31"/>
+    </row>
+    <row r="418" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A418" s="30"/>
+      <c r="B418" s="5"/>
+      <c r="C418" s="31"/>
+      <c r="D418" s="31"/>
+      <c r="E418" s="31"/>
+      <c r="F418" s="31"/>
+    </row>
+    <row r="419" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A419" s="30"/>
+      <c r="B419" s="5"/>
+      <c r="C419" s="31"/>
+      <c r="D419" s="31"/>
+      <c r="E419" s="31"/>
+      <c r="F419" s="31"/>
+    </row>
+    <row r="420" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A420" s="30"/>
+      <c r="B420" s="5"/>
+      <c r="C420" s="31"/>
+      <c r="D420" s="31"/>
+      <c r="E420" s="31"/>
+      <c r="F420" s="31"/>
+    </row>
+    <row r="421" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A421" s="30"/>
+      <c r="B421" s="5"/>
+      <c r="C421" s="31"/>
+      <c r="D421" s="31"/>
+      <c r="E421" s="31"/>
+      <c r="F421" s="31"/>
+    </row>
+    <row r="422" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A422" s="30"/>
+      <c r="B422" s="5"/>
+      <c r="C422" s="31"/>
+      <c r="D422" s="31"/>
+      <c r="E422" s="31"/>
+      <c r="F422" s="31"/>
+    </row>
+    <row r="423" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A423" s="30"/>
+      <c r="B423" s="5"/>
+      <c r="C423" s="31"/>
+      <c r="D423" s="31"/>
+      <c r="E423" s="31"/>
+      <c r="F423" s="31"/>
+    </row>
+    <row r="424" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A424" s="30"/>
+      <c r="B424" s="5"/>
+      <c r="C424" s="31"/>
+      <c r="D424" s="31"/>
+      <c r="E424" s="31"/>
+      <c r="F424" s="31"/>
+    </row>
+    <row r="425" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A425" s="30"/>
+      <c r="B425" s="5"/>
+      <c r="C425" s="31"/>
+      <c r="D425" s="31"/>
+      <c r="E425" s="31"/>
+      <c r="F425" s="31"/>
+    </row>
+    <row r="426" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A426" s="30"/>
+      <c r="B426" s="5"/>
+      <c r="C426" s="31"/>
+      <c r="D426" s="31"/>
+      <c r="E426" s="31"/>
+      <c r="F426" s="31"/>
+    </row>
+    <row r="427" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A427" s="30"/>
+      <c r="B427" s="5"/>
+      <c r="C427" s="31"/>
+      <c r="D427" s="31"/>
+      <c r="E427" s="31"/>
+      <c r="F427" s="31"/>
+    </row>
+    <row r="428" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A428" s="30"/>
+      <c r="B428" s="5"/>
+      <c r="C428" s="31"/>
+      <c r="D428" s="31"/>
+      <c r="E428" s="31"/>
+      <c r="F428" s="31"/>
+    </row>
+    <row r="429" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A429" s="30"/>
+      <c r="B429" s="5"/>
+      <c r="C429" s="31"/>
+      <c r="D429" s="31"/>
+      <c r="E429" s="31"/>
+      <c r="F429" s="31"/>
+    </row>
+    <row r="430" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A430" s="30"/>
+      <c r="B430" s="5"/>
+      <c r="C430" s="31"/>
+      <c r="D430" s="31"/>
+      <c r="E430" s="31"/>
+      <c r="F430" s="31"/>
+    </row>
+    <row r="431" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A431" s="30"/>
+      <c r="B431" s="5"/>
+      <c r="C431" s="31"/>
+      <c r="D431" s="31"/>
+      <c r="E431" s="31"/>
+      <c r="F431" s="31"/>
+    </row>
+    <row r="432" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A432" s="30"/>
+      <c r="B432" s="5"/>
+      <c r="C432" s="31"/>
+      <c r="D432" s="31"/>
+      <c r="E432" s="31"/>
+      <c r="F432" s="31"/>
+    </row>
+    <row r="433" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A433" s="30"/>
+      <c r="B433" s="5"/>
+      <c r="C433" s="31"/>
+      <c r="D433" s="31"/>
+      <c r="E433" s="31"/>
+      <c r="F433" s="31"/>
+    </row>
+    <row r="434" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A434" s="30"/>
+      <c r="B434" s="5"/>
+      <c r="C434" s="31"/>
+      <c r="D434" s="31"/>
+      <c r="E434" s="31"/>
+      <c r="F434" s="31"/>
+    </row>
+    <row r="435" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A435" s="30"/>
+      <c r="B435" s="5"/>
+      <c r="C435" s="31"/>
+      <c r="D435" s="31"/>
+      <c r="E435" s="31"/>
+      <c r="F435" s="31"/>
+    </row>
+    <row r="436" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A436" s="30"/>
+      <c r="B436" s="5"/>
+      <c r="C436" s="31"/>
+      <c r="D436" s="31"/>
+      <c r="E436" s="31"/>
+      <c r="F436" s="31"/>
+    </row>
+    <row r="437" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A437" s="30"/>
+      <c r="B437" s="5"/>
+      <c r="C437" s="31"/>
+      <c r="D437" s="31"/>
+      <c r="E437" s="31"/>
+      <c r="F437" s="31"/>
+    </row>
+    <row r="438" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A438" s="30"/>
+      <c r="B438" s="5"/>
+      <c r="C438" s="31"/>
+      <c r="D438" s="31"/>
+      <c r="E438" s="31"/>
+      <c r="F438" s="31"/>
+    </row>
+    <row r="439" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A439" s="30"/>
+      <c r="B439" s="5"/>
+      <c r="C439" s="31"/>
+      <c r="D439" s="31"/>
+      <c r="E439" s="31"/>
+      <c r="F439" s="31"/>
+    </row>
+    <row r="440" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A440" s="30"/>
+      <c r="B440" s="5"/>
+      <c r="C440" s="31"/>
+      <c r="D440" s="31"/>
+      <c r="E440" s="31"/>
+      <c r="F440" s="31"/>
+    </row>
+    <row r="441" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A441" s="30"/>
+      <c r="B441" s="5"/>
+      <c r="C441" s="31"/>
+      <c r="D441" s="31"/>
+      <c r="E441" s="31"/>
+      <c r="F441" s="31"/>
+    </row>
+    <row r="442" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A442" s="30"/>
+      <c r="B442" s="5"/>
+      <c r="C442" s="31"/>
+      <c r="D442" s="31"/>
+      <c r="E442" s="31"/>
+      <c r="F442" s="31"/>
+    </row>
+    <row r="443" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A443" s="30"/>
+      <c r="B443" s="5"/>
+      <c r="C443" s="31"/>
+      <c r="D443" s="31"/>
+      <c r="E443" s="31"/>
+      <c r="F443" s="31"/>
+    </row>
+    <row r="444" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A444" s="30"/>
+      <c r="B444" s="5"/>
+      <c r="C444" s="31"/>
+      <c r="D444" s="31"/>
+      <c r="E444" s="31"/>
+      <c r="F444" s="31"/>
+    </row>
+    <row r="445" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A445" s="30"/>
+      <c r="B445" s="5"/>
+      <c r="C445" s="31"/>
+      <c r="D445" s="31"/>
+      <c r="E445" s="31"/>
+      <c r="F445" s="31"/>
+    </row>
+    <row r="446" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A446" s="30"/>
+      <c r="B446" s="5"/>
+      <c r="C446" s="31"/>
+      <c r="D446" s="31"/>
+      <c r="E446" s="31"/>
+      <c r="F446" s="31"/>
+    </row>
+    <row r="447" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A447" s="30"/>
+      <c r="B447" s="5"/>
+      <c r="C447" s="31"/>
+      <c r="D447" s="31"/>
+      <c r="E447" s="31"/>
+      <c r="F447" s="31"/>
+    </row>
+    <row r="448" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A448" s="30"/>
+      <c r="B448" s="5"/>
+      <c r="C448" s="31"/>
+      <c r="D448" s="31"/>
+      <c r="E448" s="31"/>
+      <c r="F448" s="31"/>
+    </row>
+    <row r="449" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A449" s="30"/>
+      <c r="B449" s="5"/>
+      <c r="C449" s="31"/>
+      <c r="D449" s="31"/>
+      <c r="E449" s="31"/>
+      <c r="F449" s="31"/>
+    </row>
+    <row r="450" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A450" s="30"/>
+      <c r="B450" s="5"/>
+      <c r="C450" s="31"/>
+      <c r="D450" s="31"/>
+      <c r="E450" s="31"/>
+      <c r="F450" s="31"/>
+    </row>
+    <row r="451" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A451" s="30"/>
+      <c r="B451" s="5"/>
+      <c r="C451" s="31"/>
+      <c r="D451" s="31"/>
+      <c r="E451" s="31"/>
+      <c r="F451" s="31"/>
+    </row>
+    <row r="452" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A452" s="30"/>
+      <c r="B452" s="5"/>
+      <c r="C452" s="31"/>
+      <c r="D452" s="31"/>
+      <c r="E452" s="31"/>
+      <c r="F452" s="31"/>
+    </row>
+    <row r="453" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A453" s="30"/>
+      <c r="B453" s="5"/>
+      <c r="C453" s="31"/>
+      <c r="D453" s="31"/>
+      <c r="E453" s="31"/>
+      <c r="F453" s="31"/>
+    </row>
+    <row r="454" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A454" s="30"/>
+      <c r="B454" s="5"/>
+      <c r="C454" s="31"/>
+      <c r="D454" s="31"/>
+      <c r="E454" s="31"/>
+      <c r="F454" s="31"/>
+    </row>
+    <row r="455" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A455" s="30"/>
+      <c r="B455" s="5"/>
+      <c r="C455" s="31"/>
+      <c r="D455" s="31"/>
+      <c r="E455" s="31"/>
+      <c r="F455" s="31"/>
+    </row>
+    <row r="456" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A456" s="30"/>
+      <c r="B456" s="5"/>
+      <c r="C456" s="31"/>
+      <c r="D456" s="31"/>
+      <c r="E456" s="31"/>
+      <c r="F456" s="31"/>
+    </row>
+    <row r="457" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A457" s="30"/>
+      <c r="B457" s="5"/>
+      <c r="C457" s="31"/>
+      <c r="D457" s="31"/>
+      <c r="E457" s="31"/>
+      <c r="F457" s="31"/>
+    </row>
+    <row r="458" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A458" s="30"/>
+      <c r="B458" s="5"/>
+      <c r="C458" s="31"/>
+      <c r="D458" s="31"/>
+      <c r="E458" s="31"/>
+      <c r="F458" s="31"/>
+    </row>
+    <row r="459" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A459" s="30"/>
+      <c r="B459" s="5"/>
+      <c r="C459" s="31"/>
+      <c r="D459" s="31"/>
+      <c r="E459" s="31"/>
+      <c r="F459" s="31"/>
+    </row>
+    <row r="460" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A460" s="30"/>
+      <c r="B460" s="5"/>
+      <c r="C460" s="31"/>
+      <c r="D460" s="31"/>
+      <c r="E460" s="31"/>
+      <c r="F460" s="31"/>
+    </row>
+    <row r="461" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A461" s="30"/>
+      <c r="B461" s="5"/>
+      <c r="C461" s="31"/>
+      <c r="D461" s="31"/>
+      <c r="E461" s="31"/>
+      <c r="F461" s="31"/>
+    </row>
+    <row r="462" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A462" s="30"/>
+      <c r="B462" s="5"/>
+      <c r="C462" s="31"/>
+      <c r="D462" s="31"/>
+      <c r="E462" s="31"/>
+      <c r="F462" s="31"/>
+    </row>
+    <row r="463" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A463" s="30"/>
+      <c r="B463" s="5"/>
+      <c r="C463" s="31"/>
+      <c r="D463" s="31"/>
+      <c r="E463" s="31"/>
+      <c r="F463" s="31"/>
+    </row>
+    <row r="464" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A464" s="30"/>
+      <c r="B464" s="5"/>
+      <c r="C464" s="31"/>
+      <c r="D464" s="31"/>
+      <c r="E464" s="31"/>
+      <c r="F464" s="31"/>
+    </row>
+    <row r="465" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A465" s="30"/>
+      <c r="B465" s="5"/>
+      <c r="C465" s="31"/>
+      <c r="D465" s="31"/>
+      <c r="E465" s="31"/>
+      <c r="F465" s="31"/>
+    </row>
+    <row r="466" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A466" s="30"/>
+      <c r="B466" s="5"/>
+      <c r="C466" s="31"/>
+      <c r="D466" s="31"/>
+      <c r="E466" s="31"/>
+      <c r="F466" s="31"/>
+    </row>
+    <row r="467" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A467" s="30"/>
+      <c r="B467" s="5"/>
+      <c r="C467" s="31"/>
+      <c r="D467" s="31"/>
+      <c r="E467" s="31"/>
+      <c r="F467" s="31"/>
+    </row>
+    <row r="468" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A468" s="30"/>
+      <c r="B468" s="5"/>
+      <c r="C468" s="31"/>
+      <c r="D468" s="31"/>
+      <c r="E468" s="31"/>
+      <c r="F468" s="31"/>
+    </row>
+    <row r="469" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A469" s="30"/>
+      <c r="B469" s="5"/>
+      <c r="C469" s="31"/>
+      <c r="D469" s="31"/>
+      <c r="E469" s="31"/>
+      <c r="F469" s="31"/>
+    </row>
+    <row r="470" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A470" s="30"/>
+      <c r="B470" s="5"/>
+      <c r="C470" s="31"/>
+      <c r="D470" s="31"/>
+      <c r="E470" s="31"/>
+      <c r="F470" s="31"/>
+    </row>
+    <row r="471" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A471" s="30"/>
+      <c r="B471" s="5"/>
+      <c r="C471" s="31"/>
+      <c r="D471" s="31"/>
+      <c r="E471" s="31"/>
+      <c r="F471" s="31"/>
+    </row>
+    <row r="472" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A472" s="30"/>
+      <c r="B472" s="5"/>
+      <c r="C472" s="31"/>
+      <c r="D472" s="31"/>
+      <c r="E472" s="31"/>
+      <c r="F472" s="31"/>
+    </row>
+    <row r="473" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A473" s="30"/>
+      <c r="B473" s="5"/>
+      <c r="C473" s="31"/>
+      <c r="D473" s="31"/>
+      <c r="E473" s="31"/>
+      <c r="F473" s="31"/>
+    </row>
+    <row r="474" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A474" s="30"/>
+      <c r="B474" s="5"/>
+      <c r="C474" s="31"/>
+      <c r="D474" s="31"/>
+      <c r="E474" s="31"/>
+      <c r="F474" s="31"/>
+    </row>
+    <row r="475" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A475" s="30"/>
+      <c r="B475" s="5"/>
+      <c r="C475" s="31"/>
+      <c r="D475" s="31"/>
+      <c r="E475" s="31"/>
+      <c r="F475" s="31"/>
+    </row>
+    <row r="476" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A476" s="30"/>
+      <c r="B476" s="5"/>
+      <c r="C476" s="31"/>
+      <c r="D476" s="31"/>
+      <c r="E476" s="31"/>
+      <c r="F476" s="31"/>
+    </row>
+    <row r="477" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A477" s="30"/>
+      <c r="B477" s="5"/>
+      <c r="C477" s="31"/>
+      <c r="D477" s="31"/>
+      <c r="E477" s="31"/>
+      <c r="F477" s="31"/>
+    </row>
+    <row r="478" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A478" s="30"/>
+      <c r="B478" s="5"/>
+      <c r="C478" s="31"/>
+      <c r="D478" s="31"/>
+      <c r="E478" s="31"/>
+      <c r="F478" s="31"/>
+    </row>
+    <row r="479" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A479" s="30"/>
+      <c r="B479" s="5"/>
+      <c r="C479" s="31"/>
+      <c r="D479" s="31"/>
+      <c r="E479" s="31"/>
+      <c r="F479" s="31"/>
+    </row>
+    <row r="480" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A480" s="30"/>
+      <c r="B480" s="5"/>
+      <c r="C480" s="31"/>
+      <c r="D480" s="31"/>
+      <c r="E480" s="31"/>
+      <c r="F480" s="31"/>
+    </row>
+    <row r="481" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A481" s="30"/>
+      <c r="B481" s="5"/>
+      <c r="C481" s="31"/>
+      <c r="D481" s="31"/>
+      <c r="E481" s="31"/>
+      <c r="F481" s="31"/>
+    </row>
+    <row r="482" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A482" s="30"/>
+      <c r="B482" s="5"/>
+      <c r="C482" s="31"/>
+      <c r="D482" s="31"/>
+      <c r="E482" s="31"/>
+      <c r="F482" s="31"/>
+    </row>
+    <row r="483" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A483" s="30"/>
+      <c r="B483" s="5"/>
+      <c r="C483" s="31"/>
+      <c r="D483" s="31"/>
+      <c r="E483" s="31"/>
+      <c r="F483" s="31"/>
+    </row>
+    <row r="484" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A484" s="30"/>
+      <c r="B484" s="5"/>
+      <c r="C484" s="31"/>
+      <c r="D484" s="31"/>
+      <c r="E484" s="31"/>
+      <c r="F484" s="31"/>
+    </row>
+    <row r="485" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A485" s="30"/>
+      <c r="B485" s="5"/>
+      <c r="C485" s="31"/>
+      <c r="D485" s="31"/>
+      <c r="E485" s="31"/>
+      <c r="F485" s="31"/>
+    </row>
+    <row r="486" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A486" s="30"/>
+      <c r="B486" s="5"/>
+      <c r="C486" s="31"/>
+      <c r="D486" s="31"/>
+      <c r="E486" s="31"/>
+      <c r="F486" s="31"/>
+    </row>
+    <row r="487" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A487" s="30"/>
+      <c r="B487" s="5"/>
+      <c r="C487" s="31"/>
+      <c r="D487" s="31"/>
+      <c r="E487" s="31"/>
+      <c r="F487" s="31"/>
+    </row>
+    <row r="488" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A488" s="30"/>
+      <c r="B488" s="5"/>
+      <c r="C488" s="31"/>
+      <c r="D488" s="31"/>
+      <c r="E488" s="31"/>
+      <c r="F488" s="31"/>
+    </row>
+    <row r="489" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A489" s="30"/>
+      <c r="B489" s="5"/>
+      <c r="C489" s="31"/>
+      <c r="D489" s="31"/>
+      <c r="E489" s="31"/>
+      <c r="F489" s="31"/>
+    </row>
+    <row r="490" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A490" s="30"/>
+      <c r="B490" s="5"/>
+      <c r="C490" s="31"/>
+      <c r="D490" s="31"/>
+      <c r="E490" s="31"/>
+      <c r="F490" s="31"/>
+    </row>
+    <row r="491" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A491" s="30"/>
+      <c r="B491" s="5"/>
+      <c r="C491" s="31"/>
+      <c r="D491" s="31"/>
+      <c r="E491" s="31"/>
+      <c r="F491" s="31"/>
+    </row>
+    <row r="492" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A492" s="30"/>
+      <c r="B492" s="5"/>
+      <c r="C492" s="31"/>
+      <c r="D492" s="31"/>
+      <c r="E492" s="31"/>
+      <c r="F492" s="31"/>
+    </row>
+    <row r="493" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A493" s="30"/>
+      <c r="B493" s="5"/>
+      <c r="C493" s="31"/>
+      <c r="D493" s="31"/>
+      <c r="E493" s="31"/>
+      <c r="F493" s="31"/>
+    </row>
+    <row r="494" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A494" s="30"/>
+      <c r="B494" s="5"/>
+      <c r="C494" s="31"/>
+      <c r="D494" s="31"/>
+      <c r="E494" s="31"/>
+      <c r="F494" s="31"/>
+    </row>
+    <row r="495" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A495" s="30"/>
+      <c r="B495" s="5"/>
+      <c r="C495" s="31"/>
+      <c r="D495" s="31"/>
+      <c r="E495" s="31"/>
+      <c r="F495" s="31"/>
+    </row>
+    <row r="496" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A496" s="30"/>
+      <c r="B496" s="5"/>
+      <c r="C496" s="31"/>
+      <c r="D496" s="31"/>
+      <c r="E496" s="31"/>
+      <c r="F496" s="31"/>
+    </row>
+    <row r="497" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A497" s="30"/>
+      <c r="B497" s="5"/>
+      <c r="C497" s="31"/>
+      <c r="D497" s="31"/>
+      <c r="E497" s="31"/>
+      <c r="F497" s="31"/>
+    </row>
+    <row r="498" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A498" s="30"/>
+      <c r="B498" s="5"/>
+      <c r="C498" s="31"/>
+      <c r="D498" s="31"/>
+      <c r="E498" s="31"/>
+      <c r="F498" s="31"/>
+    </row>
+    <row r="499" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A499" s="30"/>
+      <c r="B499" s="5"/>
+      <c r="C499" s="31"/>
+      <c r="D499" s="31"/>
+      <c r="E499" s="31"/>
+      <c r="F499" s="31"/>
+    </row>
+    <row r="500" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A500" s="30"/>
+      <c r="B500" s="5"/>
+      <c r="C500" s="31"/>
+      <c r="D500" s="31"/>
+      <c r="E500" s="31"/>
+      <c r="F500" s="31"/>
+    </row>
+    <row r="501" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A501" s="30"/>
+      <c r="B501" s="5"/>
+      <c r="C501" s="31"/>
+      <c r="D501" s="31"/>
+      <c r="E501" s="31"/>
+      <c r="F501" s="31"/>
+    </row>
+    <row r="502" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A502" s="30"/>
+      <c r="B502" s="5"/>
+      <c r="C502" s="31"/>
+      <c r="D502" s="31"/>
+      <c r="E502" s="31"/>
+      <c r="F502" s="31"/>
+    </row>
+    <row r="503" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A503" s="30"/>
+      <c r="B503" s="5"/>
+      <c r="C503" s="31"/>
+      <c r="D503" s="31"/>
+      <c r="E503" s="31"/>
+      <c r="F503" s="31"/>
+    </row>
+    <row r="504" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A504" s="30"/>
+      <c r="B504" s="5"/>
+      <c r="C504" s="31"/>
+      <c r="D504" s="31"/>
+      <c r="E504" s="31"/>
+      <c r="F504" s="31"/>
+    </row>
+    <row r="505" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A505" s="30"/>
+      <c r="B505" s="5"/>
+      <c r="C505" s="31"/>
+      <c r="D505" s="31"/>
+      <c r="E505" s="31"/>
+      <c r="F505" s="31"/>
+    </row>
+    <row r="506" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A506" s="30"/>
+      <c r="B506" s="5"/>
+      <c r="C506" s="31"/>
+      <c r="D506" s="31"/>
+      <c r="E506" s="31"/>
+      <c r="F506" s="31"/>
+    </row>
+    <row r="507" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A507" s="30"/>
+      <c r="B507" s="5"/>
+      <c r="C507" s="31"/>
+      <c r="D507" s="31"/>
+      <c r="E507" s="31"/>
+      <c r="F507" s="31"/>
+    </row>
+    <row r="508" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A508" s="30"/>
+      <c r="B508" s="5"/>
+      <c r="C508" s="31"/>
+      <c r="D508" s="31"/>
+      <c r="E508" s="31"/>
+      <c r="F508" s="31"/>
+    </row>
+    <row r="509" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A509" s="30"/>
+      <c r="B509" s="5"/>
+      <c r="C509" s="31"/>
+      <c r="D509" s="31"/>
+      <c r="E509" s="31"/>
+      <c r="F509" s="31"/>
+    </row>
+    <row r="510" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A510" s="30"/>
+      <c r="B510" s="5"/>
+      <c r="C510" s="31"/>
+      <c r="D510" s="31"/>
+      <c r="E510" s="31"/>
+      <c r="F510" s="31"/>
+    </row>
+    <row r="511" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A511" s="30"/>
+      <c r="B511" s="5"/>
+      <c r="C511" s="31"/>
+      <c r="D511" s="31"/>
+      <c r="E511" s="31"/>
+      <c r="F511" s="31"/>
+    </row>
+    <row r="512" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A512" s="30"/>
+      <c r="B512" s="5"/>
+      <c r="C512" s="31"/>
+      <c r="D512" s="31"/>
+      <c r="E512" s="31"/>
+      <c r="F512" s="31"/>
+    </row>
+    <row r="513" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A513" s="30"/>
+      <c r="B513" s="5"/>
+      <c r="C513" s="31"/>
+      <c r="D513" s="31"/>
+      <c r="E513" s="31"/>
+      <c r="F513" s="31"/>
+    </row>
+    <row r="514" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A514" s="30"/>
+      <c r="B514" s="5"/>
+      <c r="C514" s="31"/>
+      <c r="D514" s="31"/>
+      <c r="E514" s="31"/>
+      <c r="F514" s="31"/>
+    </row>
+    <row r="515" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A515" s="30"/>
+      <c r="B515" s="5"/>
+      <c r="C515" s="31"/>
+      <c r="D515" s="31"/>
+      <c r="E515" s="31"/>
+      <c r="F515" s="31"/>
+    </row>
+    <row r="516" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A516" s="30"/>
+      <c r="B516" s="5"/>
+      <c r="C516" s="31"/>
+      <c r="D516" s="31"/>
+      <c r="E516" s="31"/>
+      <c r="F516" s="31"/>
+    </row>
+    <row r="517" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A517" s="30"/>
+      <c r="B517" s="5"/>
+      <c r="C517" s="31"/>
+      <c r="D517" s="31"/>
+      <c r="E517" s="31"/>
+      <c r="F517" s="31"/>
+    </row>
+    <row r="518" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A518" s="30"/>
+      <c r="B518" s="5"/>
+      <c r="C518" s="31"/>
+      <c r="D518" s="31"/>
+      <c r="E518" s="31"/>
+      <c r="F518" s="31"/>
+    </row>
+    <row r="519" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A519" s="30"/>
+      <c r="B519" s="5"/>
+      <c r="C519" s="31"/>
+      <c r="D519" s="31"/>
+      <c r="E519" s="31"/>
+      <c r="F519" s="31"/>
+    </row>
+    <row r="520" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A520" s="30"/>
+      <c r="B520" s="5"/>
+      <c r="C520" s="31"/>
+      <c r="D520" s="31"/>
+      <c r="E520" s="31"/>
+      <c r="F520" s="31"/>
+    </row>
+    <row r="521" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A521" s="30"/>
+      <c r="B521" s="5"/>
+      <c r="C521" s="31"/>
+      <c r="D521" s="31"/>
+      <c r="E521" s="31"/>
+      <c r="F521" s="31"/>
+    </row>
+    <row r="522" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A522" s="30"/>
+      <c r="B522" s="5"/>
+      <c r="C522" s="31"/>
+      <c r="D522" s="31"/>
+      <c r="E522" s="31"/>
+      <c r="F522" s="31"/>
+    </row>
+    <row r="523" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A523" s="30"/>
+      <c r="B523" s="5"/>
+      <c r="C523" s="31"/>
+      <c r="D523" s="31"/>
+      <c r="E523" s="31"/>
+      <c r="F523" s="31"/>
+    </row>
+    <row r="524" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A524" s="30"/>
+      <c r="B524" s="5"/>
+      <c r="C524" s="31"/>
+      <c r="D524" s="31"/>
+      <c r="E524" s="31"/>
+      <c r="F524" s="31"/>
+    </row>
+    <row r="525" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A525" s="30"/>
+      <c r="B525" s="5"/>
+      <c r="C525" s="31"/>
+      <c r="D525" s="31"/>
+      <c r="E525" s="31"/>
+      <c r="F525" s="31"/>
+    </row>
+    <row r="526" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A526" s="30"/>
+      <c r="B526" s="5"/>
+      <c r="C526" s="31"/>
+      <c r="D526" s="31"/>
+      <c r="E526" s="31"/>
+      <c r="F526" s="31"/>
+    </row>
+    <row r="527" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A527" s="30"/>
+      <c r="B527" s="5"/>
+      <c r="C527" s="31"/>
+      <c r="D527" s="31"/>
+      <c r="E527" s="31"/>
+      <c r="F527" s="31"/>
+    </row>
+    <row r="528" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A528" s="30"/>
+      <c r="B528" s="5"/>
+      <c r="C528" s="31"/>
+      <c r="D528" s="31"/>
+      <c r="E528" s="31"/>
+      <c r="F528" s="31"/>
+    </row>
+    <row r="529" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A529" s="30"/>
+      <c r="B529" s="5"/>
+      <c r="C529" s="31"/>
+      <c r="D529" s="31"/>
+      <c r="E529" s="31"/>
+      <c r="F529" s="31"/>
+    </row>
+    <row r="530" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A530" s="30"/>
+      <c r="B530" s="5"/>
+      <c r="C530" s="31"/>
+      <c r="D530" s="31"/>
+      <c r="E530" s="31"/>
+      <c r="F530" s="31"/>
+    </row>
+    <row r="531" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A531" s="30"/>
+      <c r="B531" s="5"/>
+      <c r="C531" s="31"/>
+      <c r="D531" s="31"/>
+      <c r="E531" s="31"/>
+      <c r="F531" s="31"/>
+    </row>
+    <row r="532" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A532" s="30"/>
+      <c r="B532" s="5"/>
+      <c r="C532" s="31"/>
+      <c r="D532" s="31"/>
+      <c r="E532" s="31"/>
+      <c r="F532" s="31"/>
+    </row>
+    <row r="533" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A533" s="30"/>
+      <c r="B533" s="5"/>
+      <c r="C533" s="31"/>
+      <c r="D533" s="31"/>
+      <c r="E533" s="31"/>
+      <c r="F533" s="31"/>
+    </row>
+    <row r="534" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A534" s="30"/>
+      <c r="B534" s="5"/>
+      <c r="C534" s="31"/>
+      <c r="D534" s="31"/>
+      <c r="E534" s="31"/>
+      <c r="F534" s="31"/>
+    </row>
+    <row r="535" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A535" s="30"/>
+      <c r="B535" s="5"/>
+      <c r="C535" s="31"/>
+      <c r="D535" s="31"/>
+      <c r="E535" s="31"/>
+      <c r="F535" s="31"/>
+    </row>
+    <row r="536" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A536" s="30"/>
+      <c r="B536" s="5"/>
+      <c r="C536" s="31"/>
+      <c r="D536" s="31"/>
+      <c r="E536" s="31"/>
+      <c r="F536" s="31"/>
+    </row>
+    <row r="537" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A537" s="30"/>
+      <c r="B537" s="5"/>
+      <c r="C537" s="31"/>
+      <c r="D537" s="31"/>
+      <c r="E537" s="31"/>
+      <c r="F537" s="31"/>
+    </row>
+    <row r="538" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A538" s="30"/>
+      <c r="B538" s="5"/>
+      <c r="C538" s="31"/>
+      <c r="D538" s="31"/>
+      <c r="E538" s="31"/>
+      <c r="F538" s="31"/>
+    </row>
+    <row r="539" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A539" s="30"/>
+      <c r="B539" s="5"/>
+      <c r="C539" s="31"/>
+      <c r="D539" s="31"/>
+      <c r="E539" s="31"/>
+      <c r="F539" s="31"/>
+    </row>
+    <row r="540" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A540" s="30"/>
+      <c r="B540" s="5"/>
+      <c r="C540" s="31"/>
+      <c r="D540" s="31"/>
+      <c r="E540" s="31"/>
+      <c r="F540" s="31"/>
+    </row>
+    <row r="541" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A541" s="30"/>
+      <c r="B541" s="5"/>
+      <c r="C541" s="31"/>
+      <c r="D541" s="31"/>
+      <c r="E541" s="31"/>
+      <c r="F541" s="31"/>
+    </row>
+    <row r="542" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A542" s="30"/>
+      <c r="B542" s="5"/>
+      <c r="C542" s="31"/>
+      <c r="D542" s="31"/>
+      <c r="E542" s="31"/>
+      <c r="F542" s="31"/>
+    </row>
+    <row r="543" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A543" s="30"/>
+      <c r="B543" s="5"/>
+      <c r="C543" s="31"/>
+      <c r="D543" s="31"/>
+      <c r="E543" s="31"/>
+      <c r="F543" s="31"/>
+    </row>
+    <row r="544" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A544" s="30"/>
+      <c r="B544" s="5"/>
+      <c r="C544" s="31"/>
+      <c r="D544" s="31"/>
+      <c r="E544" s="31"/>
+      <c r="F544" s="31"/>
+    </row>
+    <row r="545" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A545" s="30"/>
+      <c r="B545" s="5"/>
+      <c r="C545" s="31"/>
+      <c r="D545" s="31"/>
+      <c r="E545" s="31"/>
+      <c r="F545" s="31"/>
+    </row>
+    <row r="546" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A546" s="30"/>
+      <c r="B546" s="5"/>
+      <c r="C546" s="31"/>
+      <c r="D546" s="31"/>
+      <c r="E546" s="31"/>
+      <c r="F546" s="31"/>
+    </row>
+    <row r="547" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A547" s="30"/>
+      <c r="B547" s="5"/>
+      <c r="C547" s="31"/>
+      <c r="D547" s="31"/>
+      <c r="E547" s="31"/>
+      <c r="F547" s="31"/>
+    </row>
+    <row r="548" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A548" s="30"/>
+      <c r="B548" s="5"/>
+      <c r="C548" s="31"/>
+      <c r="D548" s="31"/>
+      <c r="E548" s="31"/>
+      <c r="F548" s="31"/>
+    </row>
+    <row r="549" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A549" s="30"/>
+      <c r="B549" s="5"/>
+      <c r="C549" s="31"/>
+      <c r="D549" s="31"/>
+      <c r="E549" s="31"/>
+      <c r="F549" s="31"/>
+    </row>
+    <row r="550" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A550" s="30"/>
+      <c r="B550" s="5"/>
+      <c r="C550" s="31"/>
+      <c r="D550" s="31"/>
+      <c r="E550" s="31"/>
+      <c r="F550" s="31"/>
+    </row>
+    <row r="551" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A551" s="30"/>
+      <c r="B551" s="5"/>
+      <c r="C551" s="31"/>
+      <c r="D551" s="31"/>
+      <c r="E551" s="31"/>
+      <c r="F551" s="31"/>
+    </row>
+    <row r="552" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A552" s="30"/>
+      <c r="B552" s="5"/>
+      <c r="C552" s="31"/>
+      <c r="D552" s="31"/>
+      <c r="E552" s="31"/>
+      <c r="F552" s="31"/>
+    </row>
+    <row r="553" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A553" s="30"/>
+      <c r="B553" s="5"/>
+      <c r="C553" s="31"/>
+      <c r="D553" s="31"/>
+      <c r="E553" s="31"/>
+      <c r="F553" s="31"/>
+    </row>
+    <row r="554" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A554" s="30"/>
+      <c r="B554" s="5"/>
+      <c r="C554" s="31"/>
+      <c r="D554" s="31"/>
+      <c r="E554" s="31"/>
+      <c r="F554" s="31"/>
+    </row>
+    <row r="555" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A555" s="30"/>
+      <c r="B555" s="5"/>
+      <c r="C555" s="31"/>
+      <c r="D555" s="31"/>
+      <c r="E555" s="31"/>
+      <c r="F555" s="31"/>
+    </row>
+    <row r="556" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A556" s="30"/>
+      <c r="B556" s="5"/>
+      <c r="C556" s="31"/>
+      <c r="D556" s="31"/>
+      <c r="E556" s="31"/>
+      <c r="F556" s="31"/>
+    </row>
+    <row r="557" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A557" s="30"/>
+      <c r="B557" s="5"/>
+      <c r="C557" s="31"/>
+      <c r="D557" s="31"/>
+      <c r="E557" s="31"/>
+      <c r="F557" s="31"/>
+    </row>
+    <row r="558" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A558" s="30"/>
+      <c r="B558" s="5"/>
+      <c r="C558" s="31"/>
+      <c r="D558" s="31"/>
+      <c r="E558" s="31"/>
+      <c r="F558" s="31"/>
+    </row>
+    <row r="559" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A559" s="30"/>
+      <c r="B559" s="5"/>
+      <c r="C559" s="31"/>
+      <c r="D559" s="31"/>
+      <c r="E559" s="31"/>
+      <c r="F559" s="31"/>
+    </row>
+    <row r="560" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A560" s="30"/>
+      <c r="B560" s="5"/>
+      <c r="C560" s="31"/>
+      <c r="D560" s="31"/>
+      <c r="E560" s="31"/>
+      <c r="F560" s="31"/>
+    </row>
+    <row r="561" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A561" s="30"/>
+      <c r="B561" s="5"/>
+      <c r="C561" s="31"/>
+      <c r="D561" s="31"/>
+      <c r="E561" s="31"/>
+      <c r="F561" s="31"/>
+    </row>
+    <row r="562" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A562" s="30"/>
+      <c r="B562" s="5"/>
+      <c r="C562" s="31"/>
+      <c r="D562" s="31"/>
+      <c r="E562" s="31"/>
+      <c r="F562" s="31"/>
+    </row>
+    <row r="563" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A563" s="30"/>
+      <c r="B563" s="5"/>
+      <c r="C563" s="31"/>
+      <c r="D563" s="31"/>
+      <c r="E563" s="31"/>
+      <c r="F563" s="31"/>
+    </row>
+    <row r="564" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A564" s="30"/>
+      <c r="B564" s="5"/>
+      <c r="C564" s="31"/>
+      <c r="D564" s="31"/>
+      <c r="E564" s="31"/>
+      <c r="F564" s="31"/>
+    </row>
+    <row r="565" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A565" s="30"/>
+      <c r="B565" s="5"/>
+      <c r="C565" s="31"/>
+      <c r="D565" s="31"/>
+      <c r="E565" s="31"/>
+      <c r="F565" s="31"/>
+    </row>
+    <row r="566" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A566" s="30"/>
+      <c r="B566" s="5"/>
+      <c r="C566" s="31"/>
+      <c r="D566" s="31"/>
+      <c r="E566" s="31"/>
+      <c r="F566" s="31"/>
+    </row>
+    <row r="567" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A567" s="30"/>
+      <c r="B567" s="5"/>
+      <c r="C567" s="31"/>
+      <c r="D567" s="31"/>
+      <c r="E567" s="31"/>
+      <c r="F567" s="31"/>
+    </row>
+    <row r="568" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A568" s="30"/>
+      <c r="B568" s="5"/>
+      <c r="C568" s="31"/>
+      <c r="D568" s="31"/>
+      <c r="E568" s="31"/>
+      <c r="F568" s="31"/>
+    </row>
+    <row r="569" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A569" s="30"/>
+      <c r="B569" s="5"/>
+      <c r="C569" s="31"/>
+      <c r="D569" s="31"/>
+      <c r="E569" s="31"/>
+      <c r="F569" s="31"/>
+    </row>
+    <row r="570" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A570" s="30"/>
+      <c r="B570" s="5"/>
+      <c r="C570" s="31"/>
+      <c r="D570" s="31"/>
+      <c r="E570" s="31"/>
+      <c r="F570" s="31"/>
+    </row>
+    <row r="571" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A571" s="30"/>
+      <c r="B571" s="5"/>
+      <c r="C571" s="31"/>
+      <c r="D571" s="31"/>
+      <c r="E571" s="31"/>
+      <c r="F571" s="31"/>
+    </row>
+    <row r="572" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A572" s="30"/>
+      <c r="B572" s="5"/>
+      <c r="C572" s="31"/>
+      <c r="D572" s="31"/>
+      <c r="E572" s="31"/>
+      <c r="F572" s="31"/>
+    </row>
+    <row r="573" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A573" s="30"/>
+      <c r="B573" s="5"/>
+      <c r="C573" s="31"/>
+      <c r="D573" s="31"/>
+      <c r="E573" s="31"/>
+      <c r="F573" s="31"/>
+    </row>
+    <row r="574" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A574" s="30"/>
+      <c r="B574" s="5"/>
+      <c r="C574" s="31"/>
+      <c r="D574" s="31"/>
+      <c r="E574" s="31"/>
+      <c r="F574" s="31"/>
+    </row>
+    <row r="575" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A575" s="30"/>
+      <c r="B575" s="5"/>
+      <c r="C575" s="31"/>
+      <c r="D575" s="31"/>
+      <c r="E575" s="31"/>
+      <c r="F575" s="31"/>
+    </row>
+    <row r="576" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A576" s="30"/>
+      <c r="B576" s="5"/>
+      <c r="C576" s="31"/>
+      <c r="D576" s="31"/>
+      <c r="E576" s="31"/>
+      <c r="F576" s="31"/>
+    </row>
+    <row r="577" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A577" s="30"/>
+      <c r="B577" s="5"/>
+      <c r="C577" s="31"/>
+      <c r="D577" s="31"/>
+      <c r="E577" s="31"/>
+      <c r="F577" s="31"/>
+    </row>
+    <row r="578" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A578" s="30"/>
+      <c r="B578" s="5"/>
+      <c r="C578" s="31"/>
+      <c r="D578" s="31"/>
+      <c r="E578" s="31"/>
+      <c r="F578" s="31"/>
+    </row>
+    <row r="579" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A579" s="30"/>
+      <c r="B579" s="5"/>
+      <c r="C579" s="31"/>
+      <c r="D579" s="31"/>
+      <c r="E579" s="31"/>
+      <c r="F579" s="31"/>
+    </row>
+    <row r="580" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A580" s="30"/>
+      <c r="B580" s="5"/>
+      <c r="C580" s="31"/>
+      <c r="D580" s="31"/>
+      <c r="E580" s="31"/>
+      <c r="F580" s="31"/>
+    </row>
+    <row r="581" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A581" s="30"/>
+      <c r="B581" s="5"/>
+      <c r="C581" s="31"/>
+      <c r="D581" s="31"/>
+      <c r="E581" s="31"/>
+      <c r="F581" s="31"/>
+    </row>
+    <row r="582" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A582" s="30"/>
+      <c r="B582" s="5"/>
+      <c r="C582" s="31"/>
+      <c r="D582" s="31"/>
+      <c r="E582" s="31"/>
+      <c r="F582" s="31"/>
+    </row>
+    <row r="583" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A583" s="30"/>
+      <c r="B583" s="5"/>
+      <c r="C583" s="31"/>
+      <c r="D583" s="31"/>
+      <c r="E583" s="31"/>
+      <c r="F583" s="31"/>
+    </row>
+    <row r="584" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A584" s="30"/>
+      <c r="B584" s="5"/>
+      <c r="C584" s="31"/>
+      <c r="D584" s="31"/>
+      <c r="E584" s="31"/>
+      <c r="F584" s="31"/>
+    </row>
+    <row r="585" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A585" s="30"/>
+      <c r="B585" s="5"/>
+      <c r="C585" s="31"/>
+      <c r="D585" s="31"/>
+      <c r="E585" s="31"/>
+      <c r="F585" s="31"/>
+    </row>
+    <row r="586" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A586" s="30"/>
+      <c r="B586" s="5"/>
+      <c r="C586" s="31"/>
+      <c r="D586" s="31"/>
+      <c r="E586" s="31"/>
+      <c r="F586" s="31"/>
+    </row>
+    <row r="587" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A587" s="30"/>
+      <c r="B587" s="5"/>
+      <c r="C587" s="31"/>
+      <c r="D587" s="31"/>
+      <c r="E587" s="31"/>
+      <c r="F587" s="31"/>
+    </row>
+    <row r="588" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A588" s="30"/>
+      <c r="B588" s="5"/>
+      <c r="C588" s="31"/>
+      <c r="D588" s="31"/>
+      <c r="E588" s="31"/>
+      <c r="F588" s="31"/>
+    </row>
+    <row r="589" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A589" s="30"/>
+      <c r="B589" s="5"/>
+      <c r="C589" s="31"/>
+      <c r="D589" s="31"/>
+      <c r="E589" s="31"/>
+      <c r="F589" s="31"/>
+    </row>
+    <row r="590" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A590" s="30"/>
+      <c r="B590" s="5"/>
+      <c r="C590" s="31"/>
+      <c r="D590" s="31"/>
+      <c r="E590" s="31"/>
+      <c r="F590" s="31"/>
+    </row>
+    <row r="591" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A591" s="30"/>
+      <c r="B591" s="5"/>
+      <c r="C591" s="31"/>
+      <c r="D591" s="31"/>
+      <c r="E591" s="31"/>
+      <c r="F591" s="31"/>
+    </row>
+    <row r="592" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A592" s="30"/>
+      <c r="B592" s="5"/>
+      <c r="C592" s="31"/>
+      <c r="D592" s="31"/>
+      <c r="E592" s="31"/>
+      <c r="F592" s="31"/>
+    </row>
+    <row r="593" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A593" s="30"/>
+      <c r="B593" s="5"/>
+      <c r="C593" s="31"/>
+      <c r="D593" s="31"/>
+      <c r="E593" s="31"/>
+      <c r="F593" s="31"/>
+    </row>
+    <row r="594" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A594" s="30"/>
+      <c r="B594" s="5"/>
+      <c r="C594" s="31"/>
+      <c r="D594" s="31"/>
+      <c r="E594" s="31"/>
+      <c r="F594" s="31"/>
+    </row>
+    <row r="595" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A595" s="30"/>
+      <c r="B595" s="5"/>
+      <c r="C595" s="31"/>
+      <c r="D595" s="31"/>
+      <c r="E595" s="31"/>
+      <c r="F595" s="31"/>
+    </row>
+    <row r="596" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A596" s="30"/>
+      <c r="B596" s="5"/>
+      <c r="C596" s="31"/>
+      <c r="D596" s="31"/>
+      <c r="E596" s="31"/>
+      <c r="F596" s="31"/>
+    </row>
+    <row r="597" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A597" s="30"/>
+      <c r="B597" s="5"/>
+      <c r="C597" s="31"/>
+      <c r="D597" s="31"/>
+      <c r="E597" s="31"/>
+      <c r="F597" s="31"/>
+    </row>
+    <row r="598" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A598" s="30"/>
+      <c r="B598" s="5"/>
+      <c r="C598" s="31"/>
+      <c r="D598" s="31"/>
+      <c r="E598" s="31"/>
+      <c r="F598" s="31"/>
+    </row>
+    <row r="599" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A599" s="30"/>
+      <c r="B599" s="5"/>
+      <c r="C599" s="31"/>
+      <c r="D599" s="31"/>
+      <c r="E599" s="31"/>
+      <c r="F599" s="31"/>
+    </row>
+    <row r="600" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A600" s="30"/>
+      <c r="B600" s="5"/>
+      <c r="C600" s="31"/>
+      <c r="D600" s="31"/>
+      <c r="E600" s="31"/>
+      <c r="F600" s="31"/>
+    </row>
+    <row r="601" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A601" s="30"/>
+      <c r="B601" s="5"/>
+      <c r="C601" s="31"/>
+      <c r="D601" s="31"/>
+      <c r="E601" s="31"/>
+      <c r="F601" s="31"/>
+    </row>
+    <row r="602" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A602" s="30"/>
+      <c r="B602" s="5"/>
+      <c r="C602" s="31"/>
+      <c r="D602" s="31"/>
+      <c r="E602" s="31"/>
+      <c r="F602" s="31"/>
+    </row>
+    <row r="603" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A603" s="30"/>
+      <c r="B603" s="5"/>
+      <c r="C603" s="31"/>
+      <c r="D603" s="31"/>
+      <c r="E603" s="31"/>
+      <c r="F603" s="31"/>
+    </row>
+    <row r="604" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A604" s="30"/>
+      <c r="B604" s="5"/>
+      <c r="C604" s="31"/>
+      <c r="D604" s="31"/>
+      <c r="E604" s="31"/>
+      <c r="F604" s="31"/>
+    </row>
+    <row r="605" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A605" s="30"/>
+      <c r="B605" s="5"/>
+      <c r="C605" s="31"/>
+      <c r="D605" s="31"/>
+      <c r="E605" s="31"/>
+      <c r="F605" s="31"/>
+    </row>
+    <row r="606" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A606" s="30"/>
+      <c r="B606" s="5"/>
+      <c r="C606" s="31"/>
+      <c r="D606" s="31"/>
+      <c r="E606" s="31"/>
+      <c r="F606" s="31"/>
+    </row>
+    <row r="607" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A607" s="30"/>
+      <c r="B607" s="5"/>
+      <c r="C607" s="31"/>
+      <c r="D607" s="31"/>
+      <c r="E607" s="31"/>
+      <c r="F607" s="31"/>
+    </row>
+    <row r="608" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A608" s="30"/>
+      <c r="B608" s="5"/>
+      <c r="C608" s="31"/>
+      <c r="D608" s="31"/>
+      <c r="E608" s="31"/>
+      <c r="F608" s="31"/>
+    </row>
+    <row r="609" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A609" s="30"/>
+      <c r="B609" s="5"/>
+      <c r="C609" s="31"/>
+      <c r="D609" s="31"/>
+      <c r="E609" s="31"/>
+      <c r="F609" s="31"/>
+    </row>
+    <row r="610" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A610" s="30"/>
+      <c r="B610" s="5"/>
+      <c r="C610" s="31"/>
+      <c r="D610" s="31"/>
+      <c r="E610" s="31"/>
+      <c r="F610" s="31"/>
+    </row>
+    <row r="611" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A611" s="30"/>
+      <c r="B611" s="5"/>
+      <c r="C611" s="31"/>
+      <c r="D611" s="31"/>
+      <c r="E611" s="31"/>
+      <c r="F611" s="31"/>
+    </row>
+    <row r="612" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A612" s="30"/>
+      <c r="B612" s="5"/>
+      <c r="C612" s="31"/>
+      <c r="D612" s="31"/>
+      <c r="E612" s="31"/>
+      <c r="F612" s="31"/>
+    </row>
+    <row r="613" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A613" s="30"/>
+      <c r="B613" s="5"/>
+      <c r="C613" s="31"/>
+      <c r="D613" s="31"/>
+      <c r="E613" s="31"/>
+      <c r="F613" s="31"/>
+    </row>
+    <row r="614" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A614" s="30"/>
+      <c r="B614" s="5"/>
+      <c r="C614" s="31"/>
+      <c r="D614" s="31"/>
+      <c r="E614" s="31"/>
+      <c r="F614" s="31"/>
+    </row>
+    <row r="615" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A615" s="30"/>
+      <c r="B615" s="5"/>
+      <c r="C615" s="31"/>
+      <c r="D615" s="31"/>
+      <c r="E615" s="31"/>
+      <c r="F615" s="31"/>
+    </row>
+    <row r="616" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A616" s="30"/>
+      <c r="B616" s="5"/>
+      <c r="C616" s="31"/>
+      <c r="D616" s="31"/>
+      <c r="E616" s="31"/>
+      <c r="F616" s="31"/>
+    </row>
+    <row r="617" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A617" s="30"/>
+      <c r="B617" s="5"/>
+      <c r="C617" s="31"/>
+      <c r="D617" s="31"/>
+      <c r="E617" s="31"/>
+      <c r="F617" s="31"/>
+    </row>
+    <row r="618" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A618" s="30"/>
+      <c r="B618" s="5"/>
+      <c r="C618" s="31"/>
+      <c r="D618" s="31"/>
+      <c r="E618" s="31"/>
+      <c r="F618" s="31"/>
+    </row>
+    <row r="619" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A619" s="30"/>
+      <c r="B619" s="5"/>
+      <c r="C619" s="31"/>
+      <c r="D619" s="31"/>
+      <c r="E619" s="31"/>
+      <c r="F619" s="31"/>
+    </row>
+    <row r="620" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A620" s="30"/>
+      <c r="B620" s="5"/>
+      <c r="C620" s="31"/>
+      <c r="D620" s="31"/>
+      <c r="E620" s="31"/>
+      <c r="F620" s="31"/>
+    </row>
+    <row r="621" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A621" s="30"/>
+      <c r="B621" s="5"/>
+      <c r="C621" s="31"/>
+      <c r="D621" s="31"/>
+      <c r="E621" s="31"/>
+      <c r="F621" s="31"/>
+    </row>
+    <row r="622" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A622" s="30"/>
+      <c r="B622" s="5"/>
+      <c r="C622" s="31"/>
+      <c r="D622" s="31"/>
+      <c r="E622" s="31"/>
+      <c r="F622" s="31"/>
+    </row>
+    <row r="623" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A623" s="30"/>
+      <c r="B623" s="5"/>
+      <c r="C623" s="31"/>
+      <c r="D623" s="31"/>
+      <c r="E623" s="31"/>
+      <c r="F623" s="31"/>
+    </row>
+    <row r="624" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A624" s="30"/>
+      <c r="B624" s="5"/>
+      <c r="C624" s="31"/>
+      <c r="D624" s="31"/>
+      <c r="E624" s="31"/>
+      <c r="F624" s="31"/>
+    </row>
+    <row r="625" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A625" s="30"/>
+      <c r="B625" s="5"/>
+      <c r="C625" s="31"/>
+      <c r="D625" s="31"/>
+      <c r="E625" s="31"/>
+      <c r="F625" s="31"/>
+    </row>
+    <row r="626" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A626" s="30"/>
+      <c r="B626" s="5"/>
+      <c r="C626" s="31"/>
+      <c r="D626" s="31"/>
+      <c r="E626" s="31"/>
+      <c r="F626" s="31"/>
+    </row>
+    <row r="627" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A627" s="30"/>
+      <c r="B627" s="5"/>
+      <c r="C627" s="31"/>
+      <c r="D627" s="31"/>
+      <c r="E627" s="31"/>
+      <c r="F627" s="31"/>
+    </row>
+    <row r="628" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A628" s="30"/>
+      <c r="B628" s="5"/>
+      <c r="C628" s="31"/>
+      <c r="D628" s="31"/>
+      <c r="E628" s="31"/>
+      <c r="F628" s="31"/>
+    </row>
+    <row r="629" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A629" s="30"/>
+      <c r="B629" s="5"/>
+      <c r="C629" s="31"/>
+      <c r="D629" s="31"/>
+      <c r="E629" s="31"/>
+      <c r="F629" s="31"/>
+    </row>
+    <row r="630" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A630" s="30"/>
+      <c r="B630" s="5"/>
+      <c r="C630" s="31"/>
+      <c r="D630" s="31"/>
+      <c r="E630" s="31"/>
+      <c r="F630" s="31"/>
+    </row>
+    <row r="631" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A631" s="30"/>
+      <c r="B631" s="5"/>
+      <c r="C631" s="31"/>
+      <c r="D631" s="31"/>
+      <c r="E631" s="31"/>
+      <c r="F631" s="31"/>
+    </row>
+    <row r="632" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A632" s="30"/>
+      <c r="B632" s="5"/>
+      <c r="C632" s="31"/>
+      <c r="D632" s="31"/>
+      <c r="E632" s="31"/>
+      <c r="F632" s="31"/>
+    </row>
+    <row r="633" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A633" s="30"/>
+      <c r="B633" s="5"/>
+      <c r="C633" s="31"/>
+      <c r="D633" s="31"/>
+      <c r="E633" s="31"/>
+      <c r="F633" s="31"/>
+    </row>
+    <row r="634" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A634" s="30"/>
+      <c r="B634" s="5"/>
+      <c r="C634" s="31"/>
+      <c r="D634" s="31"/>
+      <c r="E634" s="31"/>
+      <c r="F634" s="31"/>
+    </row>
+    <row r="635" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A635" s="30"/>
+      <c r="B635" s="5"/>
+      <c r="C635" s="31"/>
+      <c r="D635" s="31"/>
+      <c r="E635" s="31"/>
+      <c r="F635" s="31"/>
+    </row>
+    <row r="636" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A636" s="30"/>
+      <c r="B636" s="5"/>
+      <c r="C636" s="31"/>
+      <c r="D636" s="31"/>
+      <c r="E636" s="31"/>
+      <c r="F636" s="31"/>
+    </row>
+    <row r="637" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A637" s="30"/>
+      <c r="B637" s="5"/>
+      <c r="C637" s="31"/>
+      <c r="D637" s="31"/>
+      <c r="E637" s="31"/>
+      <c r="F637" s="31"/>
+    </row>
+    <row r="638" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A638" s="30"/>
+      <c r="B638" s="5"/>
+      <c r="C638" s="31"/>
+      <c r="D638" s="31"/>
+      <c r="E638" s="31"/>
+      <c r="F638" s="31"/>
+    </row>
+    <row r="639" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A639" s="30"/>
+      <c r="B639" s="5"/>
+      <c r="C639" s="31"/>
+      <c r="D639" s="31"/>
+      <c r="E639" s="31"/>
+      <c r="F639" s="31"/>
+    </row>
+    <row r="640" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A640" s="30"/>
+      <c r="B640" s="5"/>
+      <c r="C640" s="31"/>
+      <c r="D640" s="31"/>
+      <c r="E640" s="31"/>
+      <c r="F640" s="31"/>
+    </row>
+    <row r="641" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A641" s="30"/>
+      <c r="B641" s="5"/>
+      <c r="C641" s="31"/>
+      <c r="D641" s="31"/>
+      <c r="E641" s="31"/>
+      <c r="F641" s="31"/>
+    </row>
+    <row r="642" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A642" s="30"/>
+      <c r="B642" s="5"/>
+      <c r="C642" s="31"/>
+      <c r="D642" s="31"/>
+      <c r="E642" s="31"/>
+      <c r="F642" s="31"/>
+    </row>
+    <row r="643" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A643" s="30"/>
+      <c r="B643" s="5"/>
+      <c r="C643" s="31"/>
+      <c r="D643" s="31"/>
+      <c r="E643" s="31"/>
+      <c r="F643" s="31"/>
+    </row>
+    <row r="644" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A644" s="30"/>
+      <c r="B644" s="5"/>
+      <c r="C644" s="31"/>
+      <c r="D644" s="31"/>
+      <c r="E644" s="31"/>
+      <c r="F644" s="31"/>
+    </row>
+    <row r="645" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A645" s="30"/>
+      <c r="B645" s="5"/>
+      <c r="C645" s="31"/>
+      <c r="D645" s="31"/>
+      <c r="E645" s="31"/>
+      <c r="F645" s="31"/>
+    </row>
+    <row r="646" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A646" s="30"/>
+      <c r="B646" s="5"/>
+      <c r="C646" s="31"/>
+      <c r="D646" s="31"/>
+      <c r="E646" s="31"/>
+      <c r="F646" s="31"/>
+    </row>
+    <row r="647" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A647" s="30"/>
+      <c r="B647" s="5"/>
+      <c r="C647" s="31"/>
+      <c r="D647" s="31"/>
+      <c r="E647" s="31"/>
+      <c r="F647" s="31"/>
+    </row>
+    <row r="648" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A648" s="30"/>
+      <c r="B648" s="5"/>
+      <c r="C648" s="31"/>
+      <c r="D648" s="31"/>
+      <c r="E648" s="31"/>
+      <c r="F648" s="31"/>
+    </row>
+    <row r="649" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A649" s="30"/>
+      <c r="B649" s="5"/>
+      <c r="C649" s="31"/>
+      <c r="D649" s="31"/>
+      <c r="E649" s="31"/>
+      <c r="F649" s="31"/>
+    </row>
+    <row r="650" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A650" s="30"/>
+      <c r="B650" s="5"/>
+      <c r="C650" s="31"/>
+      <c r="D650" s="31"/>
+      <c r="E650" s="31"/>
+      <c r="F650" s="31"/>
+    </row>
+    <row r="651" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A651" s="30"/>
+      <c r="B651" s="5"/>
+      <c r="C651" s="31"/>
+      <c r="D651" s="31"/>
+      <c r="E651" s="31"/>
+      <c r="F651" s="31"/>
+    </row>
+    <row r="652" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A652" s="30"/>
+      <c r="B652" s="5"/>
+      <c r="C652" s="31"/>
+      <c r="D652" s="31"/>
+      <c r="E652" s="31"/>
+      <c r="F652" s="31"/>
+    </row>
+    <row r="653" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A653" s="30"/>
+      <c r="B653" s="5"/>
+      <c r="C653" s="31"/>
+      <c r="D653" s="31"/>
+      <c r="E653" s="31"/>
+      <c r="F653" s="31"/>
+    </row>
+    <row r="654" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A654" s="30"/>
+      <c r="B654" s="5"/>
+      <c r="C654" s="31"/>
+      <c r="D654" s="31"/>
+      <c r="E654" s="31"/>
+      <c r="F654" s="31"/>
+    </row>
+    <row r="655" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A655" s="30"/>
+      <c r="B655" s="5"/>
+      <c r="C655" s="31"/>
+      <c r="D655" s="31"/>
+      <c r="E655" s="31"/>
+      <c r="F655" s="31"/>
+    </row>
+    <row r="656" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A656" s="30"/>
+      <c r="B656" s="5"/>
+      <c r="C656" s="31"/>
+      <c r="D656" s="31"/>
+      <c r="E656" s="31"/>
+      <c r="F656" s="31"/>
+    </row>
+    <row r="657" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A657" s="30"/>
+      <c r="B657" s="5"/>
+      <c r="C657" s="31"/>
+      <c r="D657" s="31"/>
+      <c r="E657" s="31"/>
+      <c r="F657" s="31"/>
+    </row>
+    <row r="658" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A658" s="30"/>
+      <c r="B658" s="5"/>
+      <c r="C658" s="31"/>
+      <c r="D658" s="31"/>
+      <c r="E658" s="31"/>
+      <c r="F658" s="31"/>
+    </row>
+    <row r="659" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A659" s="30"/>
+      <c r="B659" s="5"/>
+      <c r="C659" s="31"/>
+      <c r="D659" s="31"/>
+      <c r="E659" s="31"/>
+      <c r="F659" s="31"/>
+    </row>
+    <row r="660" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A660" s="30"/>
+      <c r="B660" s="5"/>
+      <c r="C660" s="31"/>
+      <c r="D660" s="31"/>
+      <c r="E660" s="31"/>
+      <c r="F660" s="31"/>
+    </row>
+    <row r="661" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A661" s="30"/>
+      <c r="B661" s="5"/>
+      <c r="C661" s="31"/>
+      <c r="D661" s="31"/>
+      <c r="E661" s="31"/>
+      <c r="F661" s="31"/>
+    </row>
+    <row r="662" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A662" s="30"/>
+      <c r="B662" s="5"/>
+      <c r="C662" s="31"/>
+      <c r="D662" s="31"/>
+      <c r="E662" s="31"/>
+      <c r="F662" s="31"/>
+    </row>
+    <row r="663" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A663" s="30"/>
+      <c r="B663" s="5"/>
+      <c r="C663" s="31"/>
+      <c r="D663" s="31"/>
+      <c r="E663" s="31"/>
+      <c r="F663" s="31"/>
+    </row>
+    <row r="664" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A664" s="30"/>
+      <c r="B664" s="5"/>
+      <c r="C664" s="31"/>
+      <c r="D664" s="31"/>
+      <c r="E664" s="31"/>
+      <c r="F664" s="31"/>
+    </row>
+    <row r="665" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A665" s="30"/>
+      <c r="B665" s="5"/>
+      <c r="C665" s="31"/>
+      <c r="D665" s="31"/>
+      <c r="E665" s="31"/>
+      <c r="F665" s="31"/>
+    </row>
+    <row r="666" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A666" s="30"/>
+      <c r="B666" s="5"/>
+      <c r="C666" s="31"/>
+      <c r="D666" s="31"/>
+      <c r="E666" s="31"/>
+      <c r="F666" s="31"/>
+    </row>
+    <row r="667" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A667" s="30"/>
+      <c r="B667" s="5"/>
+      <c r="C667" s="31"/>
+      <c r="D667" s="31"/>
+      <c r="E667" s="31"/>
+      <c r="F667" s="31"/>
+    </row>
+    <row r="668" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A668" s="30"/>
+      <c r="B668" s="5"/>
+      <c r="C668" s="31"/>
+      <c r="D668" s="31"/>
+      <c r="E668" s="31"/>
+      <c r="F668" s="31"/>
+    </row>
+    <row r="669" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A669" s="30"/>
+      <c r="B669" s="5"/>
+      <c r="C669" s="31"/>
+      <c r="D669" s="31"/>
+      <c r="E669" s="31"/>
+      <c r="F669" s="31"/>
+    </row>
+    <row r="670" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A670" s="30"/>
+      <c r="B670" s="5"/>
+      <c r="C670" s="31"/>
+      <c r="D670" s="31"/>
+      <c r="E670" s="31"/>
+      <c r="F670" s="31"/>
+    </row>
+    <row r="671" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A671" s="30"/>
+      <c r="B671" s="5"/>
+      <c r="C671" s="31"/>
+      <c r="D671" s="31"/>
+      <c r="E671" s="31"/>
+      <c r="F671" s="31"/>
+    </row>
+    <row r="672" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A672" s="30"/>
+      <c r="B672" s="5"/>
+      <c r="C672" s="31"/>
+      <c r="D672" s="31"/>
+      <c r="E672" s="31"/>
+      <c r="F672" s="31"/>
+    </row>
+    <row r="673" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A673" s="30"/>
+      <c r="B673" s="5"/>
+      <c r="C673" s="31"/>
+      <c r="D673" s="31"/>
+      <c r="E673" s="31"/>
+      <c r="F673" s="31"/>
+    </row>
+    <row r="674" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A674" s="30"/>
+      <c r="B674" s="5"/>
+      <c r="C674" s="31"/>
+      <c r="D674" s="31"/>
+      <c r="E674" s="31"/>
+      <c r="F674" s="31"/>
+    </row>
+    <row r="675" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A675" s="30"/>
+      <c r="B675" s="5"/>
+      <c r="C675" s="31"/>
+      <c r="D675" s="31"/>
+      <c r="E675" s="31"/>
+      <c r="F675" s="31"/>
+    </row>
+    <row r="676" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A676" s="30"/>
+      <c r="B676" s="5"/>
+      <c r="C676" s="31"/>
+      <c r="D676" s="31"/>
+      <c r="E676" s="31"/>
+      <c r="F676" s="31"/>
+    </row>
+    <row r="677" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A677" s="30"/>
+      <c r="B677" s="5"/>
+      <c r="C677" s="31"/>
+      <c r="D677" s="31"/>
+      <c r="E677" s="31"/>
+      <c r="F677" s="31"/>
+    </row>
+    <row r="678" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A678" s="30"/>
+      <c r="B678" s="5"/>
+      <c r="C678" s="31"/>
+      <c r="D678" s="31"/>
+      <c r="E678" s="31"/>
+      <c r="F678" s="31"/>
+    </row>
+    <row r="679" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A679" s="30"/>
+      <c r="B679" s="5"/>
+      <c r="C679" s="31"/>
+      <c r="D679" s="31"/>
+      <c r="E679" s="31"/>
+      <c r="F679" s="31"/>
+    </row>
+    <row r="680" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A680" s="30"/>
+      <c r="B680" s="5"/>
+      <c r="C680" s="31"/>
+      <c r="D680" s="31"/>
+      <c r="E680" s="31"/>
+      <c r="F680" s="31"/>
+    </row>
+    <row r="681" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A681" s="30"/>
+      <c r="B681" s="5"/>
+      <c r="C681" s="31"/>
+      <c r="D681" s="31"/>
+      <c r="E681" s="31"/>
+      <c r="F681" s="31"/>
+    </row>
+    <row r="682" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A682" s="30"/>
+      <c r="B682" s="5"/>
+      <c r="C682" s="31"/>
+      <c r="D682" s="31"/>
+      <c r="E682" s="31"/>
+      <c r="F682" s="31"/>
+    </row>
+    <row r="683" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A683" s="30"/>
+      <c r="B683" s="5"/>
+      <c r="C683" s="31"/>
+      <c r="D683" s="31"/>
+      <c r="E683" s="31"/>
+      <c r="F683" s="31"/>
+    </row>
+    <row r="684" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A684" s="30"/>
+      <c r="B684" s="5"/>
+      <c r="C684" s="31"/>
+      <c r="D684" s="31"/>
+      <c r="E684" s="31"/>
+      <c r="F684" s="31"/>
+    </row>
+    <row r="685" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A685" s="30"/>
+      <c r="B685" s="5"/>
+      <c r="C685" s="31"/>
+      <c r="D685" s="31"/>
+      <c r="E685" s="31"/>
+      <c r="F685" s="31"/>
+    </row>
+    <row r="686" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A686" s="30"/>
+      <c r="B686" s="5"/>
+      <c r="C686" s="31"/>
+      <c r="D686" s="31"/>
+      <c r="E686" s="31"/>
+      <c r="F686" s="31"/>
+    </row>
+    <row r="687" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A687" s="30"/>
+      <c r="B687" s="5"/>
+      <c r="C687" s="31"/>
+      <c r="D687" s="31"/>
+      <c r="E687" s="31"/>
+      <c r="F687" s="31"/>
+    </row>
+    <row r="688" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A688" s="30"/>
+      <c r="B688" s="5"/>
+      <c r="C688" s="31"/>
+      <c r="D688" s="31"/>
+      <c r="E688" s="31"/>
+      <c r="F688" s="31"/>
+    </row>
+    <row r="689" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A689" s="30"/>
+      <c r="B689" s="5"/>
+      <c r="C689" s="31"/>
+      <c r="D689" s="31"/>
+      <c r="E689" s="31"/>
+      <c r="F689" s="31"/>
+    </row>
+    <row r="690" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A690" s="30"/>
+      <c r="B690" s="5"/>
+      <c r="C690" s="31"/>
+      <c r="D690" s="31"/>
+      <c r="E690" s="31"/>
+      <c r="F690" s="31"/>
+    </row>
+    <row r="691" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A691" s="30"/>
+      <c r="B691" s="5"/>
+      <c r="C691" s="31"/>
+      <c r="D691" s="31"/>
+      <c r="E691" s="31"/>
+      <c r="F691" s="31"/>
+    </row>
+    <row r="692" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A692" s="30"/>
+      <c r="B692" s="5"/>
+      <c r="C692" s="31"/>
+      <c r="D692" s="31"/>
+      <c r="E692" s="31"/>
+      <c r="F692" s="31"/>
+    </row>
+    <row r="693" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A693" s="30"/>
+      <c r="B693" s="5"/>
+      <c r="C693" s="31"/>
+      <c r="D693" s="31"/>
+      <c r="E693" s="31"/>
+      <c r="F693" s="31"/>
+    </row>
+    <row r="694" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A694" s="30"/>
+      <c r="B694" s="5"/>
+      <c r="C694" s="31"/>
+      <c r="D694" s="31"/>
+      <c r="E694" s="31"/>
+      <c r="F694" s="31"/>
+    </row>
+    <row r="695" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A695" s="30"/>
+      <c r="B695" s="5"/>
+      <c r="C695" s="31"/>
+      <c r="D695" s="31"/>
+      <c r="E695" s="31"/>
+      <c r="F695" s="31"/>
+    </row>
+    <row r="696" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A696" s="30"/>
+      <c r="B696" s="5"/>
+      <c r="C696" s="31"/>
+      <c r="D696" s="31"/>
+      <c r="E696" s="31"/>
+      <c r="F696" s="31"/>
+    </row>
+    <row r="697" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A697" s="30"/>
+      <c r="B697" s="5"/>
+      <c r="C697" s="31"/>
+      <c r="D697" s="31"/>
+      <c r="E697" s="31"/>
+      <c r="F697" s="31"/>
+    </row>
+    <row r="698" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A698" s="30"/>
+      <c r="B698" s="5"/>
+      <c r="C698" s="31"/>
+      <c r="D698" s="31"/>
+      <c r="E698" s="31"/>
+      <c r="F698" s="31"/>
+    </row>
+    <row r="699" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A699" s="30"/>
+      <c r="B699" s="5"/>
+      <c r="C699" s="31"/>
+      <c r="D699" s="31"/>
+      <c r="E699" s="31"/>
+      <c r="F699" s="31"/>
+    </row>
+    <row r="700" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A700" s="30"/>
+      <c r="B700" s="5"/>
+      <c r="C700" s="31"/>
+      <c r="D700" s="31"/>
+      <c r="E700" s="31"/>
+      <c r="F700" s="31"/>
+    </row>
+    <row r="701" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A701" s="30"/>
+      <c r="B701" s="5"/>
+      <c r="C701" s="31"/>
+      <c r="D701" s="31"/>
+      <c r="E701" s="31"/>
+      <c r="F701" s="31"/>
+    </row>
+    <row r="702" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A702" s="30"/>
+      <c r="B702" s="5"/>
+      <c r="C702" s="31"/>
+      <c r="D702" s="31"/>
+      <c r="E702" s="31"/>
+      <c r="F702" s="31"/>
+    </row>
+    <row r="703" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A703" s="30"/>
+      <c r="B703" s="5"/>
+      <c r="C703" s="31"/>
+      <c r="D703" s="31"/>
+      <c r="E703" s="31"/>
+      <c r="F703" s="31"/>
+    </row>
+    <row r="704" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A704" s="30"/>
+      <c r="B704" s="5"/>
+      <c r="C704" s="31"/>
+      <c r="D704" s="31"/>
+      <c r="E704" s="31"/>
+      <c r="F704" s="31"/>
+    </row>
+    <row r="705" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A705" s="30"/>
+      <c r="B705" s="5"/>
+      <c r="C705" s="31"/>
+      <c r="D705" s="31"/>
+      <c r="E705" s="31"/>
+      <c r="F705" s="31"/>
+    </row>
+    <row r="706" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A706" s="30"/>
+      <c r="B706" s="5"/>
+      <c r="C706" s="31"/>
+      <c r="D706" s="31"/>
+      <c r="E706" s="31"/>
+      <c r="F706" s="31"/>
+    </row>
+    <row r="707" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A707" s="30"/>
+      <c r="B707" s="5"/>
+      <c r="C707" s="31"/>
+      <c r="D707" s="31"/>
+      <c r="E707" s="31"/>
+      <c r="F707" s="31"/>
+    </row>
+    <row r="708" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A708" s="30"/>
+      <c r="B708" s="5"/>
+      <c r="C708" s="31"/>
+      <c r="D708" s="31"/>
+      <c r="E708" s="31"/>
+      <c r="F708" s="31"/>
+    </row>
+    <row r="709" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A709" s="30"/>
+      <c r="B709" s="5"/>
+      <c r="C709" s="31"/>
+      <c r="D709" s="31"/>
+      <c r="E709" s="31"/>
+      <c r="F709" s="31"/>
+    </row>
+    <row r="710" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A710" s="30"/>
+      <c r="B710" s="5"/>
+      <c r="C710" s="31"/>
+      <c r="D710" s="31"/>
+      <c r="E710" s="31"/>
+      <c r="F710" s="31"/>
+    </row>
+    <row r="711" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A711" s="30"/>
+      <c r="B711" s="5"/>
+      <c r="C711" s="31"/>
+      <c r="D711" s="31"/>
+      <c r="E711" s="31"/>
+      <c r="F711" s="31"/>
+    </row>
+    <row r="712" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A712" s="30"/>
+      <c r="B712" s="5"/>
+      <c r="C712" s="31"/>
+      <c r="D712" s="31"/>
+      <c r="E712" s="31"/>
+      <c r="F712" s="31"/>
+    </row>
+    <row r="713" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A713" s="30"/>
+      <c r="B713" s="5"/>
+      <c r="C713" s="31"/>
+      <c r="D713" s="31"/>
+      <c r="E713" s="31"/>
+      <c r="F713" s="31"/>
+    </row>
+    <row r="714" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A714" s="30"/>
+      <c r="B714" s="5"/>
+      <c r="C714" s="31"/>
+      <c r="D714" s="31"/>
+      <c r="E714" s="31"/>
+      <c r="F714" s="31"/>
+    </row>
+    <row r="715" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A715" s="30"/>
+      <c r="B715" s="5"/>
+      <c r="C715" s="31"/>
+      <c r="D715" s="31"/>
+      <c r="E715" s="31"/>
+      <c r="F715" s="31"/>
+    </row>
+    <row r="716" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A716" s="30"/>
+      <c r="B716" s="5"/>
+      <c r="C716" s="31"/>
+      <c r="D716" s="31"/>
+      <c r="E716" s="31"/>
+      <c r="F716" s="31"/>
+    </row>
+    <row r="717" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A717" s="30"/>
+      <c r="B717" s="5"/>
+      <c r="C717" s="31"/>
+      <c r="D717" s="31"/>
+      <c r="E717" s="31"/>
+      <c r="F717" s="31"/>
+    </row>
+    <row r="718" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A718" s="30"/>
+      <c r="B718" s="5"/>
+      <c r="C718" s="31"/>
+      <c r="D718" s="31"/>
+      <c r="E718" s="31"/>
+      <c r="F718" s="31"/>
+    </row>
+    <row r="719" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A719" s="30"/>
+      <c r="B719" s="5"/>
+      <c r="C719" s="31"/>
+      <c r="D719" s="31"/>
+      <c r="E719" s="31"/>
+      <c r="F719" s="31"/>
+    </row>
+    <row r="720" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A720" s="30"/>
+      <c r="B720" s="5"/>
+      <c r="C720" s="31"/>
+      <c r="D720" s="31"/>
+      <c r="E720" s="31"/>
+      <c r="F720" s="31"/>
+    </row>
+    <row r="721" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A721" s="30"/>
+      <c r="B721" s="5"/>
+      <c r="C721" s="31"/>
+      <c r="D721" s="31"/>
+      <c r="E721" s="31"/>
+      <c r="F721" s="31"/>
+    </row>
+    <row r="722" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A722" s="30"/>
+      <c r="B722" s="5"/>
+      <c r="C722" s="31"/>
+      <c r="D722" s="31"/>
+      <c r="E722" s="31"/>
+      <c r="F722" s="31"/>
+    </row>
+    <row r="723" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A723" s="30"/>
+      <c r="B723" s="5"/>
+      <c r="C723" s="31"/>
+      <c r="D723" s="31"/>
+      <c r="E723" s="31"/>
+      <c r="F723" s="31"/>
+    </row>
+    <row r="724" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A724" s="30"/>
+      <c r="B724" s="5"/>
+      <c r="C724" s="31"/>
+      <c r="D724" s="31"/>
+      <c r="E724" s="31"/>
+      <c r="F724" s="31"/>
+    </row>
+    <row r="725" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A725" s="30"/>
+      <c r="B725" s="5"/>
+      <c r="C725" s="31"/>
+      <c r="D725" s="31"/>
+      <c r="E725" s="31"/>
+      <c r="F725" s="31"/>
+    </row>
+    <row r="726" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A726" s="30"/>
+      <c r="B726" s="5"/>
+      <c r="C726" s="31"/>
+      <c r="D726" s="31"/>
+      <c r="E726" s="31"/>
+      <c r="F726" s="31"/>
+    </row>
+    <row r="727" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A727" s="30"/>
+      <c r="B727" s="5"/>
+      <c r="C727" s="31"/>
+      <c r="D727" s="31"/>
+      <c r="E727" s="31"/>
+      <c r="F727" s="31"/>
+    </row>
+    <row r="728" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A728" s="30"/>
+      <c r="B728" s="5"/>
+      <c r="C728" s="31"/>
+      <c r="D728" s="31"/>
+      <c r="E728" s="31"/>
+      <c r="F728" s="31"/>
+    </row>
+    <row r="729" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A729" s="30"/>
+      <c r="B729" s="5"/>
+      <c r="C729" s="31"/>
+      <c r="D729" s="31"/>
+      <c r="E729" s="31"/>
+      <c r="F729" s="31"/>
+    </row>
+    <row r="730" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A730" s="30"/>
+      <c r="B730" s="5"/>
+      <c r="C730" s="31"/>
+      <c r="D730" s="31"/>
+      <c r="E730" s="31"/>
+      <c r="F730" s="31"/>
+    </row>
+    <row r="731" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A731" s="30"/>
+      <c r="B731" s="5"/>
+      <c r="C731" s="31"/>
+      <c r="D731" s="31"/>
+      <c r="E731" s="31"/>
+      <c r="F731" s="31"/>
+    </row>
+    <row r="732" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A732" s="30"/>
+      <c r="B732" s="5"/>
+      <c r="C732" s="31"/>
+      <c r="D732" s="31"/>
+      <c r="E732" s="31"/>
+      <c r="F732" s="31"/>
+    </row>
+    <row r="733" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A733" s="30"/>
+      <c r="B733" s="5"/>
+      <c r="C733" s="31"/>
+      <c r="D733" s="31"/>
+      <c r="E733" s="31"/>
+      <c r="F733" s="31"/>
+    </row>
+    <row r="734" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A734" s="30"/>
+      <c r="B734" s="5"/>
+      <c r="C734" s="31"/>
+      <c r="D734" s="31"/>
+      <c r="E734" s="31"/>
+      <c r="F734" s="31"/>
+    </row>
+    <row r="735" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A735" s="30"/>
+      <c r="B735" s="5"/>
+      <c r="C735" s="31"/>
+      <c r="D735" s="31"/>
+      <c r="E735" s="31"/>
+      <c r="F735" s="31"/>
+    </row>
+    <row r="736" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A736" s="30"/>
+      <c r="B736" s="5"/>
+      <c r="C736" s="31"/>
+      <c r="D736" s="31"/>
+      <c r="E736" s="31"/>
+      <c r="F736" s="31"/>
+    </row>
+    <row r="737" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A737" s="30"/>
+      <c r="B737" s="5"/>
+      <c r="C737" s="31"/>
+      <c r="D737" s="31"/>
+      <c r="E737" s="31"/>
+      <c r="F737" s="31"/>
+    </row>
+    <row r="738" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A738" s="30"/>
+      <c r="B738" s="5"/>
+      <c r="C738" s="31"/>
+      <c r="D738" s="31"/>
+      <c r="E738" s="31"/>
+      <c r="F738" s="31"/>
+    </row>
+    <row r="739" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A739" s="30"/>
+      <c r="B739" s="5"/>
+      <c r="C739" s="31"/>
+      <c r="D739" s="31"/>
+      <c r="E739" s="31"/>
+      <c r="F739" s="31"/>
+    </row>
+    <row r="740" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A740" s="30"/>
+      <c r="B740" s="5"/>
+      <c r="C740" s="31"/>
+      <c r="D740" s="31"/>
+      <c r="E740" s="31"/>
+      <c r="F740" s="31"/>
+    </row>
+    <row r="741" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A741" s="30"/>
+      <c r="B741" s="5"/>
+      <c r="C741" s="31"/>
+      <c r="D741" s="31"/>
+      <c r="E741" s="31"/>
+      <c r="F741" s="31"/>
+    </row>
+    <row r="742" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A742" s="30"/>
+      <c r="B742" s="5"/>
+      <c r="C742" s="31"/>
+      <c r="D742" s="31"/>
+      <c r="E742" s="31"/>
+      <c r="F742" s="31"/>
+    </row>
+    <row r="743" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A743" s="30"/>
+      <c r="B743" s="5"/>
+      <c r="C743" s="31"/>
+      <c r="D743" s="31"/>
+      <c r="E743" s="31"/>
+      <c r="F743" s="31"/>
+    </row>
+    <row r="744" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A744" s="30"/>
+      <c r="B744" s="5"/>
+      <c r="C744" s="31"/>
+      <c r="D744" s="31"/>
+      <c r="E744" s="31"/>
+      <c r="F744" s="31"/>
+    </row>
+    <row r="745" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A745" s="30"/>
+      <c r="B745" s="5"/>
+      <c r="C745" s="31"/>
+      <c r="D745" s="31"/>
+      <c r="E745" s="31"/>
+      <c r="F745" s="31"/>
+    </row>
+    <row r="746" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A746" s="30"/>
+      <c r="B746" s="5"/>
+      <c r="C746" s="31"/>
+      <c r="D746" s="31"/>
+      <c r="E746" s="31"/>
+      <c r="F746" s="31"/>
+    </row>
+    <row r="747" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A747" s="30"/>
+      <c r="B747" s="5"/>
+      <c r="C747" s="31"/>
+      <c r="D747" s="31"/>
+      <c r="E747" s="31"/>
+      <c r="F747" s="31"/>
+    </row>
+    <row r="748" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A748" s="30"/>
+      <c r="B748" s="5"/>
+      <c r="C748" s="31"/>
+      <c r="D748" s="31"/>
+      <c r="E748" s="31"/>
+      <c r="F748" s="31"/>
+    </row>
+    <row r="749" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A749" s="30"/>
+      <c r="B749" s="5"/>
+      <c r="C749" s="31"/>
+      <c r="D749" s="31"/>
+      <c r="E749" s="31"/>
+      <c r="F749" s="31"/>
+    </row>
+    <row r="750" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A750" s="30"/>
+      <c r="B750" s="5"/>
+      <c r="C750" s="31"/>
+      <c r="D750" s="31"/>
+      <c r="E750" s="31"/>
+      <c r="F750" s="31"/>
+    </row>
+    <row r="751" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A751" s="30"/>
+      <c r="B751" s="5"/>
+      <c r="C751" s="31"/>
+      <c r="D751" s="31"/>
+      <c r="E751" s="31"/>
+      <c r="F751" s="31"/>
+    </row>
+    <row r="752" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A752" s="30"/>
+      <c r="B752" s="5"/>
+      <c r="C752" s="31"/>
+      <c r="D752" s="31"/>
+      <c r="E752" s="31"/>
+      <c r="F752" s="31"/>
+    </row>
+    <row r="753" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A753" s="30"/>
+      <c r="B753" s="5"/>
+      <c r="C753" s="31"/>
+      <c r="D753" s="31"/>
+      <c r="E753" s="31"/>
+      <c r="F753" s="31"/>
+    </row>
+    <row r="754" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A754" s="30"/>
+      <c r="B754" s="5"/>
+      <c r="C754" s="31"/>
+      <c r="D754" s="31"/>
+      <c r="E754" s="31"/>
+      <c r="F754" s="31"/>
+    </row>
+    <row r="755" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A755" s="30"/>
+      <c r="B755" s="5"/>
+      <c r="C755" s="31"/>
+      <c r="D755" s="31"/>
+      <c r="E755" s="31"/>
+      <c r="F755" s="31"/>
+    </row>
+    <row r="756" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A756" s="30"/>
+      <c r="B756" s="5"/>
+      <c r="C756" s="31"/>
+      <c r="D756" s="31"/>
+      <c r="E756" s="31"/>
+      <c r="F756" s="31"/>
+    </row>
+    <row r="757" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A757" s="30"/>
+      <c r="B757" s="5"/>
+      <c r="C757" s="31"/>
+      <c r="D757" s="31"/>
+      <c r="E757" s="31"/>
+      <c r="F757" s="31"/>
+    </row>
+    <row r="758" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A758" s="30"/>
+      <c r="B758" s="5"/>
+      <c r="C758" s="31"/>
+      <c r="D758" s="31"/>
+      <c r="E758" s="31"/>
+      <c r="F758" s="31"/>
+    </row>
+    <row r="759" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A759" s="30"/>
+      <c r="B759" s="5"/>
+      <c r="C759" s="31"/>
+      <c r="D759" s="31"/>
+      <c r="E759" s="31"/>
+      <c r="F759" s="31"/>
+    </row>
+    <row r="760" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A760" s="30"/>
+      <c r="B760" s="5"/>
+      <c r="C760" s="31"/>
+      <c r="D760" s="31"/>
+      <c r="E760" s="31"/>
+      <c r="F760" s="31"/>
+    </row>
+    <row r="761" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A761" s="30"/>
+      <c r="B761" s="5"/>
+      <c r="C761" s="31"/>
+      <c r="D761" s="31"/>
+      <c r="E761" s="31"/>
+      <c r="F761" s="31"/>
+    </row>
+    <row r="762" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A762" s="30"/>
+      <c r="B762" s="5"/>
+      <c r="C762" s="31"/>
+      <c r="D762" s="31"/>
+      <c r="E762" s="31"/>
+      <c r="F762" s="31"/>
+    </row>
+    <row r="763" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A763" s="30"/>
+      <c r="B763" s="5"/>
+      <c r="C763" s="31"/>
+      <c r="D763" s="31"/>
+      <c r="E763" s="31"/>
+      <c r="F763" s="31"/>
+    </row>
+    <row r="764" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A764" s="30"/>
+      <c r="B764" s="5"/>
+      <c r="C764" s="31"/>
+      <c r="D764" s="31"/>
+      <c r="E764" s="31"/>
+      <c r="F764" s="31"/>
+    </row>
+    <row r="765" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A765" s="30"/>
+      <c r="B765" s="5"/>
+      <c r="C765" s="31"/>
+      <c r="D765" s="31"/>
+      <c r="E765" s="31"/>
+      <c r="F765" s="31"/>
+    </row>
+    <row r="766" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A766" s="30"/>
+      <c r="B766" s="5"/>
+      <c r="C766" s="31"/>
+      <c r="D766" s="31"/>
+      <c r="E766" s="31"/>
+      <c r="F766" s="31"/>
+    </row>
+    <row r="767" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A767" s="30"/>
+      <c r="B767" s="5"/>
+      <c r="C767" s="31"/>
+      <c r="D767" s="31"/>
+      <c r="E767" s="31"/>
+      <c r="F767" s="31"/>
+    </row>
+    <row r="768" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A768" s="30"/>
+      <c r="B768" s="5"/>
+      <c r="C768" s="31"/>
+      <c r="D768" s="31"/>
+      <c r="E768" s="31"/>
+      <c r="F768" s="31"/>
+    </row>
+    <row r="769" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A769" s="30"/>
+      <c r="B769" s="5"/>
+      <c r="C769" s="31"/>
+      <c r="D769" s="31"/>
+      <c r="E769" s="31"/>
+      <c r="F769" s="31"/>
+    </row>
+    <row r="770" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A770" s="30"/>
+      <c r="B770" s="5"/>
+      <c r="C770" s="31"/>
+      <c r="D770" s="31"/>
+      <c r="E770" s="31"/>
+      <c r="F770" s="31"/>
+    </row>
+    <row r="771" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A771" s="30"/>
+      <c r="B771" s="5"/>
+      <c r="C771" s="31"/>
+      <c r="D771" s="31"/>
+      <c r="E771" s="31"/>
+      <c r="F771" s="31"/>
+    </row>
+    <row r="772" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A772" s="30"/>
+      <c r="B772" s="5"/>
+      <c r="C772" s="31"/>
+      <c r="D772" s="31"/>
+      <c r="E772" s="31"/>
+      <c r="F772" s="31"/>
+    </row>
+    <row r="773" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A773" s="30"/>
+      <c r="B773" s="5"/>
+      <c r="C773" s="31"/>
+      <c r="D773" s="31"/>
+      <c r="E773" s="31"/>
+      <c r="F773" s="31"/>
+    </row>
+    <row r="774" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A774" s="30"/>
+      <c r="B774" s="5"/>
+      <c r="C774" s="31"/>
+      <c r="D774" s="31"/>
+      <c r="E774" s="31"/>
+      <c r="F774" s="31"/>
+    </row>
+    <row r="775" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A775" s="30"/>
+      <c r="B775" s="5"/>
+      <c r="C775" s="31"/>
+      <c r="D775" s="31"/>
+      <c r="E775" s="31"/>
+      <c r="F775" s="31"/>
+    </row>
+    <row r="776" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A776" s="30"/>
+      <c r="B776" s="5"/>
+      <c r="C776" s="31"/>
+      <c r="D776" s="31"/>
+      <c r="E776" s="31"/>
+      <c r="F776" s="31"/>
+    </row>
+    <row r="777" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A777" s="30"/>
+      <c r="B777" s="5"/>
+      <c r="C777" s="31"/>
+      <c r="D777" s="31"/>
+      <c r="E777" s="31"/>
+      <c r="F777" s="31"/>
+    </row>
+    <row r="778" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A778" s="30"/>
+      <c r="B778" s="5"/>
+      <c r="C778" s="31"/>
+      <c r="D778" s="31"/>
+      <c r="E778" s="31"/>
+      <c r="F778" s="31"/>
+    </row>
+    <row r="779" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A779" s="30"/>
+      <c r="B779" s="5"/>
+      <c r="C779" s="31"/>
+      <c r="D779" s="31"/>
+      <c r="E779" s="31"/>
+      <c r="F779" s="31"/>
+    </row>
+    <row r="780" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A780" s="30"/>
+      <c r="B780" s="5"/>
+      <c r="C780" s="31"/>
+      <c r="D780" s="31"/>
+      <c r="E780" s="31"/>
+      <c r="F780" s="31"/>
+    </row>
+    <row r="781" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A781" s="30"/>
+      <c r="B781" s="5"/>
+      <c r="C781" s="31"/>
+      <c r="D781" s="31"/>
+      <c r="E781" s="31"/>
+      <c r="F781" s="31"/>
+    </row>
+    <row r="782" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A782" s="30"/>
+      <c r="B782" s="5"/>
+      <c r="C782" s="31"/>
+      <c r="D782" s="31"/>
+      <c r="E782" s="31"/>
+      <c r="F782" s="31"/>
+    </row>
+    <row r="783" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A783" s="30"/>
+      <c r="B783" s="5"/>
+      <c r="C783" s="31"/>
+      <c r="D783" s="31"/>
+      <c r="E783" s="31"/>
+      <c r="F783" s="31"/>
+    </row>
+    <row r="784" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A784" s="30"/>
+      <c r="B784" s="5"/>
+      <c r="C784" s="31"/>
+      <c r="D784" s="31"/>
+      <c r="E784" s="31"/>
+      <c r="F784" s="31"/>
+    </row>
+    <row r="785" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A785" s="30"/>
+      <c r="B785" s="5"/>
+      <c r="C785" s="31"/>
+      <c r="D785" s="31"/>
+      <c r="E785" s="31"/>
+      <c r="F785" s="31"/>
+    </row>
+    <row r="786" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A786" s="30"/>
+      <c r="B786" s="5"/>
+      <c r="C786" s="31"/>
+      <c r="D786" s="31"/>
+      <c r="E786" s="31"/>
+      <c r="F786" s="31"/>
+    </row>
+    <row r="787" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A787" s="30"/>
+      <c r="B787" s="5"/>
+      <c r="C787" s="31"/>
+      <c r="D787" s="31"/>
+      <c r="E787" s="31"/>
+      <c r="F787" s="31"/>
+    </row>
+    <row r="788" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A788" s="30"/>
+      <c r="B788" s="5"/>
+      <c r="C788" s="31"/>
+      <c r="D788" s="31"/>
+      <c r="E788" s="31"/>
+      <c r="F788" s="31"/>
+    </row>
+    <row r="789" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A789" s="30"/>
+      <c r="B789" s="5"/>
+      <c r="C789" s="31"/>
+      <c r="D789" s="31"/>
+      <c r="E789" s="31"/>
+      <c r="F789" s="31"/>
+    </row>
+    <row r="790" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A790" s="30"/>
+      <c r="B790" s="5"/>
+      <c r="C790" s="31"/>
+      <c r="D790" s="31"/>
+      <c r="E790" s="31"/>
+      <c r="F790" s="31"/>
+    </row>
+    <row r="791" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A791" s="30"/>
+      <c r="B791" s="5"/>
+      <c r="C791" s="31"/>
+      <c r="D791" s="31"/>
+      <c r="E791" s="31"/>
+      <c r="F791" s="31"/>
+    </row>
+    <row r="792" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A792" s="30"/>
+      <c r="B792" s="5"/>
+      <c r="C792" s="31"/>
+      <c r="D792" s="31"/>
+      <c r="E792" s="31"/>
+      <c r="F792" s="31"/>
+    </row>
+    <row r="793" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A793" s="30"/>
+      <c r="B793" s="5"/>
+      <c r="C793" s="31"/>
+      <c r="D793" s="31"/>
+      <c r="E793" s="31"/>
+      <c r="F793" s="31"/>
+    </row>
+    <row r="794" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A794" s="30"/>
+      <c r="B794" s="5"/>
+      <c r="C794" s="31"/>
+      <c r="D794" s="31"/>
+      <c r="E794" s="31"/>
+      <c r="F794" s="31"/>
+    </row>
+    <row r="795" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A795" s="30"/>
+      <c r="B795" s="5"/>
+      <c r="C795" s="31"/>
+      <c r="D795" s="31"/>
+      <c r="E795" s="31"/>
+      <c r="F795" s="31"/>
+    </row>
+    <row r="796" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A796" s="30"/>
+      <c r="B796" s="5"/>
+      <c r="C796" s="31"/>
+      <c r="D796" s="31"/>
+      <c r="E796" s="31"/>
+      <c r="F796" s="31"/>
+    </row>
+    <row r="797" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A797" s="30"/>
+      <c r="B797" s="5"/>
+      <c r="C797" s="31"/>
+      <c r="D797" s="31"/>
+      <c r="E797" s="31"/>
+      <c r="F797" s="31"/>
+    </row>
+    <row r="798" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A798" s="30"/>
+      <c r="B798" s="5"/>
+      <c r="C798" s="31"/>
+      <c r="D798" s="31"/>
+      <c r="E798" s="31"/>
+      <c r="F798" s="31"/>
+    </row>
+    <row r="799" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A799" s="30"/>
+      <c r="B799" s="5"/>
+      <c r="C799" s="31"/>
+      <c r="D799" s="31"/>
+      <c r="E799" s="31"/>
+      <c r="F799" s="31"/>
+    </row>
+    <row r="800" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A800" s="30"/>
+      <c r="B800" s="5"/>
+      <c r="C800" s="31"/>
+      <c r="D800" s="31"/>
+      <c r="E800" s="31"/>
+      <c r="F800" s="31"/>
+    </row>
+    <row r="801" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A801" s="30"/>
+      <c r="B801" s="5"/>
+      <c r="C801" s="31"/>
+      <c r="D801" s="31"/>
+      <c r="E801" s="31"/>
+      <c r="F801" s="31"/>
+    </row>
+    <row r="802" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A802" s="30"/>
+      <c r="B802" s="5"/>
+      <c r="C802" s="31"/>
+      <c r="D802" s="31"/>
+      <c r="E802" s="31"/>
+      <c r="F802" s="31"/>
+    </row>
+    <row r="803" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A803" s="30"/>
+      <c r="B803" s="5"/>
+      <c r="C803" s="31"/>
+      <c r="D803" s="31"/>
+      <c r="E803" s="31"/>
+      <c r="F803" s="31"/>
+    </row>
+    <row r="804" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A804" s="30"/>
+      <c r="B804" s="5"/>
+      <c r="C804" s="31"/>
+      <c r="D804" s="31"/>
+      <c r="E804" s="31"/>
+      <c r="F804" s="31"/>
+    </row>
+    <row r="805" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A805" s="30"/>
+      <c r="B805" s="5"/>
+      <c r="C805" s="31"/>
+      <c r="D805" s="31"/>
+      <c r="E805" s="31"/>
+      <c r="F805" s="31"/>
+    </row>
+    <row r="806" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A806" s="30"/>
+      <c r="B806" s="5"/>
+      <c r="C806" s="31"/>
+      <c r="D806" s="31"/>
+      <c r="E806" s="31"/>
+      <c r="F806" s="31"/>
+    </row>
+    <row r="807" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A807" s="30"/>
+      <c r="B807" s="5"/>
+      <c r="C807" s="31"/>
+      <c r="D807" s="31"/>
+      <c r="E807" s="31"/>
+      <c r="F807" s="31"/>
+    </row>
+    <row r="808" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A808" s="30"/>
+      <c r="B808" s="5"/>
+      <c r="C808" s="31"/>
+      <c r="D808" s="31"/>
+      <c r="E808" s="31"/>
+      <c r="F808" s="31"/>
+    </row>
+    <row r="809" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A809" s="30"/>
+      <c r="B809" s="5"/>
+      <c r="C809" s="31"/>
+      <c r="D809" s="31"/>
+      <c r="E809" s="31"/>
+      <c r="F809" s="31"/>
+    </row>
+    <row r="810" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A810" s="30"/>
+      <c r="B810" s="5"/>
+      <c r="C810" s="31"/>
+      <c r="D810" s="31"/>
+      <c r="E810" s="31"/>
+      <c r="F810" s="31"/>
+    </row>
+    <row r="811" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A811" s="30"/>
+      <c r="B811" s="5"/>
+      <c r="C811" s="31"/>
+      <c r="D811" s="31"/>
+      <c r="E811" s="31"/>
+      <c r="F811" s="31"/>
+    </row>
+    <row r="812" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A812" s="30"/>
+      <c r="B812" s="5"/>
+      <c r="C812" s="31"/>
+      <c r="D812" s="31"/>
+      <c r="E812" s="31"/>
+      <c r="F812" s="31"/>
+    </row>
+    <row r="813" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A813" s="30"/>
+      <c r="B813" s="5"/>
+      <c r="C813" s="31"/>
+      <c r="D813" s="31"/>
+      <c r="E813" s="31"/>
+      <c r="F813" s="31"/>
+    </row>
+    <row r="814" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A814" s="30"/>
+      <c r="B814" s="5"/>
+      <c r="C814" s="31"/>
+      <c r="D814" s="31"/>
+      <c r="E814" s="31"/>
+      <c r="F814" s="31"/>
+    </row>
+    <row r="815" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A815" s="30"/>
+      <c r="B815" s="5"/>
+      <c r="C815" s="31"/>
+      <c r="D815" s="31"/>
+      <c r="E815" s="31"/>
+      <c r="F815" s="31"/>
+    </row>
+    <row r="816" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A816" s="30"/>
+      <c r="B816" s="5"/>
+      <c r="C816" s="31"/>
+      <c r="D816" s="31"/>
+      <c r="E816" s="31"/>
+      <c r="F816" s="31"/>
+    </row>
+    <row r="817" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A817" s="30"/>
+      <c r="B817" s="5"/>
+      <c r="C817" s="31"/>
+      <c r="D817" s="31"/>
+      <c r="E817" s="31"/>
+      <c r="F817" s="31"/>
+    </row>
+    <row r="818" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A818" s="30"/>
+      <c r="B818" s="5"/>
+      <c r="C818" s="31"/>
+      <c r="D818" s="31"/>
+      <c r="E818" s="31"/>
+      <c r="F818" s="31"/>
+    </row>
+    <row r="819" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A819" s="30"/>
+      <c r="B819" s="5"/>
+      <c r="C819" s="31"/>
+      <c r="D819" s="31"/>
+      <c r="E819" s="31"/>
+      <c r="F819" s="31"/>
+    </row>
+    <row r="820" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A820" s="30"/>
+      <c r="B820" s="5"/>
+      <c r="C820" s="31"/>
+      <c r="D820" s="31"/>
+      <c r="E820" s="31"/>
+      <c r="F820" s="31"/>
+    </row>
+    <row r="821" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A821" s="30"/>
+      <c r="B821" s="5"/>
+      <c r="C821" s="31"/>
+      <c r="D821" s="31"/>
+      <c r="E821" s="31"/>
+      <c r="F821" s="31"/>
+    </row>
+    <row r="822" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A822" s="30"/>
+      <c r="B822" s="5"/>
+      <c r="C822" s="31"/>
+      <c r="D822" s="31"/>
+      <c r="E822" s="31"/>
+      <c r="F822" s="31"/>
+    </row>
+    <row r="823" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A823" s="30"/>
+      <c r="B823" s="5"/>
+      <c r="C823" s="31"/>
+      <c r="D823" s="31"/>
+      <c r="E823" s="31"/>
+      <c r="F823" s="31"/>
+    </row>
+    <row r="824" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A824" s="30"/>
+      <c r="B824" s="5"/>
+      <c r="C824" s="31"/>
+      <c r="D824" s="31"/>
+      <c r="E824" s="31"/>
+      <c r="F824" s="31"/>
+    </row>
+    <row r="825" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A825" s="30"/>
+      <c r="B825" s="5"/>
+      <c r="C825" s="31"/>
+      <c r="D825" s="31"/>
+      <c r="E825" s="31"/>
+      <c r="F825" s="31"/>
+    </row>
+    <row r="826" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A826" s="30"/>
+      <c r="B826" s="5"/>
+      <c r="C826" s="31"/>
+      <c r="D826" s="31"/>
+      <c r="E826" s="31"/>
+      <c r="F826" s="31"/>
+    </row>
+    <row r="827" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A827" s="30"/>
+      <c r="B827" s="5"/>
+      <c r="C827" s="31"/>
+      <c r="D827" s="31"/>
+      <c r="E827" s="31"/>
+      <c r="F827" s="31"/>
+    </row>
+    <row r="828" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A828" s="30"/>
+      <c r="B828" s="5"/>
+      <c r="C828" s="31"/>
+      <c r="D828" s="31"/>
+      <c r="E828" s="31"/>
+      <c r="F828" s="31"/>
+    </row>
+    <row r="829" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A829" s="30"/>
+      <c r="B829" s="5"/>
+      <c r="C829" s="31"/>
+      <c r="D829" s="31"/>
+      <c r="E829" s="31"/>
+      <c r="F829" s="31"/>
+    </row>
+    <row r="830" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A830" s="30"/>
+      <c r="B830" s="5"/>
+      <c r="C830" s="31"/>
+      <c r="D830" s="31"/>
+      <c r="E830" s="31"/>
+      <c r="F830" s="31"/>
+    </row>
+    <row r="831" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A831" s="30"/>
+      <c r="B831" s="5"/>
+      <c r="C831" s="31"/>
+      <c r="D831" s="31"/>
+      <c r="E831" s="31"/>
+      <c r="F831" s="31"/>
+    </row>
+    <row r="832" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A832" s="30"/>
+      <c r="B832" s="5"/>
+      <c r="C832" s="31"/>
+      <c r="D832" s="31"/>
+      <c r="E832" s="31"/>
+      <c r="F832" s="31"/>
+    </row>
+    <row r="833" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A833" s="30"/>
+      <c r="B833" s="5"/>
+      <c r="C833" s="31"/>
+      <c r="D833" s="31"/>
+      <c r="E833" s="31"/>
+      <c r="F833" s="31"/>
+    </row>
+    <row r="834" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A834" s="30"/>
+      <c r="B834" s="5"/>
+      <c r="C834" s="31"/>
+      <c r="D834" s="31"/>
+      <c r="E834" s="31"/>
+      <c r="F834" s="31"/>
+    </row>
+    <row r="835" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A835" s="30"/>
+      <c r="B835" s="5"/>
+      <c r="C835" s="31"/>
+      <c r="D835" s="31"/>
+      <c r="E835" s="31"/>
+      <c r="F835" s="31"/>
+    </row>
+    <row r="836" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A836" s="30"/>
+      <c r="B836" s="5"/>
+      <c r="C836" s="31"/>
+      <c r="D836" s="31"/>
+      <c r="E836" s="31"/>
+      <c r="F836" s="31"/>
+    </row>
+    <row r="837" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A837" s="30"/>
+      <c r="B837" s="5"/>
+      <c r="C837" s="31"/>
+      <c r="D837" s="31"/>
+      <c r="E837" s="31"/>
+      <c r="F837" s="31"/>
+    </row>
+    <row r="838" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A838" s="30"/>
+      <c r="B838" s="5"/>
+      <c r="C838" s="31"/>
+      <c r="D838" s="31"/>
+      <c r="E838" s="31"/>
+      <c r="F838" s="31"/>
+    </row>
+    <row r="839" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A839" s="30"/>
+      <c r="B839" s="5"/>
+      <c r="C839" s="31"/>
+      <c r="D839" s="31"/>
+      <c r="E839" s="31"/>
+      <c r="F839" s="31"/>
+    </row>
+    <row r="840" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A840" s="30"/>
+      <c r="B840" s="5"/>
+      <c r="C840" s="31"/>
+      <c r="D840" s="31"/>
+      <c r="E840" s="31"/>
+      <c r="F840" s="31"/>
+    </row>
+    <row r="841" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A841" s="30"/>
+      <c r="B841" s="5"/>
+      <c r="C841" s="31"/>
+      <c r="D841" s="31"/>
+      <c r="E841" s="31"/>
+      <c r="F841" s="31"/>
+    </row>
+    <row r="842" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A842" s="30"/>
+      <c r="B842" s="5"/>
+      <c r="C842" s="31"/>
+      <c r="D842" s="31"/>
+      <c r="E842" s="31"/>
+      <c r="F842" s="31"/>
+    </row>
+    <row r="843" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A843" s="30"/>
+      <c r="B843" s="5"/>
+      <c r="C843" s="31"/>
+      <c r="D843" s="31"/>
+      <c r="E843" s="31"/>
+      <c r="F843" s="31"/>
+    </row>
+    <row r="844" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A844" s="30"/>
+      <c r="B844" s="5"/>
+      <c r="C844" s="31"/>
+      <c r="D844" s="31"/>
+      <c r="E844" s="31"/>
+      <c r="F844" s="31"/>
+    </row>
+    <row r="845" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A845" s="30"/>
+      <c r="B845" s="5"/>
+      <c r="C845" s="31"/>
+      <c r="D845" s="31"/>
+      <c r="E845" s="31"/>
+      <c r="F845" s="31"/>
+    </row>
+    <row r="846" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A846" s="30"/>
+      <c r="B846" s="5"/>
+      <c r="C846" s="31"/>
+      <c r="D846" s="31"/>
+      <c r="E846" s="31"/>
+      <c r="F846" s="31"/>
+    </row>
+    <row r="847" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A847" s="30"/>
+      <c r="B847" s="5"/>
+      <c r="C847" s="31"/>
+      <c r="D847" s="31"/>
+      <c r="E847" s="31"/>
+      <c r="F847" s="31"/>
+    </row>
+    <row r="848" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A848" s="30"/>
+      <c r="B848" s="5"/>
+      <c r="C848" s="31"/>
+      <c r="D848" s="31"/>
+      <c r="E848" s="31"/>
+      <c r="F848" s="31"/>
+    </row>
+    <row r="849" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A849" s="30"/>
+      <c r="B849" s="5"/>
+      <c r="C849" s="31"/>
+      <c r="D849" s="31"/>
+      <c r="E849" s="31"/>
+      <c r="F849" s="31"/>
+    </row>
+    <row r="850" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A850" s="30"/>
+      <c r="B850" s="5"/>
+      <c r="C850" s="31"/>
+      <c r="D850" s="31"/>
+      <c r="E850" s="31"/>
+      <c r="F850" s="31"/>
+    </row>
+    <row r="851" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A851" s="30"/>
+      <c r="B851" s="5"/>
+      <c r="C851" s="31"/>
+      <c r="D851" s="31"/>
+      <c r="E851" s="31"/>
+      <c r="F851" s="31"/>
+    </row>
+    <row r="852" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A852" s="30"/>
+      <c r="B852" s="5"/>
+      <c r="C852" s="31"/>
+      <c r="D852" s="31"/>
+      <c r="E852" s="31"/>
+      <c r="F852" s="31"/>
+    </row>
+    <row r="853" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A853" s="30"/>
+      <c r="B853" s="5"/>
+      <c r="C853" s="31"/>
+      <c r="D853" s="31"/>
+      <c r="E853" s="31"/>
+      <c r="F853" s="31"/>
+    </row>
+    <row r="854" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A854" s="30"/>
+      <c r="B854" s="5"/>
+      <c r="C854" s="31"/>
+      <c r="D854" s="31"/>
+      <c r="E854" s="31"/>
+      <c r="F854" s="31"/>
+    </row>
+    <row r="855" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A855" s="30"/>
+      <c r="B855" s="5"/>
+      <c r="C855" s="31"/>
+      <c r="D855" s="31"/>
+      <c r="E855" s="31"/>
+      <c r="F855" s="31"/>
+    </row>
+    <row r="856" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A856" s="30"/>
+      <c r="B856" s="5"/>
+      <c r="C856" s="31"/>
+      <c r="D856" s="31"/>
+      <c r="E856" s="31"/>
+      <c r="F856" s="31"/>
+    </row>
+    <row r="857" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A857" s="30"/>
+      <c r="B857" s="5"/>
+      <c r="C857" s="31"/>
+      <c r="D857" s="31"/>
+      <c r="E857" s="31"/>
+      <c r="F857" s="31"/>
+    </row>
+    <row r="858" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A858" s="30"/>
+      <c r="B858" s="5"/>
+      <c r="C858" s="31"/>
+      <c r="D858" s="31"/>
+      <c r="E858" s="31"/>
+      <c r="F858" s="31"/>
+    </row>
+    <row r="859" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A859" s="30"/>
+      <c r="B859" s="5"/>
+      <c r="C859" s="31"/>
+      <c r="D859" s="31"/>
+      <c r="E859" s="31"/>
+      <c r="F859" s="31"/>
+    </row>
+    <row r="860" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A860" s="30"/>
+      <c r="B860" s="5"/>
+      <c r="C860" s="31"/>
+      <c r="D860" s="31"/>
+      <c r="E860" s="31"/>
+      <c r="F860" s="31"/>
+    </row>
+    <row r="861" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A861" s="30"/>
+      <c r="B861" s="5"/>
+      <c r="C861" s="31"/>
+      <c r="D861" s="31"/>
+      <c r="E861" s="31"/>
+      <c r="F861" s="31"/>
+    </row>
+    <row r="862" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A862" s="30"/>
+      <c r="B862" s="5"/>
+      <c r="C862" s="31"/>
+      <c r="D862" s="31"/>
+      <c r="E862" s="31"/>
+      <c r="F862" s="31"/>
+    </row>
+    <row r="863" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A863" s="30"/>
+      <c r="B863" s="5"/>
+      <c r="C863" s="31"/>
+      <c r="D863" s="31"/>
+      <c r="E863" s="31"/>
+      <c r="F863" s="31"/>
+    </row>
+    <row r="864" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A864" s="30"/>
+      <c r="B864" s="5"/>
+      <c r="C864" s="31"/>
+      <c r="D864" s="31"/>
+      <c r="E864" s="31"/>
+      <c r="F864" s="31"/>
+    </row>
+    <row r="865" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A865" s="30"/>
+      <c r="B865" s="5"/>
+      <c r="C865" s="31"/>
+      <c r="D865" s="31"/>
+      <c r="E865" s="31"/>
+      <c r="F865" s="31"/>
+    </row>
+    <row r="866" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A866" s="30"/>
+      <c r="B866" s="5"/>
+      <c r="C866" s="31"/>
+      <c r="D866" s="31"/>
+      <c r="E866" s="31"/>
+      <c r="F866" s="31"/>
+    </row>
+    <row r="867" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A867" s="30"/>
+      <c r="B867" s="5"/>
+      <c r="C867" s="31"/>
+      <c r="D867" s="31"/>
+      <c r="E867" s="31"/>
+      <c r="F867" s="31"/>
+    </row>
+    <row r="868" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A868" s="30"/>
+      <c r="B868" s="5"/>
+      <c r="C868" s="31"/>
+      <c r="D868" s="31"/>
+      <c r="E868" s="31"/>
+      <c r="F868" s="31"/>
+    </row>
+    <row r="869" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A869" s="30"/>
+      <c r="B869" s="5"/>
+      <c r="C869" s="31"/>
+      <c r="D869" s="31"/>
+      <c r="E869" s="31"/>
+      <c r="F869" s="31"/>
+    </row>
+    <row r="870" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A870" s="30"/>
+      <c r="B870" s="5"/>
+      <c r="C870" s="31"/>
+      <c r="D870" s="31"/>
+      <c r="E870" s="31"/>
+      <c r="F870" s="31"/>
+    </row>
+    <row r="871" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A871" s="30"/>
+      <c r="B871" s="5"/>
+      <c r="C871" s="31"/>
+      <c r="D871" s="31"/>
+      <c r="E871" s="31"/>
+      <c r="F871" s="31"/>
+    </row>
+    <row r="872" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A872" s="30"/>
+      <c r="B872" s="5"/>
+      <c r="C872" s="31"/>
+      <c r="D872" s="31"/>
+      <c r="E872" s="31"/>
+      <c r="F872" s="31"/>
+    </row>
+    <row r="873" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A873" s="30"/>
+      <c r="B873" s="5"/>
+      <c r="C873" s="31"/>
+      <c r="D873" s="31"/>
+      <c r="E873" s="31"/>
+      <c r="F873" s="31"/>
+    </row>
+    <row r="874" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A874" s="30"/>
+      <c r="B874" s="5"/>
+      <c r="C874" s="31"/>
+      <c r="D874" s="31"/>
+      <c r="E874" s="31"/>
+      <c r="F874" s="31"/>
+    </row>
+    <row r="875" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A875" s="30"/>
+      <c r="B875" s="5"/>
+      <c r="C875" s="31"/>
+      <c r="D875" s="31"/>
+      <c r="E875" s="31"/>
+      <c r="F875" s="31"/>
+    </row>
+    <row r="876" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A876" s="30"/>
+      <c r="B876" s="5"/>
+      <c r="C876" s="31"/>
+      <c r="D876" s="31"/>
+      <c r="E876" s="31"/>
+      <c r="F876" s="31"/>
+    </row>
+    <row r="877" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A877" s="30"/>
+      <c r="B877" s="5"/>
+      <c r="C877" s="31"/>
+      <c r="D877" s="31"/>
+      <c r="E877" s="31"/>
+      <c r="F877" s="31"/>
+    </row>
+    <row r="878" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A878" s="30"/>
+      <c r="B878" s="5"/>
+      <c r="C878" s="31"/>
+      <c r="D878" s="31"/>
+      <c r="E878" s="31"/>
+      <c r="F878" s="31"/>
+    </row>
+    <row r="879" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A879" s="30"/>
+      <c r="B879" s="5"/>
+      <c r="C879" s="31"/>
+      <c r="D879" s="31"/>
+      <c r="E879" s="31"/>
+      <c r="F879" s="31"/>
+    </row>
+    <row r="880" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A880" s="30"/>
+      <c r="B880" s="5"/>
+      <c r="C880" s="31"/>
+      <c r="D880" s="31"/>
+      <c r="E880" s="31"/>
+      <c r="F880" s="31"/>
+    </row>
+    <row r="881" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A881" s="30"/>
+      <c r="B881" s="5"/>
+      <c r="C881" s="31"/>
+      <c r="D881" s="31"/>
+      <c r="E881" s="31"/>
+      <c r="F881" s="31"/>
+    </row>
+    <row r="882" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A882" s="30"/>
+      <c r="B882" s="5"/>
+      <c r="C882" s="31"/>
+      <c r="D882" s="31"/>
+      <c r="E882" s="31"/>
+      <c r="F882" s="31"/>
+    </row>
+    <row r="883" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A883" s="30"/>
+      <c r="B883" s="5"/>
+      <c r="C883" s="31"/>
+      <c r="D883" s="31"/>
+      <c r="E883" s="31"/>
+      <c r="F883" s="31"/>
+    </row>
+    <row r="884" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A884" s="30"/>
+      <c r="B884" s="5"/>
+      <c r="C884" s="31"/>
+      <c r="D884" s="31"/>
+      <c r="E884" s="31"/>
+      <c r="F884" s="31"/>
+    </row>
+    <row r="885" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A885" s="30"/>
+      <c r="B885" s="5"/>
+      <c r="C885" s="31"/>
+      <c r="D885" s="31"/>
+      <c r="E885" s="31"/>
+      <c r="F885" s="31"/>
+    </row>
+    <row r="886" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A886" s="30"/>
+      <c r="B886" s="5"/>
+      <c r="C886" s="31"/>
+      <c r="D886" s="31"/>
+      <c r="E886" s="31"/>
+      <c r="F886" s="31"/>
+    </row>
+    <row r="887" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A887" s="30"/>
+      <c r="B887" s="5"/>
+      <c r="C887" s="31"/>
+      <c r="D887" s="31"/>
+      <c r="E887" s="31"/>
+      <c r="F887" s="31"/>
+    </row>
+    <row r="888" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A888" s="30"/>
+      <c r="B888" s="5"/>
+      <c r="C888" s="31"/>
+      <c r="D888" s="31"/>
+      <c r="E888" s="31"/>
+      <c r="F888" s="31"/>
+    </row>
+    <row r="889" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A889" s="30"/>
+      <c r="B889" s="5"/>
+      <c r="C889" s="31"/>
+      <c r="D889" s="31"/>
+      <c r="E889" s="31"/>
+      <c r="F889" s="31"/>
+    </row>
+    <row r="890" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A890" s="30"/>
+      <c r="B890" s="5"/>
+      <c r="C890" s="31"/>
+      <c r="D890" s="31"/>
+      <c r="E890" s="31"/>
+      <c r="F890" s="31"/>
+    </row>
+    <row r="891" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A891" s="30"/>
+      <c r="B891" s="5"/>
+      <c r="C891" s="31"/>
+      <c r="D891" s="31"/>
+      <c r="E891" s="31"/>
+      <c r="F891" s="31"/>
+    </row>
+    <row r="892" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A892" s="30"/>
+      <c r="B892" s="5"/>
+      <c r="C892" s="31"/>
+      <c r="D892" s="31"/>
+      <c r="E892" s="31"/>
+      <c r="F892" s="31"/>
+    </row>
+    <row r="893" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A893" s="30"/>
+      <c r="B893" s="5"/>
+      <c r="C893" s="31"/>
+      <c r="D893" s="31"/>
+      <c r="E893" s="31"/>
+      <c r="F893" s="31"/>
+    </row>
+    <row r="894" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A894" s="30"/>
+      <c r="B894" s="5"/>
+      <c r="C894" s="31"/>
+      <c r="D894" s="31"/>
+      <c r="E894" s="31"/>
+      <c r="F894" s="31"/>
+    </row>
+    <row r="895" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A895" s="30"/>
+      <c r="B895" s="5"/>
+      <c r="C895" s="31"/>
+      <c r="D895" s="31"/>
+      <c r="E895" s="31"/>
+      <c r="F895" s="31"/>
+    </row>
+    <row r="896" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A896" s="30"/>
+      <c r="B896" s="5"/>
+      <c r="C896" s="31"/>
+      <c r="D896" s="31"/>
+      <c r="E896" s="31"/>
+      <c r="F896" s="31"/>
+    </row>
+    <row r="897" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A897" s="30"/>
+      <c r="B897" s="5"/>
+      <c r="C897" s="31"/>
+      <c r="D897" s="31"/>
+      <c r="E897" s="31"/>
+      <c r="F897" s="31"/>
+    </row>
+    <row r="898" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A898" s="30"/>
+      <c r="B898" s="5"/>
+      <c r="C898" s="31"/>
+      <c r="D898" s="31"/>
+      <c r="E898" s="31"/>
+      <c r="F898" s="31"/>
+    </row>
+    <row r="899" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A899" s="30"/>
+      <c r="B899" s="5"/>
+      <c r="C899" s="31"/>
+      <c r="D899" s="31"/>
+      <c r="E899" s="31"/>
+      <c r="F899" s="31"/>
+    </row>
+    <row r="900" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A900" s="30"/>
+      <c r="B900" s="5"/>
+      <c r="C900" s="31"/>
+      <c r="D900" s="31"/>
+      <c r="E900" s="31"/>
+      <c r="F900" s="31"/>
+    </row>
+    <row r="901" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A901" s="30"/>
+      <c r="B901" s="5"/>
+      <c r="C901" s="31"/>
+      <c r="D901" s="31"/>
+      <c r="E901" s="31"/>
+      <c r="F901" s="31"/>
+    </row>
+    <row r="902" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A902" s="30"/>
+      <c r="B902" s="5"/>
+      <c r="C902" s="31"/>
+      <c r="D902" s="31"/>
+      <c r="E902" s="31"/>
+      <c r="F902" s="31"/>
+    </row>
+    <row r="903" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A903" s="30"/>
+      <c r="B903" s="5"/>
+      <c r="C903" s="31"/>
+      <c r="D903" s="31"/>
+      <c r="E903" s="31"/>
+      <c r="F903" s="31"/>
+    </row>
+    <row r="904" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A904" s="30"/>
+      <c r="B904" s="5"/>
+      <c r="C904" s="31"/>
+      <c r="D904" s="31"/>
+      <c r="E904" s="31"/>
+      <c r="F904" s="31"/>
+    </row>
+    <row r="905" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A905" s="30"/>
+      <c r="B905" s="5"/>
+      <c r="C905" s="31"/>
+      <c r="D905" s="31"/>
+      <c r="E905" s="31"/>
+      <c r="F905" s="31"/>
+    </row>
+    <row r="906" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A906" s="30"/>
+      <c r="B906" s="5"/>
+      <c r="C906" s="31"/>
+      <c r="D906" s="31"/>
+      <c r="E906" s="31"/>
+      <c r="F906" s="31"/>
+    </row>
+    <row r="907" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A907" s="30"/>
+      <c r="B907" s="5"/>
+      <c r="C907" s="31"/>
+      <c r="D907" s="31"/>
+      <c r="E907" s="31"/>
+      <c r="F907" s="31"/>
+    </row>
+    <row r="908" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A908" s="30"/>
+      <c r="B908" s="5"/>
+      <c r="C908" s="31"/>
+      <c r="D908" s="31"/>
+      <c r="E908" s="31"/>
+      <c r="F908" s="31"/>
+    </row>
+    <row r="909" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A909" s="30"/>
+      <c r="B909" s="5"/>
+      <c r="C909" s="31"/>
+      <c r="D909" s="31"/>
+      <c r="E909" s="31"/>
+      <c r="F909" s="31"/>
+    </row>
+    <row r="910" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A910" s="30"/>
+      <c r="B910" s="5"/>
+      <c r="C910" s="31"/>
+      <c r="D910" s="31"/>
+      <c r="E910" s="31"/>
+      <c r="F910" s="31"/>
+    </row>
+    <row r="911" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A911" s="30"/>
+      <c r="B911" s="5"/>
+      <c r="C911" s="31"/>
+      <c r="D911" s="31"/>
+      <c r="E911" s="31"/>
+      <c r="F911" s="31"/>
+    </row>
+    <row r="912" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A912" s="30"/>
+      <c r="B912" s="5"/>
+      <c r="C912" s="31"/>
+      <c r="D912" s="31"/>
+      <c r="E912" s="31"/>
+      <c r="F912" s="31"/>
+    </row>
+    <row r="913" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A913" s="30"/>
+      <c r="B913" s="5"/>
+      <c r="C913" s="31"/>
+      <c r="D913" s="31"/>
+      <c r="E913" s="31"/>
+      <c r="F913" s="31"/>
+    </row>
+    <row r="914" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A914" s="30"/>
+      <c r="B914" s="5"/>
+      <c r="C914" s="31"/>
+      <c r="D914" s="31"/>
+      <c r="E914" s="31"/>
+      <c r="F914" s="31"/>
+    </row>
+    <row r="915" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A915" s="30"/>
+      <c r="B915" s="5"/>
+      <c r="C915" s="31"/>
+      <c r="D915" s="31"/>
+      <c r="E915" s="31"/>
+      <c r="F915" s="31"/>
+    </row>
+    <row r="916" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A916" s="30"/>
+      <c r="B916" s="5"/>
+      <c r="C916" s="31"/>
+      <c r="D916" s="31"/>
+      <c r="E916" s="31"/>
+      <c r="F916" s="31"/>
+    </row>
+    <row r="917" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A917" s="30"/>
+      <c r="B917" s="5"/>
+      <c r="C917" s="31"/>
+      <c r="D917" s="31"/>
+      <c r="E917" s="31"/>
+      <c r="F917" s="31"/>
+    </row>
+    <row r="918" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A918" s="30"/>
+      <c r="B918" s="5"/>
+      <c r="C918" s="31"/>
+      <c r="D918" s="31"/>
+      <c r="E918" s="31"/>
+      <c r="F918" s="31"/>
+    </row>
+    <row r="919" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A919" s="30"/>
+      <c r="B919" s="5"/>
+      <c r="C919" s="31"/>
+      <c r="D919" s="31"/>
+      <c r="E919" s="31"/>
+      <c r="F919" s="31"/>
+    </row>
+    <row r="920" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A920" s="30"/>
+      <c r="B920" s="5"/>
+      <c r="C920" s="31"/>
+      <c r="D920" s="31"/>
+      <c r="E920" s="31"/>
+      <c r="F920" s="31"/>
+    </row>
+    <row r="921" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A921" s="30"/>
+      <c r="B921" s="5"/>
+      <c r="C921" s="31"/>
+      <c r="D921" s="31"/>
+      <c r="E921" s="31"/>
+      <c r="F921" s="31"/>
+    </row>
+    <row r="922" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A922" s="30"/>
+      <c r="B922" s="5"/>
+      <c r="C922" s="31"/>
+      <c r="D922" s="31"/>
+      <c r="E922" s="31"/>
+      <c r="F922" s="31"/>
+    </row>
+    <row r="923" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A923" s="30"/>
+      <c r="B923" s="5"/>
+      <c r="C923" s="31"/>
+      <c r="D923" s="31"/>
+      <c r="E923" s="31"/>
+      <c r="F923" s="31"/>
+    </row>
+    <row r="924" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A924" s="30"/>
+      <c r="B924" s="5"/>
+      <c r="C924" s="31"/>
+      <c r="D924" s="31"/>
+      <c r="E924" s="31"/>
+      <c r="F924" s="31"/>
+    </row>
+    <row r="925" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A925" s="30"/>
+      <c r="B925" s="5"/>
+      <c r="C925" s="31"/>
+      <c r="D925" s="31"/>
+      <c r="E925" s="31"/>
+      <c r="F925" s="31"/>
+    </row>
+    <row r="926" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A926" s="30"/>
+      <c r="B926" s="5"/>
+      <c r="C926" s="31"/>
+      <c r="D926" s="31"/>
+      <c r="E926" s="31"/>
+      <c r="F926" s="31"/>
+    </row>
+    <row r="927" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A927" s="30"/>
+      <c r="B927" s="5"/>
+      <c r="C927" s="31"/>
+      <c r="D927" s="31"/>
+      <c r="E927" s="31"/>
+      <c r="F927" s="31"/>
+    </row>
+    <row r="928" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A928" s="30"/>
+      <c r="B928" s="5"/>
+      <c r="C928" s="31"/>
+      <c r="D928" s="31"/>
+      <c r="E928" s="31"/>
+      <c r="F928" s="31"/>
+    </row>
+    <row r="929" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A929" s="30"/>
+      <c r="B929" s="5"/>
+      <c r="C929" s="31"/>
+      <c r="D929" s="31"/>
+      <c r="E929" s="31"/>
+      <c r="F929" s="31"/>
+    </row>
+    <row r="930" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A930" s="30"/>
+      <c r="B930" s="5"/>
+      <c r="C930" s="31"/>
+      <c r="D930" s="31"/>
+      <c r="E930" s="31"/>
+      <c r="F930" s="31"/>
+    </row>
+    <row r="931" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A931" s="30"/>
+      <c r="B931" s="5"/>
+      <c r="C931" s="31"/>
+      <c r="D931" s="31"/>
+      <c r="E931" s="31"/>
+      <c r="F931" s="31"/>
+    </row>
+    <row r="932" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A932" s="30"/>
+      <c r="B932" s="5"/>
+      <c r="C932" s="31"/>
+      <c r="D932" s="31"/>
+      <c r="E932" s="31"/>
+      <c r="F932" s="31"/>
+    </row>
+    <row r="933" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A933" s="30"/>
+      <c r="B933" s="5"/>
+      <c r="C933" s="31"/>
+      <c r="D933" s="31"/>
+      <c r="E933" s="31"/>
+      <c r="F933" s="31"/>
+    </row>
+    <row r="934" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A934" s="30"/>
+      <c r="B934" s="5"/>
+      <c r="C934" s="31"/>
+      <c r="D934" s="31"/>
+      <c r="E934" s="31"/>
+      <c r="F934" s="31"/>
+    </row>
+    <row r="935" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A935" s="30"/>
+      <c r="B935" s="5"/>
+      <c r="C935" s="31"/>
+      <c r="D935" s="31"/>
+      <c r="E935" s="31"/>
+      <c r="F935" s="31"/>
+    </row>
+    <row r="936" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A936" s="30"/>
+      <c r="B936" s="5"/>
+      <c r="C936" s="31"/>
+      <c r="D936" s="31"/>
+      <c r="E936" s="31"/>
+      <c r="F936" s="31"/>
+    </row>
+    <row r="937" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A937" s="30"/>
+      <c r="B937" s="5"/>
+      <c r="C937" s="31"/>
+      <c r="D937" s="31"/>
+      <c r="E937" s="31"/>
+      <c r="F937" s="31"/>
+    </row>
+    <row r="938" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A938" s="30"/>
+      <c r="B938" s="5"/>
+      <c r="C938" s="31"/>
+      <c r="D938" s="31"/>
+      <c r="E938" s="31"/>
+      <c r="F938" s="31"/>
+    </row>
+    <row r="939" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A939" s="30"/>
+      <c r="B939" s="5"/>
+      <c r="C939" s="31"/>
+      <c r="D939" s="31"/>
+      <c r="E939" s="31"/>
+      <c r="F939" s="31"/>
+    </row>
+    <row r="940" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A940" s="30"/>
+      <c r="B940" s="5"/>
+      <c r="C940" s="31"/>
+      <c r="D940" s="31"/>
+      <c r="E940" s="31"/>
+      <c r="F940" s="31"/>
+    </row>
+    <row r="941" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A941" s="30"/>
+      <c r="B941" s="5"/>
+      <c r="C941" s="31"/>
+      <c r="D941" s="31"/>
+      <c r="E941" s="31"/>
+      <c r="F941" s="31"/>
+    </row>
+    <row r="942" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A942" s="30"/>
+      <c r="B942" s="5"/>
+      <c r="C942" s="31"/>
+      <c r="D942" s="31"/>
+      <c r="E942" s="31"/>
+      <c r="F942" s="31"/>
+    </row>
+    <row r="943" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A943" s="30"/>
+      <c r="B943" s="5"/>
+      <c r="C943" s="31"/>
+      <c r="D943" s="31"/>
+      <c r="E943" s="31"/>
+      <c r="F943" s="31"/>
+    </row>
+    <row r="944" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A944" s="30"/>
+      <c r="B944" s="5"/>
+      <c r="C944" s="31"/>
+      <c r="D944" s="31"/>
+      <c r="E944" s="31"/>
+      <c r="F944" s="31"/>
+    </row>
+    <row r="945" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A945" s="30"/>
+      <c r="B945" s="5"/>
+      <c r="C945" s="31"/>
+      <c r="D945" s="31"/>
+      <c r="E945" s="31"/>
+      <c r="F945" s="31"/>
+    </row>
+    <row r="946" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A946" s="30"/>
+      <c r="B946" s="5"/>
+      <c r="C946" s="31"/>
+      <c r="D946" s="31"/>
+      <c r="E946" s="31"/>
+      <c r="F946" s="31"/>
+    </row>
+    <row r="947" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A947" s="30"/>
+      <c r="B947" s="5"/>
+      <c r="C947" s="31"/>
+      <c r="D947" s="31"/>
+      <c r="E947" s="31"/>
+      <c r="F947" s="31"/>
+    </row>
+    <row r="948" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A948" s="30"/>
+      <c r="B948" s="5"/>
+      <c r="C948" s="31"/>
+      <c r="D948" s="31"/>
+      <c r="E948" s="31"/>
+      <c r="F948" s="31"/>
+    </row>
+    <row r="949" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A949" s="30"/>
+      <c r="B949" s="5"/>
+      <c r="C949" s="31"/>
+      <c r="D949" s="31"/>
+      <c r="E949" s="31"/>
+      <c r="F949" s="31"/>
+    </row>
+    <row r="950" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A950" s="30"/>
+      <c r="B950" s="5"/>
+      <c r="C950" s="31"/>
+      <c r="D950" s="31"/>
+      <c r="E950" s="31"/>
+      <c r="F950" s="31"/>
+    </row>
+    <row r="951" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A951" s="30"/>
+      <c r="B951" s="5"/>
+      <c r="C951" s="31"/>
+      <c r="D951" s="31"/>
+      <c r="E951" s="31"/>
+      <c r="F951" s="31"/>
+    </row>
+    <row r="952" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A952" s="30"/>
+      <c r="B952" s="5"/>
+      <c r="C952" s="31"/>
+      <c r="D952" s="31"/>
+      <c r="E952" s="31"/>
+      <c r="F952" s="31"/>
+    </row>
+    <row r="953" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A953" s="30"/>
+      <c r="B953" s="5"/>
+      <c r="C953" s="31"/>
+      <c r="D953" s="31"/>
+      <c r="E953" s="31"/>
+      <c r="F953" s="31"/>
+    </row>
+    <row r="954" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A954" s="30"/>
+      <c r="B954" s="5"/>
+      <c r="C954" s="31"/>
+      <c r="D954" s="31"/>
+      <c r="E954" s="31"/>
+      <c r="F954" s="31"/>
+    </row>
+    <row r="955" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A955" s="30"/>
+      <c r="B955" s="5"/>
+      <c r="C955" s="31"/>
+      <c r="D955" s="31"/>
+      <c r="E955" s="31"/>
+      <c r="F955" s="31"/>
+    </row>
+    <row r="956" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A956" s="30"/>
+      <c r="B956" s="5"/>
+      <c r="C956" s="31"/>
+      <c r="D956" s="31"/>
+      <c r="E956" s="31"/>
+      <c r="F956" s="31"/>
+    </row>
+    <row r="957" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A957" s="30"/>
+      <c r="B957" s="5"/>
+      <c r="C957" s="31"/>
+      <c r="D957" s="31"/>
+      <c r="E957" s="31"/>
+      <c r="F957" s="31"/>
+    </row>
+    <row r="958" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A958" s="30"/>
+      <c r="B958" s="5"/>
+      <c r="C958" s="31"/>
+      <c r="D958" s="31"/>
+      <c r="E958" s="31"/>
+      <c r="F958" s="31"/>
+    </row>
+    <row r="959" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A959" s="30"/>
+      <c r="B959" s="5"/>
+      <c r="C959" s="31"/>
+      <c r="D959" s="31"/>
+      <c r="E959" s="31"/>
+      <c r="F959" s="31"/>
+    </row>
+    <row r="960" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A960" s="30"/>
+      <c r="B960" s="5"/>
+      <c r="C960" s="31"/>
+      <c r="D960" s="31"/>
+      <c r="E960" s="31"/>
+      <c r="F960" s="31"/>
+    </row>
+    <row r="961" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A961" s="30"/>
+      <c r="B961" s="5"/>
+      <c r="C961" s="31"/>
+      <c r="D961" s="31"/>
+      <c r="E961" s="31"/>
+      <c r="F961" s="31"/>
+    </row>
+    <row r="962" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A962" s="30"/>
+      <c r="B962" s="5"/>
+      <c r="C962" s="31"/>
+      <c r="D962" s="31"/>
+      <c r="E962" s="31"/>
+      <c r="F962" s="31"/>
+    </row>
+    <row r="963" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A963" s="30"/>
+      <c r="B963" s="5"/>
+      <c r="C963" s="31"/>
+      <c r="D963" s="31"/>
+      <c r="E963" s="31"/>
+      <c r="F963" s="31"/>
+    </row>
+    <row r="964" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A964" s="30"/>
+      <c r="B964" s="5"/>
+      <c r="C964" s="31"/>
+      <c r="D964" s="31"/>
+      <c r="E964" s="31"/>
+      <c r="F964" s="31"/>
+    </row>
+    <row r="965" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A965" s="30"/>
+      <c r="B965" s="5"/>
+      <c r="C965" s="31"/>
+      <c r="D965" s="31"/>
+      <c r="E965" s="31"/>
+      <c r="F965" s="31"/>
+    </row>
+    <row r="966" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A966" s="30"/>
+      <c r="B966" s="5"/>
+      <c r="C966" s="31"/>
+      <c r="D966" s="31"/>
+      <c r="E966" s="31"/>
+      <c r="F966" s="31"/>
+    </row>
+    <row r="967" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A967" s="30"/>
+      <c r="B967" s="5"/>
+      <c r="C967" s="31"/>
+      <c r="D967" s="31"/>
+      <c r="E967" s="31"/>
+      <c r="F967" s="31"/>
+    </row>
+    <row r="968" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A968" s="30"/>
+      <c r="B968" s="5"/>
+      <c r="C968" s="31"/>
+      <c r="D968" s="31"/>
+      <c r="E968" s="31"/>
+      <c r="F968" s="31"/>
+    </row>
+    <row r="969" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A969" s="30"/>
+      <c r="B969" s="5"/>
+      <c r="C969" s="31"/>
+      <c r="D969" s="31"/>
+      <c r="E969" s="31"/>
+      <c r="F969" s="31"/>
+    </row>
+    <row r="970" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A970" s="30"/>
+      <c r="B970" s="5"/>
+      <c r="C970" s="31"/>
+      <c r="D970" s="31"/>
+      <c r="E970" s="31"/>
+      <c r="F970" s="31"/>
+    </row>
+    <row r="971" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A971" s="30"/>
+      <c r="B971" s="5"/>
+      <c r="C971" s="31"/>
+      <c r="D971" s="31"/>
+      <c r="E971" s="31"/>
+      <c r="F971" s="31"/>
+    </row>
+    <row r="972" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A972" s="30"/>
+      <c r="B972" s="5"/>
+      <c r="C972" s="31"/>
+      <c r="D972" s="31"/>
+      <c r="E972" s="31"/>
+      <c r="F972" s="31"/>
+    </row>
+    <row r="973" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A973" s="30"/>
+      <c r="B973" s="5"/>
+      <c r="C973" s="31"/>
+      <c r="D973" s="31"/>
+      <c r="E973" s="31"/>
+      <c r="F973" s="31"/>
+    </row>
+    <row r="974" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A974" s="30"/>
+      <c r="B974" s="5"/>
+      <c r="C974" s="31"/>
+      <c r="D974" s="31"/>
+      <c r="E974" s="31"/>
+      <c r="F974" s="31"/>
+    </row>
+    <row r="975" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A975" s="30"/>
+      <c r="B975" s="5"/>
+      <c r="C975" s="31"/>
+      <c r="D975" s="31"/>
+      <c r="E975" s="31"/>
+      <c r="F975" s="31"/>
+    </row>
+    <row r="976" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A976" s="30"/>
+      <c r="B976" s="5"/>
+      <c r="C976" s="31"/>
+      <c r="D976" s="31"/>
+      <c r="E976" s="31"/>
+      <c r="F976" s="31"/>
+    </row>
+    <row r="977" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A977" s="30"/>
+      <c r="B977" s="5"/>
+      <c r="C977" s="31"/>
+      <c r="D977" s="31"/>
+      <c r="E977" s="31"/>
+      <c r="F977" s="31"/>
+    </row>
+    <row r="978" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A978" s="30"/>
+      <c r="B978" s="5"/>
+      <c r="C978" s="31"/>
+      <c r="D978" s="31"/>
+      <c r="E978" s="31"/>
+      <c r="F978" s="31"/>
+    </row>
+    <row r="979" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A979" s="30"/>
+      <c r="B979" s="5"/>
+      <c r="C979" s="31"/>
+      <c r="D979" s="31"/>
+      <c r="E979" s="31"/>
+      <c r="F979" s="31"/>
+    </row>
+    <row r="980" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A980" s="30"/>
+      <c r="B980" s="5"/>
+      <c r="C980" s="31"/>
+      <c r="D980" s="31"/>
+      <c r="E980" s="31"/>
+      <c r="F980" s="31"/>
+    </row>
+    <row r="981" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A981" s="30"/>
+      <c r="B981" s="5"/>
+      <c r="C981" s="31"/>
+      <c r="D981" s="31"/>
+      <c r="E981" s="31"/>
+      <c r="F981" s="31"/>
+    </row>
+    <row r="982" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A982" s="30"/>
+      <c r="B982" s="5"/>
+      <c r="C982" s="31"/>
+      <c r="D982" s="31"/>
+      <c r="E982" s="31"/>
+      <c r="F982" s="31"/>
+    </row>
+    <row r="983" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A983" s="30"/>
+      <c r="B983" s="5"/>
+      <c r="C983" s="31"/>
+      <c r="D983" s="31"/>
+      <c r="E983" s="31"/>
+      <c r="F983" s="31"/>
+    </row>
+    <row r="984" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A984" s="30"/>
+      <c r="B984" s="5"/>
+      <c r="C984" s="31"/>
+      <c r="D984" s="31"/>
+      <c r="E984" s="31"/>
+      <c r="F984" s="31"/>
+    </row>
+    <row r="985" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A985" s="30"/>
+      <c r="B985" s="5"/>
+      <c r="C985" s="31"/>
+      <c r="D985" s="31"/>
+      <c r="E985" s="31"/>
+      <c r="F985" s="31"/>
+    </row>
+    <row r="986" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A986" s="30"/>
+      <c r="B986" s="5"/>
+      <c r="C986" s="31"/>
+      <c r="D986" s="31"/>
+      <c r="E986" s="31"/>
+      <c r="F986" s="31"/>
+    </row>
+    <row r="987" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A987" s="30"/>
+      <c r="B987" s="5"/>
+      <c r="C987" s="31"/>
+      <c r="D987" s="31"/>
+      <c r="E987" s="31"/>
+      <c r="F987" s="31"/>
+    </row>
+    <row r="988" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A988" s="30"/>
+      <c r="B988" s="5"/>
+      <c r="C988" s="31"/>
+      <c r="D988" s="31"/>
+      <c r="E988" s="31"/>
+      <c r="F988" s="31"/>
+    </row>
+    <row r="989" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A989" s="30"/>
+      <c r="B989" s="5"/>
+      <c r="C989" s="31"/>
+      <c r="D989" s="31"/>
+      <c r="E989" s="31"/>
+      <c r="F989" s="31"/>
+    </row>
+    <row r="990" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A990" s="30"/>
+      <c r="B990" s="5"/>
+      <c r="C990" s="31"/>
+      <c r="D990" s="31"/>
+      <c r="E990" s="31"/>
+      <c r="F990" s="31"/>
+    </row>
+    <row r="991" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A991" s="30"/>
+      <c r="B991" s="5"/>
+      <c r="C991" s="31"/>
+      <c r="D991" s="31"/>
+      <c r="E991" s="31"/>
+      <c r="F991" s="31"/>
+    </row>
+    <row r="992" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A992" s="30"/>
+      <c r="B992" s="5"/>
+      <c r="C992" s="31"/>
+      <c r="D992" s="31"/>
+      <c r="E992" s="31"/>
+      <c r="F992" s="31"/>
+    </row>
+    <row r="993" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A993" s="30"/>
+      <c r="B993" s="5"/>
+      <c r="C993" s="31"/>
+      <c r="D993" s="31"/>
+      <c r="E993" s="31"/>
+      <c r="F993" s="31"/>
+    </row>
+    <row r="994" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A994" s="30"/>
+      <c r="B994" s="5"/>
+      <c r="C994" s="31"/>
+      <c r="D994" s="31"/>
+      <c r="E994" s="31"/>
+      <c r="F994" s="31"/>
+    </row>
+    <row r="995" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A995" s="30"/>
+      <c r="B995" s="5"/>
+      <c r="C995" s="31"/>
+      <c r="D995" s="31"/>
+      <c r="E995" s="31"/>
+      <c r="F995" s="31"/>
+    </row>
+    <row r="996" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A996" s="30"/>
+      <c r="B996" s="5"/>
+      <c r="C996" s="31"/>
+      <c r="D996" s="31"/>
+      <c r="E996" s="31"/>
+      <c r="F996" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B4:F4"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="B8:D8"/>
   </mergeCells>
@@ -819,7 +8620,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="1" style="0" width="11.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="11" style="0" width="10"/>
@@ -1847,7 +9648,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="1" style="0" width="11.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="11" style="0" width="10"/>

--- a/src/main/resources/static/upload/Ot-addActividad.xlsx
+++ b/src/main/resources/static/upload/Ot-addActividad.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="ProductOffering" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Actividad" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t xml:space="preserve">RuleSet</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t xml:space="preserve">Variables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.example.cargaUnificada.resource.request.Ot ot</t>
   </si>
   <si>
     <t xml:space="preserve">Notes</t>
@@ -67,7 +64,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Initial Product Offering</t>
+      <t xml:space="preserve">Actividad</t>
     </r>
   </si>
   <si>
@@ -531,11 +528,11 @@
   </sheetPr>
   <dimension ref="A1:J996"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.71"/>
@@ -549,7 +546,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="17" style="0" width="10"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -577,9 +574,7 @@
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="B3" s="5"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -587,17 +582,17 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
@@ -608,7 +603,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -619,29 +614,29 @@
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="C7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="F7" s="15" t="s">
         <v>10</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>11</v>
       </c>
       <c r="J7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A8" s="7"/>
       <c r="B8" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
@@ -652,70 +647,70 @@
     <row r="9" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A9" s="7"/>
       <c r="B9" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="D9" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="E9" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="F9" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="H9" s="22"/>
+    </row>
+    <row r="10" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="A10" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="22"/>
-    </row>
-    <row r="10" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="A10" s="23" t="s">
+      <c r="B10" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="C10" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="D10" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="E10" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="F10" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="H10" s="22"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="22"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="26" t="s">
+      <c r="B11" s="27" t="s">
         <v>24</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>25</v>
       </c>
       <c r="C11" s="28"/>
       <c r="D11" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11" s="29"/>
       <c r="F11" s="28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="26" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="26" t="s">
-        <v>28</v>
-      </c>
       <c r="B12" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="29"/>
       <c r="D12" s="28"/>
       <c r="E12" s="28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12" s="28"/>
     </row>
@@ -8620,7 +8615,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="1" style="0" width="11.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="11" style="0" width="10"/>
@@ -9648,7 +9643,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="1" style="0" width="11.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="11" style="0" width="10"/>

--- a/src/main/resources/static/upload/Ot-addActividad.xlsx
+++ b/src/main/resources/static/upload/Ot-addActividad.xlsx
@@ -27,7 +27,7 @@
     <t xml:space="preserve">RuleSet</t>
   </si>
   <si>
-    <t xml:space="preserve">net.cloudburo.drools</t>
+    <t xml:space="preserve">regla para determinar actividades para una ot determinada</t>
   </si>
   <si>
     <t xml:space="preserve">Import</t>
@@ -98,19 +98,19 @@
     <t xml:space="preserve">Rule Name</t>
   </si>
   <si>
-    <t xml:space="preserve">Customer type</t>
+    <t xml:space="preserve">codigo tipo ot</t>
   </si>
   <si>
-    <t xml:space="preserve">Assets</t>
+    <t xml:space="preserve">codigo ot</t>
   </si>
   <si>
-    <t xml:space="preserve">Needs</t>
+    <t xml:space="preserve">id ot</t>
   </si>
   <si>
-    <t xml:space="preserve">FinancialPackageProposal</t>
+    <t xml:space="preserve">agregar actividad</t>
   </si>
   <si>
-    <t xml:space="preserve">SingleProductProposal</t>
+    <t xml:space="preserve">remover actividad</t>
   </si>
   <si>
     <t xml:space="preserve">rule1</t>
@@ -529,10 +529,10 @@
   <dimension ref="A1:J996"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.71"/>
@@ -558,7 +558,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="2" customFormat="false" ht="37.5" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -570,7 +570,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="3" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -580,7 +580,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -612,7 +612,7 @@
       <c r="F6" s="11"/>
       <c r="J6" s="10"/>
     </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A7" s="12" t="s">
         <v>8</v>
       </c>
@@ -633,7 +633,7 @@
       </c>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="8" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A8" s="7"/>
       <c r="B8" s="16" t="s">
         <v>11</v>
@@ -644,7 +644,7 @@
       <c r="F8" s="17"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="9" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A9" s="7"/>
       <c r="B9" s="18" t="s">
         <v>12</v>
@@ -8615,7 +8615,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="1" style="0" width="11.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="11" style="0" width="10"/>
@@ -9643,7 +9643,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="1" style="0" width="11.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="11" style="0" width="10"/>
